--- a/平成31年度/ウィザーズ/スコアシート2019【2019年改定版】.xlsx
+++ b/平成31年度/ウィザーズ/スコアシート2019【2019年改定版】.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22026"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\wizusb\平成31年度\ウィザーズ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9570CCF6-7480-40FC-89A7-42CE09F16032}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{483873A6-2BC3-45DC-920E-AEC388E0964E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="26136" windowHeight="16896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="26136" windowHeight="16896" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ｽｺｱｼｰﾄ（白）" sheetId="8" r:id="rId1"/>
@@ -1886,17 +1886,329 @@
     <xf numFmtId="0" fontId="6" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1904,21 +2216,12 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1928,331 +2231,52 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="51" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="51" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="38" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2299,30 +2323,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="51" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="51" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3691,7 +3691,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AM60"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="60" zoomScaleNormal="50" workbookViewId="0"/>
+    <sheetView view="pageBreakPreview" zoomScale="60" zoomScaleNormal="50" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.109375" defaultRowHeight="24" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
@@ -3709,11 +3709,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:37" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="S1" s="111" t="s">
+      <c r="S1" s="215" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="111"/>
-      <c r="U1" s="111"/>
+      <c r="T1" s="215"/>
+      <c r="U1" s="215"/>
     </row>
     <row r="2" spans="1:37" s="24" customFormat="1" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B2" s="2"/>
@@ -3724,30 +3724,30 @@
       <c r="G2" s="2"/>
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
-      <c r="J2" s="112" t="s">
+      <c r="J2" s="216" t="s">
         <v>52</v>
       </c>
-      <c r="K2" s="112"/>
-      <c r="L2" s="112"/>
-      <c r="M2" s="112"/>
-      <c r="N2" s="112"/>
-      <c r="O2" s="112"/>
-      <c r="P2" s="112"/>
-      <c r="Q2" s="112"/>
-      <c r="R2" s="112"/>
-      <c r="S2" s="112"/>
-      <c r="T2" s="112"/>
-      <c r="U2" s="112"/>
-      <c r="V2" s="112"/>
-      <c r="W2" s="112"/>
-      <c r="X2" s="112"/>
-      <c r="Y2" s="112"/>
-      <c r="Z2" s="112"/>
-      <c r="AA2" s="112"/>
-      <c r="AB2" s="112"/>
-      <c r="AC2" s="112"/>
-      <c r="AD2" s="112"/>
-      <c r="AE2" s="112"/>
+      <c r="K2" s="216"/>
+      <c r="L2" s="216"/>
+      <c r="M2" s="216"/>
+      <c r="N2" s="216"/>
+      <c r="O2" s="216"/>
+      <c r="P2" s="216"/>
+      <c r="Q2" s="216"/>
+      <c r="R2" s="216"/>
+      <c r="S2" s="216"/>
+      <c r="T2" s="216"/>
+      <c r="U2" s="216"/>
+      <c r="V2" s="216"/>
+      <c r="W2" s="216"/>
+      <c r="X2" s="216"/>
+      <c r="Y2" s="216"/>
+      <c r="Z2" s="216"/>
+      <c r="AA2" s="216"/>
+      <c r="AB2" s="216"/>
+      <c r="AC2" s="216"/>
+      <c r="AD2" s="216"/>
+      <c r="AE2" s="216"/>
       <c r="AF2" s="1"/>
       <c r="AG2" s="1"/>
       <c r="AH2" s="1"/>
@@ -3756,103 +3756,103 @@
       <c r="AK2" s="1"/>
     </row>
     <row r="3" spans="1:37" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="113" t="s">
+      <c r="A3" s="203" t="s">
         <v>53</v>
       </c>
-      <c r="B3" s="114"/>
-      <c r="C3" s="114"/>
-      <c r="D3" s="117"/>
-      <c r="E3" s="114"/>
-      <c r="F3" s="114"/>
-      <c r="G3" s="114"/>
-      <c r="H3" s="114"/>
-      <c r="I3" s="114"/>
-      <c r="J3" s="114"/>
-      <c r="K3" s="114"/>
-      <c r="L3" s="114"/>
-      <c r="M3" s="114"/>
-      <c r="N3" s="114"/>
-      <c r="O3" s="114"/>
-      <c r="P3" s="114"/>
-      <c r="Q3" s="114"/>
-      <c r="R3" s="114"/>
-      <c r="S3" s="114"/>
-      <c r="T3" s="118"/>
-      <c r="U3" s="107" t="s">
+      <c r="B3" s="204"/>
+      <c r="C3" s="204"/>
+      <c r="D3" s="123"/>
+      <c r="E3" s="204"/>
+      <c r="F3" s="204"/>
+      <c r="G3" s="204"/>
+      <c r="H3" s="204"/>
+      <c r="I3" s="204"/>
+      <c r="J3" s="204"/>
+      <c r="K3" s="204"/>
+      <c r="L3" s="204"/>
+      <c r="M3" s="204"/>
+      <c r="N3" s="204"/>
+      <c r="O3" s="204"/>
+      <c r="P3" s="204"/>
+      <c r="Q3" s="204"/>
+      <c r="R3" s="204"/>
+      <c r="S3" s="204"/>
+      <c r="T3" s="219"/>
+      <c r="U3" s="126" t="s">
         <v>54</v>
       </c>
-      <c r="V3" s="107"/>
-      <c r="W3" s="107"/>
-      <c r="X3" s="107" t="s">
+      <c r="V3" s="126"/>
+      <c r="W3" s="126"/>
+      <c r="X3" s="126" t="s">
         <v>58</v>
       </c>
-      <c r="Y3" s="107"/>
-      <c r="Z3" s="107"/>
-      <c r="AA3" s="107"/>
-      <c r="AB3" s="107"/>
-      <c r="AC3" s="107"/>
-      <c r="AD3" s="107"/>
-      <c r="AE3" s="107"/>
-      <c r="AF3" s="107" t="s">
+      <c r="Y3" s="126"/>
+      <c r="Z3" s="126"/>
+      <c r="AA3" s="126"/>
+      <c r="AB3" s="126"/>
+      <c r="AC3" s="126"/>
+      <c r="AD3" s="126"/>
+      <c r="AE3" s="126"/>
+      <c r="AF3" s="126" t="s">
         <v>56</v>
       </c>
-      <c r="AG3" s="107"/>
-      <c r="AH3" s="107"/>
-      <c r="AI3" s="107" t="s">
+      <c r="AG3" s="126"/>
+      <c r="AH3" s="126"/>
+      <c r="AI3" s="126" t="s">
         <v>86</v>
       </c>
-      <c r="AJ3" s="107"/>
-      <c r="AK3" s="108"/>
+      <c r="AJ3" s="126"/>
+      <c r="AK3" s="127"/>
     </row>
     <row r="4" spans="1:37" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="115"/>
-      <c r="B4" s="116"/>
-      <c r="C4" s="116"/>
-      <c r="D4" s="119"/>
-      <c r="E4" s="116"/>
-      <c r="F4" s="116"/>
-      <c r="G4" s="116"/>
-      <c r="H4" s="116"/>
-      <c r="I4" s="116"/>
-      <c r="J4" s="116"/>
-      <c r="K4" s="116"/>
-      <c r="L4" s="116"/>
-      <c r="M4" s="116"/>
-      <c r="N4" s="116"/>
-      <c r="O4" s="116"/>
-      <c r="P4" s="116"/>
-      <c r="Q4" s="116"/>
-      <c r="R4" s="116"/>
-      <c r="S4" s="116"/>
-      <c r="T4" s="120"/>
-      <c r="U4" s="109" t="s">
+      <c r="A4" s="217"/>
+      <c r="B4" s="218"/>
+      <c r="C4" s="218"/>
+      <c r="D4" s="220"/>
+      <c r="E4" s="218"/>
+      <c r="F4" s="218"/>
+      <c r="G4" s="218"/>
+      <c r="H4" s="218"/>
+      <c r="I4" s="218"/>
+      <c r="J4" s="218"/>
+      <c r="K4" s="218"/>
+      <c r="L4" s="218"/>
+      <c r="M4" s="218"/>
+      <c r="N4" s="218"/>
+      <c r="O4" s="218"/>
+      <c r="P4" s="218"/>
+      <c r="Q4" s="218"/>
+      <c r="R4" s="218"/>
+      <c r="S4" s="218"/>
+      <c r="T4" s="221"/>
+      <c r="U4" s="114" t="s">
         <v>55</v>
       </c>
-      <c r="V4" s="109"/>
-      <c r="W4" s="109"/>
-      <c r="X4" s="109"/>
-      <c r="Y4" s="109"/>
-      <c r="Z4" s="109"/>
-      <c r="AA4" s="109"/>
-      <c r="AB4" s="109"/>
-      <c r="AC4" s="109"/>
-      <c r="AD4" s="109"/>
-      <c r="AE4" s="109"/>
-      <c r="AF4" s="109" t="s">
+      <c r="V4" s="114"/>
+      <c r="W4" s="114"/>
+      <c r="X4" s="114"/>
+      <c r="Y4" s="114"/>
+      <c r="Z4" s="114"/>
+      <c r="AA4" s="114"/>
+      <c r="AB4" s="114"/>
+      <c r="AC4" s="114"/>
+      <c r="AD4" s="114"/>
+      <c r="AE4" s="114"/>
+      <c r="AF4" s="114" t="s">
         <v>57</v>
       </c>
-      <c r="AG4" s="109"/>
-      <c r="AH4" s="109"/>
-      <c r="AI4" s="109"/>
-      <c r="AJ4" s="109"/>
-      <c r="AK4" s="110"/>
+      <c r="AG4" s="114"/>
+      <c r="AH4" s="114"/>
+      <c r="AI4" s="114"/>
+      <c r="AJ4" s="114"/>
+      <c r="AK4" s="115"/>
     </row>
     <row r="5" spans="1:37" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="113" t="s">
+      <c r="A5" s="203" t="s">
         <v>62</v>
       </c>
-      <c r="B5" s="114"/>
-      <c r="C5" s="114"/>
+      <c r="B5" s="204"/>
+      <c r="C5" s="204"/>
       <c r="D5" s="86"/>
       <c r="E5" s="86"/>
       <c r="F5" s="86"/>
@@ -3867,116 +3867,116 @@
       <c r="O5" s="26"/>
       <c r="P5" s="26"/>
       <c r="Q5" s="26"/>
-      <c r="R5" s="121"/>
-      <c r="S5" s="122"/>
-      <c r="T5" s="123"/>
-      <c r="U5" s="124" t="s">
+      <c r="R5" s="205"/>
+      <c r="S5" s="206"/>
+      <c r="T5" s="207"/>
+      <c r="U5" s="208" t="s">
         <v>64</v>
       </c>
-      <c r="V5" s="125"/>
-      <c r="W5" s="125"/>
-      <c r="X5" s="125"/>
+      <c r="V5" s="209"/>
+      <c r="W5" s="209"/>
+      <c r="X5" s="209"/>
       <c r="Y5" s="90"/>
       <c r="Z5" s="90"/>
       <c r="AA5" s="90"/>
       <c r="AB5" s="90"/>
       <c r="AC5" s="28"/>
-      <c r="AD5" s="126" t="s">
+      <c r="AD5" s="210" t="s">
         <v>65</v>
       </c>
-      <c r="AE5" s="125"/>
-      <c r="AF5" s="125"/>
-      <c r="AG5" s="125"/>
+      <c r="AE5" s="209"/>
+      <c r="AF5" s="209"/>
+      <c r="AG5" s="209"/>
       <c r="AH5" s="90"/>
       <c r="AI5" s="90"/>
       <c r="AJ5" s="90"/>
       <c r="AK5" s="91"/>
     </row>
     <row r="6" spans="1:37" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="127" t="s">
+      <c r="A6" s="211" t="s">
         <v>63</v>
       </c>
-      <c r="B6" s="128"/>
-      <c r="C6" s="128"/>
-      <c r="D6" s="129" t="s">
+      <c r="B6" s="191"/>
+      <c r="C6" s="191"/>
+      <c r="D6" s="194" t="s">
         <v>60</v>
       </c>
-      <c r="E6" s="129"/>
-      <c r="F6" s="129"/>
+      <c r="E6" s="194"/>
+      <c r="F6" s="194"/>
       <c r="G6" s="19"/>
       <c r="H6" s="19"/>
       <c r="I6" s="19"/>
-      <c r="J6" s="128" t="s">
+      <c r="J6" s="191" t="s">
         <v>59</v>
       </c>
-      <c r="K6" s="128"/>
+      <c r="K6" s="191"/>
       <c r="L6" s="89"/>
       <c r="M6" s="19"/>
       <c r="N6" s="19"/>
-      <c r="O6" s="129" t="s">
+      <c r="O6" s="194" t="s">
         <v>61</v>
       </c>
-      <c r="P6" s="129"/>
-      <c r="Q6" s="129"/>
+      <c r="P6" s="194"/>
+      <c r="Q6" s="194"/>
       <c r="R6" s="89"/>
       <c r="S6" s="32"/>
       <c r="T6" s="33"/>
-      <c r="U6" s="130"/>
-      <c r="V6" s="131"/>
-      <c r="W6" s="131"/>
-      <c r="X6" s="131"/>
-      <c r="Y6" s="131"/>
-      <c r="Z6" s="131"/>
-      <c r="AA6" s="131"/>
-      <c r="AB6" s="131"/>
-      <c r="AC6" s="132"/>
-      <c r="AD6" s="133"/>
-      <c r="AE6" s="134"/>
-      <c r="AF6" s="134"/>
-      <c r="AG6" s="134"/>
-      <c r="AH6" s="134"/>
-      <c r="AI6" s="134"/>
-      <c r="AJ6" s="134"/>
-      <c r="AK6" s="135"/>
+      <c r="U6" s="212"/>
+      <c r="V6" s="213"/>
+      <c r="W6" s="213"/>
+      <c r="X6" s="213"/>
+      <c r="Y6" s="213"/>
+      <c r="Z6" s="213"/>
+      <c r="AA6" s="213"/>
+      <c r="AB6" s="213"/>
+      <c r="AC6" s="214"/>
+      <c r="AD6" s="201"/>
+      <c r="AE6" s="200"/>
+      <c r="AF6" s="200"/>
+      <c r="AG6" s="200"/>
+      <c r="AH6" s="200"/>
+      <c r="AI6" s="200"/>
+      <c r="AJ6" s="200"/>
+      <c r="AK6" s="202"/>
     </row>
     <row r="7" spans="1:37" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="30"/>
-      <c r="D7" s="170"/>
-      <c r="E7" s="171"/>
-      <c r="F7" s="172"/>
+      <c r="D7" s="187"/>
+      <c r="E7" s="188"/>
+      <c r="F7" s="189"/>
       <c r="G7" s="19"/>
       <c r="H7" s="19"/>
       <c r="I7" s="19"/>
-      <c r="J7" s="128" t="s">
+      <c r="J7" s="191" t="s">
         <v>59</v>
       </c>
-      <c r="K7" s="128"/>
+      <c r="K7" s="191"/>
       <c r="L7" s="89"/>
       <c r="M7" s="19"/>
       <c r="N7" s="19"/>
-      <c r="O7" s="170"/>
-      <c r="P7" s="171"/>
-      <c r="Q7" s="172"/>
+      <c r="O7" s="187"/>
+      <c r="P7" s="188"/>
+      <c r="Q7" s="189"/>
       <c r="R7" s="89"/>
       <c r="S7" s="34"/>
       <c r="T7" s="35"/>
-      <c r="U7" s="177" t="s">
+      <c r="U7" s="196" t="s">
         <v>4</v>
       </c>
-      <c r="V7" s="178"/>
-      <c r="W7" s="178"/>
-      <c r="X7" s="178"/>
+      <c r="V7" s="197"/>
+      <c r="W7" s="197"/>
+      <c r="X7" s="197"/>
       <c r="Y7" s="36"/>
       <c r="Z7" s="36"/>
       <c r="AA7" s="36"/>
       <c r="AB7" s="36"/>
       <c r="AC7" s="37"/>
-      <c r="AD7" s="179" t="s">
+      <c r="AD7" s="198" t="s">
         <v>3</v>
       </c>
-      <c r="AE7" s="178"/>
-      <c r="AF7" s="178"/>
-      <c r="AG7" s="178"/>
+      <c r="AE7" s="197"/>
+      <c r="AF7" s="197"/>
+      <c r="AG7" s="197"/>
       <c r="AH7" s="36"/>
       <c r="AI7" s="36"/>
       <c r="AJ7" s="36"/>
@@ -3985,79 +3985,79 @@
     <row r="8" spans="1:37" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="30"/>
       <c r="B8" s="89"/>
-      <c r="D8" s="173"/>
-      <c r="E8" s="128"/>
-      <c r="F8" s="174"/>
-      <c r="J8" s="128" t="s">
+      <c r="D8" s="190"/>
+      <c r="E8" s="191"/>
+      <c r="F8" s="192"/>
+      <c r="J8" s="191" t="s">
         <v>59</v>
       </c>
-      <c r="K8" s="128"/>
+      <c r="K8" s="191"/>
       <c r="L8" s="89"/>
       <c r="M8" s="19"/>
       <c r="N8" s="19"/>
-      <c r="O8" s="173"/>
-      <c r="P8" s="128"/>
-      <c r="Q8" s="174"/>
+      <c r="O8" s="190"/>
+      <c r="P8" s="191"/>
+      <c r="Q8" s="192"/>
       <c r="R8" s="89"/>
       <c r="S8" s="34"/>
       <c r="T8" s="35"/>
-      <c r="U8" s="180"/>
-      <c r="V8" s="134"/>
-      <c r="W8" s="134"/>
-      <c r="X8" s="134"/>
-      <c r="Y8" s="134"/>
-      <c r="Z8" s="134"/>
-      <c r="AA8" s="134"/>
-      <c r="AB8" s="134"/>
+      <c r="U8" s="199"/>
+      <c r="V8" s="200"/>
+      <c r="W8" s="200"/>
+      <c r="X8" s="200"/>
+      <c r="Y8" s="200"/>
+      <c r="Z8" s="200"/>
+      <c r="AA8" s="200"/>
+      <c r="AB8" s="200"/>
       <c r="AC8" s="39"/>
-      <c r="AD8" s="133"/>
-      <c r="AE8" s="134"/>
-      <c r="AF8" s="134"/>
-      <c r="AG8" s="134"/>
-      <c r="AH8" s="134"/>
-      <c r="AI8" s="134"/>
-      <c r="AJ8" s="134"/>
-      <c r="AK8" s="135"/>
+      <c r="AD8" s="201"/>
+      <c r="AE8" s="200"/>
+      <c r="AF8" s="200"/>
+      <c r="AG8" s="200"/>
+      <c r="AH8" s="200"/>
+      <c r="AI8" s="200"/>
+      <c r="AJ8" s="200"/>
+      <c r="AK8" s="202"/>
     </row>
     <row r="9" spans="1:37" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="30"/>
       <c r="B9" s="89"/>
-      <c r="D9" s="175"/>
-      <c r="E9" s="129"/>
-      <c r="F9" s="176"/>
-      <c r="J9" s="128" t="s">
+      <c r="D9" s="193"/>
+      <c r="E9" s="194"/>
+      <c r="F9" s="195"/>
+      <c r="J9" s="191" t="s">
         <v>59</v>
       </c>
-      <c r="K9" s="128"/>
+      <c r="K9" s="191"/>
       <c r="L9" s="89"/>
       <c r="M9" s="19"/>
       <c r="N9" s="19"/>
-      <c r="O9" s="175"/>
-      <c r="P9" s="129"/>
-      <c r="Q9" s="176"/>
+      <c r="O9" s="193"/>
+      <c r="P9" s="194"/>
+      <c r="Q9" s="195"/>
       <c r="R9" s="89"/>
       <c r="S9" s="89"/>
       <c r="T9" s="40"/>
-      <c r="U9" s="177" t="s">
+      <c r="U9" s="196" t="s">
         <v>2</v>
       </c>
-      <c r="V9" s="178"/>
-      <c r="W9" s="178"/>
-      <c r="X9" s="178"/>
+      <c r="V9" s="197"/>
+      <c r="W9" s="197"/>
+      <c r="X9" s="197"/>
       <c r="Y9" s="36"/>
       <c r="Z9" s="36"/>
       <c r="AA9" s="36"/>
       <c r="AB9" s="36"/>
       <c r="AC9" s="37"/>
-      <c r="AD9" s="141" t="s">
+      <c r="AD9" s="174" t="s">
         <v>66</v>
       </c>
-      <c r="AE9" s="142"/>
-      <c r="AF9" s="142"/>
-      <c r="AG9" s="142"/>
-      <c r="AH9" s="142"/>
-      <c r="AI9" s="142"/>
-      <c r="AJ9" s="142"/>
+      <c r="AE9" s="175"/>
+      <c r="AF9" s="175"/>
+      <c r="AG9" s="175"/>
+      <c r="AH9" s="175"/>
+      <c r="AI9" s="175"/>
+      <c r="AJ9" s="175"/>
       <c r="AK9" s="38"/>
     </row>
     <row r="10" spans="1:37" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -4070,10 +4070,10 @@
       <c r="G10" s="22"/>
       <c r="H10" s="22"/>
       <c r="I10" s="22"/>
-      <c r="J10" s="143" t="s">
+      <c r="J10" s="176" t="s">
         <v>85</v>
       </c>
-      <c r="K10" s="143"/>
+      <c r="K10" s="176"/>
       <c r="L10" s="59"/>
       <c r="M10" s="22"/>
       <c r="N10" s="22"/>
@@ -4083,87 +4083,87 @@
       <c r="R10" s="22"/>
       <c r="S10" s="22"/>
       <c r="T10" s="42"/>
-      <c r="U10" s="144"/>
-      <c r="V10" s="145"/>
-      <c r="W10" s="145"/>
-      <c r="X10" s="145"/>
-      <c r="Y10" s="145"/>
-      <c r="Z10" s="145"/>
-      <c r="AA10" s="145"/>
-      <c r="AB10" s="145"/>
+      <c r="U10" s="177"/>
+      <c r="V10" s="178"/>
+      <c r="W10" s="178"/>
+      <c r="X10" s="178"/>
+      <c r="Y10" s="178"/>
+      <c r="Z10" s="178"/>
+      <c r="AA10" s="178"/>
+      <c r="AB10" s="178"/>
       <c r="AC10" s="43"/>
-      <c r="AD10" s="146"/>
-      <c r="AE10" s="145"/>
-      <c r="AF10" s="145"/>
-      <c r="AG10" s="145"/>
-      <c r="AH10" s="145"/>
-      <c r="AI10" s="145"/>
-      <c r="AJ10" s="145"/>
-      <c r="AK10" s="147"/>
+      <c r="AD10" s="179"/>
+      <c r="AE10" s="178"/>
+      <c r="AF10" s="178"/>
+      <c r="AG10" s="178"/>
+      <c r="AH10" s="178"/>
+      <c r="AI10" s="178"/>
+      <c r="AJ10" s="178"/>
+      <c r="AK10" s="180"/>
     </row>
     <row r="11" spans="1:37" ht="9.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="12" spans="1:37" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="148" t="s">
+      <c r="A12" s="132" t="s">
         <v>73</v>
       </c>
-      <c r="B12" s="149"/>
-      <c r="C12" s="149"/>
-      <c r="D12" s="150" t="s">
+      <c r="B12" s="139"/>
+      <c r="C12" s="139"/>
+      <c r="D12" s="140" t="s">
         <v>22</v>
       </c>
-      <c r="E12" s="150"/>
-      <c r="F12" s="150"/>
-      <c r="G12" s="150"/>
-      <c r="H12" s="150"/>
-      <c r="I12" s="150"/>
-      <c r="J12" s="150"/>
-      <c r="K12" s="150"/>
-      <c r="L12" s="153" t="s">
+      <c r="E12" s="140"/>
+      <c r="F12" s="140"/>
+      <c r="G12" s="140"/>
+      <c r="H12" s="140"/>
+      <c r="I12" s="140"/>
+      <c r="J12" s="140"/>
+      <c r="K12" s="140"/>
+      <c r="L12" s="143" t="s">
         <v>72</v>
       </c>
-      <c r="M12" s="153"/>
-      <c r="N12" s="154"/>
-      <c r="O12" s="159" t="s">
+      <c r="M12" s="143"/>
+      <c r="N12" s="144"/>
+      <c r="O12" s="149" t="s">
         <v>20</v>
       </c>
-      <c r="P12" s="160"/>
-      <c r="Q12" s="160"/>
-      <c r="R12" s="160"/>
-      <c r="S12" s="161"/>
-      <c r="X12" s="162" t="s">
+      <c r="P12" s="150"/>
+      <c r="Q12" s="150"/>
+      <c r="R12" s="150"/>
+      <c r="S12" s="151"/>
+      <c r="X12" s="181" t="s">
         <v>71</v>
       </c>
-      <c r="Y12" s="163"/>
-      <c r="Z12" s="163"/>
-      <c r="AA12" s="163"/>
-      <c r="AB12" s="163"/>
-      <c r="AC12" s="163"/>
-      <c r="AD12" s="163"/>
-      <c r="AE12" s="163"/>
-      <c r="AF12" s="163"/>
-      <c r="AG12" s="163"/>
-      <c r="AH12" s="163"/>
-      <c r="AI12" s="163"/>
-      <c r="AJ12" s="163"/>
-      <c r="AK12" s="164"/>
+      <c r="Y12" s="182"/>
+      <c r="Z12" s="182"/>
+      <c r="AA12" s="182"/>
+      <c r="AB12" s="182"/>
+      <c r="AC12" s="182"/>
+      <c r="AD12" s="182"/>
+      <c r="AE12" s="182"/>
+      <c r="AF12" s="182"/>
+      <c r="AG12" s="182"/>
+      <c r="AH12" s="182"/>
+      <c r="AI12" s="182"/>
+      <c r="AJ12" s="182"/>
+      <c r="AK12" s="183"/>
     </row>
     <row r="13" spans="1:37" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="168" t="s">
+      <c r="A13" s="152" t="s">
         <v>74</v>
       </c>
-      <c r="B13" s="169"/>
-      <c r="C13" s="169"/>
-      <c r="D13" s="151"/>
-      <c r="E13" s="151"/>
-      <c r="F13" s="151"/>
-      <c r="G13" s="151"/>
-      <c r="H13" s="151"/>
-      <c r="I13" s="151"/>
-      <c r="J13" s="151"/>
-      <c r="K13" s="151"/>
-      <c r="L13" s="155"/>
-      <c r="M13" s="155"/>
-      <c r="N13" s="156"/>
+      <c r="B13" s="153"/>
+      <c r="C13" s="153"/>
+      <c r="D13" s="141"/>
+      <c r="E13" s="141"/>
+      <c r="F13" s="141"/>
+      <c r="G13" s="141"/>
+      <c r="H13" s="141"/>
+      <c r="I13" s="141"/>
+      <c r="J13" s="141"/>
+      <c r="K13" s="141"/>
+      <c r="L13" s="145"/>
+      <c r="M13" s="145"/>
+      <c r="N13" s="146"/>
       <c r="O13" s="3" t="s">
         <v>67</v>
       </c>
@@ -4179,104 +4179,104 @@
       <c r="S13" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="X13" s="165"/>
-      <c r="Y13" s="166"/>
-      <c r="Z13" s="166"/>
-      <c r="AA13" s="166"/>
-      <c r="AB13" s="166"/>
-      <c r="AC13" s="166"/>
-      <c r="AD13" s="166"/>
-      <c r="AE13" s="166"/>
-      <c r="AF13" s="166"/>
-      <c r="AG13" s="166"/>
-      <c r="AH13" s="166"/>
-      <c r="AI13" s="166"/>
-      <c r="AJ13" s="166"/>
-      <c r="AK13" s="167"/>
+      <c r="X13" s="184"/>
+      <c r="Y13" s="185"/>
+      <c r="Z13" s="185"/>
+      <c r="AA13" s="185"/>
+      <c r="AB13" s="185"/>
+      <c r="AC13" s="185"/>
+      <c r="AD13" s="185"/>
+      <c r="AE13" s="185"/>
+      <c r="AF13" s="185"/>
+      <c r="AG13" s="185"/>
+      <c r="AH13" s="185"/>
+      <c r="AI13" s="185"/>
+      <c r="AJ13" s="185"/>
+      <c r="AK13" s="186"/>
     </row>
     <row r="14" spans="1:37" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" s="100"/>
       <c r="B14" s="101"/>
       <c r="C14" s="101"/>
-      <c r="D14" s="152"/>
-      <c r="E14" s="152"/>
-      <c r="F14" s="152"/>
-      <c r="G14" s="152"/>
-      <c r="H14" s="152"/>
-      <c r="I14" s="152"/>
-      <c r="J14" s="152"/>
-      <c r="K14" s="152"/>
-      <c r="L14" s="157"/>
-      <c r="M14" s="157"/>
-      <c r="N14" s="158"/>
+      <c r="D14" s="142"/>
+      <c r="E14" s="142"/>
+      <c r="F14" s="142"/>
+      <c r="G14" s="142"/>
+      <c r="H14" s="142"/>
+      <c r="I14" s="142"/>
+      <c r="J14" s="142"/>
+      <c r="K14" s="142"/>
+      <c r="L14" s="147"/>
+      <c r="M14" s="147"/>
+      <c r="N14" s="148"/>
       <c r="O14" s="44"/>
       <c r="P14" s="21"/>
       <c r="Q14" s="21"/>
       <c r="R14" s="21"/>
       <c r="S14" s="45"/>
-      <c r="X14" s="194" t="s">
+      <c r="X14" s="168" t="s">
         <v>87</v>
       </c>
-      <c r="Y14" s="139"/>
-      <c r="Z14" s="136" t="s">
+      <c r="Y14" s="169"/>
+      <c r="Z14" s="170" t="s">
         <v>88</v>
       </c>
-      <c r="AA14" s="137"/>
+      <c r="AA14" s="171"/>
       <c r="AB14" s="17"/>
-      <c r="AC14" s="138" t="s">
+      <c r="AC14" s="172" t="s">
         <v>89</v>
       </c>
-      <c r="AD14" s="139"/>
-      <c r="AE14" s="136" t="s">
+      <c r="AD14" s="169"/>
+      <c r="AE14" s="170" t="s">
         <v>88</v>
       </c>
-      <c r="AF14" s="137"/>
+      <c r="AF14" s="171"/>
       <c r="AG14" s="17"/>
-      <c r="AH14" s="138" t="s">
+      <c r="AH14" s="172" t="s">
         <v>89</v>
       </c>
-      <c r="AI14" s="139"/>
-      <c r="AJ14" s="136" t="s">
+      <c r="AI14" s="169"/>
+      <c r="AJ14" s="170" t="s">
         <v>88</v>
       </c>
-      <c r="AK14" s="140"/>
+      <c r="AK14" s="173"/>
     </row>
     <row r="15" spans="1:37" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="181" t="s">
+      <c r="A15" s="154" t="s">
         <v>75</v>
       </c>
-      <c r="B15" s="183" t="s">
+      <c r="B15" s="155" t="s">
         <v>76</v>
       </c>
-      <c r="C15" s="183"/>
-      <c r="D15" s="183"/>
-      <c r="E15" s="185" t="s">
+      <c r="C15" s="155"/>
+      <c r="D15" s="155"/>
+      <c r="E15" s="121" t="s">
         <v>77</v>
       </c>
-      <c r="F15" s="186"/>
-      <c r="G15" s="186"/>
-      <c r="H15" s="186"/>
-      <c r="I15" s="186"/>
-      <c r="J15" s="188" t="s">
+      <c r="F15" s="122"/>
+      <c r="G15" s="122"/>
+      <c r="H15" s="122"/>
+      <c r="I15" s="122"/>
+      <c r="J15" s="158" t="s">
         <v>0</v>
       </c>
-      <c r="K15" s="190" t="s">
+      <c r="K15" s="160" t="s">
         <v>15</v>
       </c>
-      <c r="L15" s="191"/>
-      <c r="M15" s="191"/>
-      <c r="N15" s="192"/>
-      <c r="O15" s="193" t="s">
+      <c r="L15" s="161"/>
+      <c r="M15" s="161"/>
+      <c r="N15" s="162"/>
+      <c r="O15" s="131" t="s">
         <v>5</v>
       </c>
-      <c r="P15" s="107"/>
-      <c r="Q15" s="107"/>
-      <c r="R15" s="107"/>
-      <c r="S15" s="108"/>
-      <c r="U15" s="148" t="s">
+      <c r="P15" s="126"/>
+      <c r="Q15" s="126"/>
+      <c r="R15" s="126"/>
+      <c r="S15" s="127"/>
+      <c r="U15" s="132" t="s">
         <v>6</v>
       </c>
-      <c r="V15" s="198"/>
+      <c r="V15" s="133"/>
       <c r="X15" s="47"/>
       <c r="Y15" s="94">
         <v>1</v>
@@ -4305,16 +4305,16 @@
       <c r="AK15" s="97"/>
     </row>
     <row r="16" spans="1:37" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="182"/>
-      <c r="B16" s="184"/>
-      <c r="C16" s="184"/>
-      <c r="D16" s="184"/>
-      <c r="E16" s="187"/>
-      <c r="F16" s="187"/>
-      <c r="G16" s="187"/>
-      <c r="H16" s="187"/>
-      <c r="I16" s="187"/>
-      <c r="J16" s="189"/>
+      <c r="A16" s="128"/>
+      <c r="B16" s="156"/>
+      <c r="C16" s="156"/>
+      <c r="D16" s="156"/>
+      <c r="E16" s="157"/>
+      <c r="F16" s="157"/>
+      <c r="G16" s="157"/>
+      <c r="H16" s="157"/>
+      <c r="I16" s="157"/>
+      <c r="J16" s="159"/>
       <c r="K16" s="48" t="s">
         <v>7</v>
       </c>
@@ -4342,8 +4342,8 @@
       <c r="S16" s="10">
         <v>5</v>
       </c>
-      <c r="U16" s="199"/>
-      <c r="V16" s="200"/>
+      <c r="U16" s="134"/>
+      <c r="V16" s="135"/>
       <c r="X16" s="49"/>
       <c r="Y16" s="87">
         <v>2</v>
@@ -4378,13 +4378,13 @@
       <c r="B17" s="17"/>
       <c r="C17" s="17"/>
       <c r="D17" s="17"/>
-      <c r="E17" s="201" t="s">
+      <c r="E17" s="136" t="s">
         <v>37</v>
       </c>
-      <c r="F17" s="202"/>
-      <c r="G17" s="202"/>
-      <c r="H17" s="202"/>
-      <c r="I17" s="203"/>
+      <c r="F17" s="137"/>
+      <c r="G17" s="137"/>
+      <c r="H17" s="137"/>
+      <c r="I17" s="138"/>
       <c r="J17" s="60">
         <v>4</v>
       </c>
@@ -4431,13 +4431,13 @@
       <c r="B18" s="20"/>
       <c r="C18" s="20"/>
       <c r="D18" s="20"/>
-      <c r="E18" s="195" t="s">
+      <c r="E18" s="117" t="s">
         <v>38</v>
       </c>
-      <c r="F18" s="196"/>
-      <c r="G18" s="196"/>
-      <c r="H18" s="196"/>
-      <c r="I18" s="197"/>
+      <c r="F18" s="118"/>
+      <c r="G18" s="118"/>
+      <c r="H18" s="118"/>
+      <c r="I18" s="119"/>
       <c r="J18" s="61">
         <v>5</v>
       </c>
@@ -4450,10 +4450,10 @@
       <c r="Q18" s="20"/>
       <c r="R18" s="20"/>
       <c r="S18" s="54"/>
-      <c r="U18" s="204" t="s">
+      <c r="U18" s="120" t="s">
         <v>11</v>
       </c>
-      <c r="V18" s="205" t="s">
+      <c r="V18" s="129" t="s">
         <v>12</v>
       </c>
       <c r="X18" s="49"/>
@@ -4490,13 +4490,13 @@
       <c r="B19" s="20"/>
       <c r="C19" s="20"/>
       <c r="D19" s="20"/>
-      <c r="E19" s="195" t="s">
+      <c r="E19" s="117" t="s">
         <v>39</v>
       </c>
-      <c r="F19" s="196"/>
-      <c r="G19" s="196"/>
-      <c r="H19" s="196"/>
-      <c r="I19" s="197"/>
+      <c r="F19" s="118"/>
+      <c r="G19" s="118"/>
+      <c r="H19" s="118"/>
+      <c r="I19" s="119"/>
       <c r="J19" s="61">
         <v>6</v>
       </c>
@@ -4509,8 +4509,8 @@
       <c r="Q19" s="20"/>
       <c r="R19" s="20"/>
       <c r="S19" s="54"/>
-      <c r="U19" s="182"/>
-      <c r="V19" s="206"/>
+      <c r="U19" s="128"/>
+      <c r="V19" s="130"/>
       <c r="X19" s="49"/>
       <c r="Y19" s="87">
         <v>5</v>
@@ -4545,13 +4545,13 @@
       <c r="B20" s="20"/>
       <c r="C20" s="20"/>
       <c r="D20" s="20"/>
-      <c r="E20" s="195" t="s">
+      <c r="E20" s="117" t="s">
         <v>40</v>
       </c>
-      <c r="F20" s="196"/>
-      <c r="G20" s="196"/>
-      <c r="H20" s="196"/>
-      <c r="I20" s="197"/>
+      <c r="F20" s="118"/>
+      <c r="G20" s="118"/>
+      <c r="H20" s="118"/>
+      <c r="I20" s="119"/>
       <c r="J20" s="61">
         <v>7</v>
       </c>
@@ -4604,13 +4604,13 @@
       <c r="B21" s="20"/>
       <c r="C21" s="20"/>
       <c r="D21" s="20"/>
-      <c r="E21" s="195" t="s">
+      <c r="E21" s="117" t="s">
         <v>41</v>
       </c>
-      <c r="F21" s="196"/>
-      <c r="G21" s="196"/>
-      <c r="H21" s="196"/>
-      <c r="I21" s="197"/>
+      <c r="F21" s="118"/>
+      <c r="G21" s="118"/>
+      <c r="H21" s="118"/>
+      <c r="I21" s="119"/>
       <c r="J21" s="61">
         <v>8</v>
       </c>
@@ -4663,13 +4663,13 @@
       <c r="B22" s="20"/>
       <c r="C22" s="20"/>
       <c r="D22" s="20"/>
-      <c r="E22" s="195" t="s">
+      <c r="E22" s="117" t="s">
         <v>42</v>
       </c>
-      <c r="F22" s="196"/>
-      <c r="G22" s="196"/>
-      <c r="H22" s="196"/>
-      <c r="I22" s="197"/>
+      <c r="F22" s="118"/>
+      <c r="G22" s="118"/>
+      <c r="H22" s="118"/>
+      <c r="I22" s="119"/>
       <c r="J22" s="61">
         <v>9</v>
       </c>
@@ -4722,13 +4722,13 @@
       <c r="B23" s="20"/>
       <c r="C23" s="20"/>
       <c r="D23" s="20"/>
-      <c r="E23" s="195" t="s">
+      <c r="E23" s="117" t="s">
         <v>43</v>
       </c>
-      <c r="F23" s="196"/>
-      <c r="G23" s="196"/>
-      <c r="H23" s="196"/>
-      <c r="I23" s="197"/>
+      <c r="F23" s="118"/>
+      <c r="G23" s="118"/>
+      <c r="H23" s="118"/>
+      <c r="I23" s="119"/>
       <c r="J23" s="61">
         <v>10</v>
       </c>
@@ -4781,13 +4781,13 @@
       <c r="B24" s="20"/>
       <c r="C24" s="20"/>
       <c r="D24" s="20"/>
-      <c r="E24" s="195" t="s">
+      <c r="E24" s="117" t="s">
         <v>44</v>
       </c>
-      <c r="F24" s="196"/>
-      <c r="G24" s="196"/>
-      <c r="H24" s="196"/>
-      <c r="I24" s="197"/>
+      <c r="F24" s="118"/>
+      <c r="G24" s="118"/>
+      <c r="H24" s="118"/>
+      <c r="I24" s="119"/>
       <c r="J24" s="61">
         <v>11</v>
       </c>
@@ -4834,13 +4834,13 @@
       <c r="B25" s="20"/>
       <c r="C25" s="20"/>
       <c r="D25" s="20"/>
-      <c r="E25" s="195" t="s">
+      <c r="E25" s="117" t="s">
         <v>45</v>
       </c>
-      <c r="F25" s="196"/>
-      <c r="G25" s="196"/>
-      <c r="H25" s="196"/>
-      <c r="I25" s="197"/>
+      <c r="F25" s="118"/>
+      <c r="G25" s="118"/>
+      <c r="H25" s="118"/>
+      <c r="I25" s="119"/>
       <c r="J25" s="61">
         <v>12</v>
       </c>
@@ -4853,10 +4853,10 @@
       <c r="Q25" s="20"/>
       <c r="R25" s="20"/>
       <c r="S25" s="54"/>
-      <c r="U25" s="204" t="s">
+      <c r="U25" s="120" t="s">
         <v>13</v>
       </c>
-      <c r="V25" s="205" t="s">
+      <c r="V25" s="129" t="s">
         <v>14</v>
       </c>
       <c r="X25" s="49"/>
@@ -4893,13 +4893,13 @@
       <c r="B26" s="20"/>
       <c r="C26" s="20"/>
       <c r="D26" s="20"/>
-      <c r="E26" s="195" t="s">
+      <c r="E26" s="117" t="s">
         <v>46</v>
       </c>
-      <c r="F26" s="196"/>
-      <c r="G26" s="196"/>
-      <c r="H26" s="196"/>
-      <c r="I26" s="197"/>
+      <c r="F26" s="118"/>
+      <c r="G26" s="118"/>
+      <c r="H26" s="118"/>
+      <c r="I26" s="119"/>
       <c r="J26" s="61">
         <v>13</v>
       </c>
@@ -4912,8 +4912,8 @@
       <c r="Q26" s="20"/>
       <c r="R26" s="20"/>
       <c r="S26" s="54"/>
-      <c r="U26" s="182"/>
-      <c r="V26" s="206"/>
+      <c r="U26" s="128"/>
+      <c r="V26" s="130"/>
       <c r="X26" s="49"/>
       <c r="Y26" s="87">
         <v>12</v>
@@ -4951,13 +4951,13 @@
       <c r="B27" s="20"/>
       <c r="C27" s="20"/>
       <c r="D27" s="20"/>
-      <c r="E27" s="195" t="s">
+      <c r="E27" s="117" t="s">
         <v>47</v>
       </c>
-      <c r="F27" s="196"/>
-      <c r="G27" s="196"/>
-      <c r="H27" s="196"/>
-      <c r="I27" s="197"/>
+      <c r="F27" s="118"/>
+      <c r="G27" s="118"/>
+      <c r="H27" s="118"/>
+      <c r="I27" s="119"/>
       <c r="J27" s="61">
         <v>14</v>
       </c>
@@ -5010,13 +5010,13 @@
       <c r="B28" s="20"/>
       <c r="C28" s="20"/>
       <c r="D28" s="20"/>
-      <c r="E28" s="195" t="s">
+      <c r="E28" s="117" t="s">
         <v>48</v>
       </c>
-      <c r="F28" s="196"/>
-      <c r="G28" s="196"/>
-      <c r="H28" s="196"/>
-      <c r="I28" s="197"/>
+      <c r="F28" s="118"/>
+      <c r="G28" s="118"/>
+      <c r="H28" s="118"/>
+      <c r="I28" s="119"/>
       <c r="J28" s="61">
         <v>15</v>
       </c>
@@ -5069,13 +5069,13 @@
       <c r="B29" s="20"/>
       <c r="C29" s="20"/>
       <c r="D29" s="20"/>
-      <c r="E29" s="195" t="s">
+      <c r="E29" s="117" t="s">
         <v>49</v>
       </c>
-      <c r="F29" s="196"/>
-      <c r="G29" s="196"/>
-      <c r="H29" s="196"/>
-      <c r="I29" s="197"/>
+      <c r="F29" s="118"/>
+      <c r="G29" s="118"/>
+      <c r="H29" s="118"/>
+      <c r="I29" s="119"/>
       <c r="J29" s="61">
         <v>16</v>
       </c>
@@ -5128,13 +5128,13 @@
       <c r="B30" s="20"/>
       <c r="C30" s="20"/>
       <c r="D30" s="20"/>
-      <c r="E30" s="195" t="s">
+      <c r="E30" s="117" t="s">
         <v>50</v>
       </c>
-      <c r="F30" s="196"/>
-      <c r="G30" s="196"/>
-      <c r="H30" s="196"/>
-      <c r="I30" s="197"/>
+      <c r="F30" s="118"/>
+      <c r="G30" s="118"/>
+      <c r="H30" s="118"/>
+      <c r="I30" s="119"/>
       <c r="J30" s="61">
         <v>17</v>
       </c>
@@ -5187,13 +5187,13 @@
       <c r="B31" s="20"/>
       <c r="C31" s="20"/>
       <c r="D31" s="20"/>
-      <c r="E31" s="195" t="s">
+      <c r="E31" s="117" t="s">
         <v>51</v>
       </c>
-      <c r="F31" s="196"/>
-      <c r="G31" s="196"/>
-      <c r="H31" s="196"/>
-      <c r="I31" s="197"/>
+      <c r="F31" s="118"/>
+      <c r="G31" s="118"/>
+      <c r="H31" s="118"/>
+      <c r="I31" s="119"/>
       <c r="J31" s="62">
         <v>18</v>
       </c>
@@ -5234,22 +5234,22 @@
       <c r="AK31" s="23"/>
     </row>
     <row r="32" spans="1:39" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="207" t="s">
+      <c r="A32" s="163" t="s">
         <v>78</v>
       </c>
-      <c r="B32" s="208"/>
-      <c r="C32" s="208"/>
-      <c r="D32" s="208"/>
+      <c r="B32" s="164"/>
+      <c r="C32" s="164"/>
+      <c r="D32" s="164"/>
       <c r="E32" s="102"/>
       <c r="F32" s="102"/>
       <c r="G32" s="51"/>
-      <c r="H32" s="107"/>
-      <c r="I32" s="107"/>
-      <c r="J32" s="107"/>
-      <c r="K32" s="107"/>
-      <c r="L32" s="107"/>
-      <c r="M32" s="107"/>
-      <c r="N32" s="209"/>
+      <c r="H32" s="126"/>
+      <c r="I32" s="126"/>
+      <c r="J32" s="126"/>
+      <c r="K32" s="126"/>
+      <c r="L32" s="126"/>
+      <c r="M32" s="126"/>
+      <c r="N32" s="165"/>
       <c r="O32" s="50"/>
       <c r="P32" s="51"/>
       <c r="Q32" s="51"/>
@@ -5283,22 +5283,22 @@
       <c r="AK32" s="23"/>
     </row>
     <row r="33" spans="1:37" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="210" t="s">
+      <c r="A33" s="166" t="s">
         <v>79</v>
       </c>
-      <c r="B33" s="211"/>
-      <c r="C33" s="211"/>
-      <c r="D33" s="211"/>
+      <c r="B33" s="167"/>
+      <c r="C33" s="167"/>
+      <c r="D33" s="167"/>
       <c r="E33" s="103"/>
       <c r="F33" s="103"/>
       <c r="G33" s="21"/>
-      <c r="H33" s="109"/>
-      <c r="I33" s="109"/>
-      <c r="J33" s="109"/>
-      <c r="K33" s="109"/>
-      <c r="L33" s="109"/>
-      <c r="M33" s="109"/>
-      <c r="N33" s="212"/>
+      <c r="H33" s="114"/>
+      <c r="I33" s="114"/>
+      <c r="J33" s="114"/>
+      <c r="K33" s="114"/>
+      <c r="L33" s="114"/>
+      <c r="M33" s="114"/>
+      <c r="N33" s="110"/>
       <c r="O33" s="44"/>
       <c r="P33" s="21"/>
       <c r="Q33" s="21"/>
@@ -5407,31 +5407,31 @@
       <c r="AK35" s="23"/>
     </row>
     <row r="36" spans="1:37" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="148" t="s">
+      <c r="A36" s="132" t="s">
         <v>80</v>
       </c>
-      <c r="B36" s="149"/>
-      <c r="C36" s="149"/>
-      <c r="D36" s="150"/>
-      <c r="E36" s="150"/>
-      <c r="F36" s="150"/>
-      <c r="G36" s="150"/>
-      <c r="H36" s="150"/>
-      <c r="I36" s="150"/>
-      <c r="J36" s="150"/>
-      <c r="K36" s="150"/>
-      <c r="L36" s="153" t="s">
+      <c r="B36" s="139"/>
+      <c r="C36" s="139"/>
+      <c r="D36" s="140"/>
+      <c r="E36" s="140"/>
+      <c r="F36" s="140"/>
+      <c r="G36" s="140"/>
+      <c r="H36" s="140"/>
+      <c r="I36" s="140"/>
+      <c r="J36" s="140"/>
+      <c r="K36" s="140"/>
+      <c r="L36" s="143" t="s">
         <v>82</v>
       </c>
-      <c r="M36" s="153"/>
-      <c r="N36" s="154"/>
-      <c r="O36" s="159" t="s">
+      <c r="M36" s="143"/>
+      <c r="N36" s="144"/>
+      <c r="O36" s="149" t="s">
         <v>20</v>
       </c>
-      <c r="P36" s="160"/>
-      <c r="Q36" s="160"/>
-      <c r="R36" s="160"/>
-      <c r="S36" s="161"/>
+      <c r="P36" s="150"/>
+      <c r="Q36" s="150"/>
+      <c r="R36" s="150"/>
+      <c r="S36" s="151"/>
       <c r="X36" s="49"/>
       <c r="Y36" s="87">
         <v>22</v>
@@ -5460,22 +5460,22 @@
       <c r="AK36" s="23"/>
     </row>
     <row r="37" spans="1:37" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="168" t="s">
+      <c r="A37" s="152" t="s">
         <v>81</v>
       </c>
-      <c r="B37" s="169"/>
-      <c r="C37" s="169"/>
-      <c r="D37" s="151"/>
-      <c r="E37" s="151"/>
-      <c r="F37" s="151"/>
-      <c r="G37" s="151"/>
-      <c r="H37" s="151"/>
-      <c r="I37" s="151"/>
-      <c r="J37" s="151"/>
-      <c r="K37" s="151"/>
-      <c r="L37" s="155"/>
-      <c r="M37" s="155"/>
-      <c r="N37" s="156"/>
+      <c r="B37" s="153"/>
+      <c r="C37" s="153"/>
+      <c r="D37" s="141"/>
+      <c r="E37" s="141"/>
+      <c r="F37" s="141"/>
+      <c r="G37" s="141"/>
+      <c r="H37" s="141"/>
+      <c r="I37" s="141"/>
+      <c r="J37" s="141"/>
+      <c r="K37" s="141"/>
+      <c r="L37" s="145"/>
+      <c r="M37" s="145"/>
+      <c r="N37" s="146"/>
       <c r="O37" s="3" t="s">
         <v>67</v>
       </c>
@@ -5522,17 +5522,17 @@
       <c r="A38" s="100"/>
       <c r="B38" s="101"/>
       <c r="C38" s="101"/>
-      <c r="D38" s="152"/>
-      <c r="E38" s="152"/>
-      <c r="F38" s="152"/>
-      <c r="G38" s="152"/>
-      <c r="H38" s="152"/>
-      <c r="I38" s="152"/>
-      <c r="J38" s="152"/>
-      <c r="K38" s="152"/>
-      <c r="L38" s="157"/>
-      <c r="M38" s="157"/>
-      <c r="N38" s="158"/>
+      <c r="D38" s="142"/>
+      <c r="E38" s="142"/>
+      <c r="F38" s="142"/>
+      <c r="G38" s="142"/>
+      <c r="H38" s="142"/>
+      <c r="I38" s="142"/>
+      <c r="J38" s="142"/>
+      <c r="K38" s="142"/>
+      <c r="L38" s="147"/>
+      <c r="M38" s="147"/>
+      <c r="N38" s="148"/>
       <c r="O38" s="44"/>
       <c r="P38" s="21"/>
       <c r="Q38" s="21"/>
@@ -5566,41 +5566,41 @@
       <c r="AK38" s="23"/>
     </row>
     <row r="39" spans="1:37" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="181" t="s">
+      <c r="A39" s="154" t="s">
         <v>75</v>
       </c>
-      <c r="B39" s="183" t="s">
+      <c r="B39" s="155" t="s">
         <v>76</v>
       </c>
-      <c r="C39" s="183"/>
-      <c r="D39" s="183"/>
-      <c r="E39" s="185" t="s">
+      <c r="C39" s="155"/>
+      <c r="D39" s="155"/>
+      <c r="E39" s="121" t="s">
         <v>77</v>
       </c>
-      <c r="F39" s="186"/>
-      <c r="G39" s="186"/>
-      <c r="H39" s="186"/>
-      <c r="I39" s="186"/>
-      <c r="J39" s="188" t="s">
+      <c r="F39" s="122"/>
+      <c r="G39" s="122"/>
+      <c r="H39" s="122"/>
+      <c r="I39" s="122"/>
+      <c r="J39" s="158" t="s">
         <v>0</v>
       </c>
-      <c r="K39" s="190" t="s">
+      <c r="K39" s="160" t="s">
         <v>15</v>
       </c>
-      <c r="L39" s="191"/>
-      <c r="M39" s="191"/>
-      <c r="N39" s="192"/>
-      <c r="O39" s="193" t="s">
+      <c r="L39" s="161"/>
+      <c r="M39" s="161"/>
+      <c r="N39" s="162"/>
+      <c r="O39" s="131" t="s">
         <v>5</v>
       </c>
-      <c r="P39" s="107"/>
-      <c r="Q39" s="107"/>
-      <c r="R39" s="107"/>
-      <c r="S39" s="108"/>
-      <c r="U39" s="148" t="s">
+      <c r="P39" s="126"/>
+      <c r="Q39" s="126"/>
+      <c r="R39" s="126"/>
+      <c r="S39" s="127"/>
+      <c r="U39" s="132" t="s">
         <v>6</v>
       </c>
-      <c r="V39" s="198"/>
+      <c r="V39" s="133"/>
       <c r="X39" s="49"/>
       <c r="Y39" s="87">
         <v>25</v>
@@ -5629,16 +5629,16 @@
       <c r="AK39" s="23"/>
     </row>
     <row r="40" spans="1:37" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="182"/>
-      <c r="B40" s="184"/>
-      <c r="C40" s="184"/>
-      <c r="D40" s="184"/>
-      <c r="E40" s="187"/>
-      <c r="F40" s="187"/>
-      <c r="G40" s="187"/>
-      <c r="H40" s="187"/>
-      <c r="I40" s="187"/>
-      <c r="J40" s="189"/>
+      <c r="A40" s="128"/>
+      <c r="B40" s="156"/>
+      <c r="C40" s="156"/>
+      <c r="D40" s="156"/>
+      <c r="E40" s="157"/>
+      <c r="F40" s="157"/>
+      <c r="G40" s="157"/>
+      <c r="H40" s="157"/>
+      <c r="I40" s="157"/>
+      <c r="J40" s="159"/>
       <c r="K40" s="48" t="s">
         <v>7</v>
       </c>
@@ -5666,8 +5666,8 @@
       <c r="S40" s="10">
         <v>5</v>
       </c>
-      <c r="U40" s="199"/>
-      <c r="V40" s="200"/>
+      <c r="U40" s="134"/>
+      <c r="V40" s="135"/>
       <c r="X40" s="49"/>
       <c r="Y40" s="87">
         <v>26</v>
@@ -5702,11 +5702,11 @@
       <c r="B41" s="17"/>
       <c r="C41" s="17"/>
       <c r="D41" s="17"/>
-      <c r="E41" s="201"/>
-      <c r="F41" s="202"/>
-      <c r="G41" s="202"/>
-      <c r="H41" s="202"/>
-      <c r="I41" s="203"/>
+      <c r="E41" s="136"/>
+      <c r="F41" s="137"/>
+      <c r="G41" s="137"/>
+      <c r="H41" s="137"/>
+      <c r="I41" s="138"/>
       <c r="J41" s="60">
         <v>4</v>
       </c>
@@ -5753,11 +5753,11 @@
       <c r="B42" s="20"/>
       <c r="C42" s="20"/>
       <c r="D42" s="20"/>
-      <c r="E42" s="195"/>
-      <c r="F42" s="196"/>
-      <c r="G42" s="196"/>
-      <c r="H42" s="196"/>
-      <c r="I42" s="197"/>
+      <c r="E42" s="117"/>
+      <c r="F42" s="118"/>
+      <c r="G42" s="118"/>
+      <c r="H42" s="118"/>
+      <c r="I42" s="119"/>
       <c r="J42" s="61">
         <v>5</v>
       </c>
@@ -5770,10 +5770,10 @@
       <c r="Q42" s="20"/>
       <c r="R42" s="20"/>
       <c r="S42" s="54"/>
-      <c r="U42" s="204" t="s">
+      <c r="U42" s="120" t="s">
         <v>11</v>
       </c>
-      <c r="V42" s="205" t="s">
+      <c r="V42" s="129" t="s">
         <v>12</v>
       </c>
       <c r="X42" s="49"/>
@@ -5810,11 +5810,11 @@
       <c r="B43" s="20"/>
       <c r="C43" s="20"/>
       <c r="D43" s="20"/>
-      <c r="E43" s="195"/>
-      <c r="F43" s="196"/>
-      <c r="G43" s="196"/>
-      <c r="H43" s="196"/>
-      <c r="I43" s="197"/>
+      <c r="E43" s="117"/>
+      <c r="F43" s="118"/>
+      <c r="G43" s="118"/>
+      <c r="H43" s="118"/>
+      <c r="I43" s="119"/>
       <c r="J43" s="61">
         <v>6</v>
       </c>
@@ -5827,8 +5827,8 @@
       <c r="Q43" s="20"/>
       <c r="R43" s="20"/>
       <c r="S43" s="54"/>
-      <c r="U43" s="182"/>
-      <c r="V43" s="206"/>
+      <c r="U43" s="128"/>
+      <c r="V43" s="130"/>
       <c r="X43" s="49"/>
       <c r="Y43" s="87">
         <v>29</v>
@@ -5863,11 +5863,11 @@
       <c r="B44" s="20"/>
       <c r="C44" s="20"/>
       <c r="D44" s="20"/>
-      <c r="E44" s="195"/>
-      <c r="F44" s="196"/>
-      <c r="G44" s="196"/>
-      <c r="H44" s="196"/>
-      <c r="I44" s="197"/>
+      <c r="E44" s="117"/>
+      <c r="F44" s="118"/>
+      <c r="G44" s="118"/>
+      <c r="H44" s="118"/>
+      <c r="I44" s="119"/>
       <c r="J44" s="61">
         <v>7</v>
       </c>
@@ -5920,11 +5920,11 @@
       <c r="B45" s="20"/>
       <c r="C45" s="20"/>
       <c r="D45" s="20"/>
-      <c r="E45" s="195"/>
-      <c r="F45" s="196"/>
-      <c r="G45" s="196"/>
-      <c r="H45" s="196"/>
-      <c r="I45" s="197"/>
+      <c r="E45" s="117"/>
+      <c r="F45" s="118"/>
+      <c r="G45" s="118"/>
+      <c r="H45" s="118"/>
+      <c r="I45" s="119"/>
       <c r="J45" s="61">
         <v>8</v>
       </c>
@@ -5977,11 +5977,11 @@
       <c r="B46" s="20"/>
       <c r="C46" s="20"/>
       <c r="D46" s="20"/>
-      <c r="E46" s="195"/>
-      <c r="F46" s="196"/>
-      <c r="G46" s="196"/>
-      <c r="H46" s="196"/>
-      <c r="I46" s="197"/>
+      <c r="E46" s="117"/>
+      <c r="F46" s="118"/>
+      <c r="G46" s="118"/>
+      <c r="H46" s="118"/>
+      <c r="I46" s="119"/>
       <c r="J46" s="61">
         <v>9</v>
       </c>
@@ -6034,11 +6034,11 @@
       <c r="B47" s="20"/>
       <c r="C47" s="20"/>
       <c r="D47" s="20"/>
-      <c r="E47" s="195"/>
-      <c r="F47" s="196"/>
-      <c r="G47" s="196"/>
-      <c r="H47" s="196"/>
-      <c r="I47" s="197"/>
+      <c r="E47" s="117"/>
+      <c r="F47" s="118"/>
+      <c r="G47" s="118"/>
+      <c r="H47" s="118"/>
+      <c r="I47" s="119"/>
       <c r="J47" s="61">
         <v>10</v>
       </c>
@@ -6091,11 +6091,11 @@
       <c r="B48" s="20"/>
       <c r="C48" s="20"/>
       <c r="D48" s="20"/>
-      <c r="E48" s="195"/>
-      <c r="F48" s="196"/>
-      <c r="G48" s="196"/>
-      <c r="H48" s="196"/>
-      <c r="I48" s="197"/>
+      <c r="E48" s="117"/>
+      <c r="F48" s="118"/>
+      <c r="G48" s="118"/>
+      <c r="H48" s="118"/>
+      <c r="I48" s="119"/>
       <c r="J48" s="61">
         <v>11</v>
       </c>
@@ -6142,11 +6142,11 @@
       <c r="B49" s="20"/>
       <c r="C49" s="20"/>
       <c r="D49" s="20"/>
-      <c r="E49" s="195"/>
-      <c r="F49" s="196"/>
-      <c r="G49" s="196"/>
-      <c r="H49" s="196"/>
-      <c r="I49" s="197"/>
+      <c r="E49" s="117"/>
+      <c r="F49" s="118"/>
+      <c r="G49" s="118"/>
+      <c r="H49" s="118"/>
+      <c r="I49" s="119"/>
       <c r="J49" s="61">
         <v>12</v>
       </c>
@@ -6159,10 +6159,10 @@
       <c r="Q49" s="20"/>
       <c r="R49" s="20"/>
       <c r="S49" s="54"/>
-      <c r="U49" s="204" t="s">
+      <c r="U49" s="120" t="s">
         <v>13</v>
       </c>
-      <c r="V49" s="205" t="s">
+      <c r="V49" s="129" t="s">
         <v>14</v>
       </c>
       <c r="X49" s="49"/>
@@ -6199,11 +6199,11 @@
       <c r="B50" s="20"/>
       <c r="C50" s="20"/>
       <c r="D50" s="20"/>
-      <c r="E50" s="195"/>
-      <c r="F50" s="196"/>
-      <c r="G50" s="196"/>
-      <c r="H50" s="196"/>
-      <c r="I50" s="197"/>
+      <c r="E50" s="117"/>
+      <c r="F50" s="118"/>
+      <c r="G50" s="118"/>
+      <c r="H50" s="118"/>
+      <c r="I50" s="119"/>
       <c r="J50" s="61">
         <v>13</v>
       </c>
@@ -6216,8 +6216,8 @@
       <c r="Q50" s="20"/>
       <c r="R50" s="20"/>
       <c r="S50" s="54"/>
-      <c r="U50" s="182"/>
-      <c r="V50" s="206"/>
+      <c r="U50" s="128"/>
+      <c r="V50" s="130"/>
       <c r="X50" s="49"/>
       <c r="Y50" s="87">
         <v>36</v>
@@ -6252,11 +6252,11 @@
       <c r="B51" s="20"/>
       <c r="C51" s="20"/>
       <c r="D51" s="20"/>
-      <c r="E51" s="195"/>
-      <c r="F51" s="196"/>
-      <c r="G51" s="196"/>
-      <c r="H51" s="196"/>
-      <c r="I51" s="197"/>
+      <c r="E51" s="117"/>
+      <c r="F51" s="118"/>
+      <c r="G51" s="118"/>
+      <c r="H51" s="118"/>
+      <c r="I51" s="119"/>
       <c r="J51" s="61">
         <v>14</v>
       </c>
@@ -6309,11 +6309,11 @@
       <c r="B52" s="20"/>
       <c r="C52" s="20"/>
       <c r="D52" s="20"/>
-      <c r="E52" s="195"/>
-      <c r="F52" s="196"/>
-      <c r="G52" s="196"/>
-      <c r="H52" s="196"/>
-      <c r="I52" s="197"/>
+      <c r="E52" s="117"/>
+      <c r="F52" s="118"/>
+      <c r="G52" s="118"/>
+      <c r="H52" s="118"/>
+      <c r="I52" s="119"/>
       <c r="J52" s="61">
         <v>15</v>
       </c>
@@ -6366,11 +6366,11 @@
       <c r="B53" s="20"/>
       <c r="C53" s="20"/>
       <c r="D53" s="20"/>
-      <c r="E53" s="195"/>
-      <c r="F53" s="196"/>
-      <c r="G53" s="196"/>
-      <c r="H53" s="196"/>
-      <c r="I53" s="197"/>
+      <c r="E53" s="117"/>
+      <c r="F53" s="118"/>
+      <c r="G53" s="118"/>
+      <c r="H53" s="118"/>
+      <c r="I53" s="119"/>
       <c r="J53" s="61">
         <v>16</v>
       </c>
@@ -6423,11 +6423,11 @@
       <c r="B54" s="20"/>
       <c r="C54" s="20"/>
       <c r="D54" s="20"/>
-      <c r="E54" s="195"/>
-      <c r="F54" s="196"/>
-      <c r="G54" s="196"/>
-      <c r="H54" s="196"/>
-      <c r="I54" s="197"/>
+      <c r="E54" s="117"/>
+      <c r="F54" s="118"/>
+      <c r="G54" s="118"/>
+      <c r="H54" s="118"/>
+      <c r="I54" s="119"/>
       <c r="J54" s="61">
         <v>17</v>
       </c>
@@ -6480,11 +6480,11 @@
       <c r="B55" s="20"/>
       <c r="C55" s="20"/>
       <c r="D55" s="20"/>
-      <c r="E55" s="195"/>
-      <c r="F55" s="196"/>
-      <c r="G55" s="196"/>
-      <c r="H55" s="196"/>
-      <c r="I55" s="197"/>
+      <c r="E55" s="117"/>
+      <c r="F55" s="118"/>
+      <c r="G55" s="118"/>
+      <c r="H55" s="118"/>
+      <c r="I55" s="119"/>
       <c r="J55" s="62">
         <v>18</v>
       </c>
@@ -6499,98 +6499,98 @@
       <c r="S55" s="45"/>
     </row>
     <row r="56" spans="1:37" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="204" t="s">
+      <c r="A56" s="120" t="s">
         <v>78</v>
       </c>
-      <c r="B56" s="185"/>
-      <c r="C56" s="185"/>
-      <c r="D56" s="185"/>
+      <c r="B56" s="121"/>
+      <c r="C56" s="121"/>
+      <c r="D56" s="121"/>
       <c r="E56" s="102"/>
       <c r="F56" s="102"/>
       <c r="G56" s="51"/>
-      <c r="H56" s="186"/>
-      <c r="I56" s="186"/>
-      <c r="J56" s="186"/>
-      <c r="K56" s="186"/>
-      <c r="L56" s="186"/>
-      <c r="M56" s="186"/>
-      <c r="N56" s="117"/>
+      <c r="H56" s="122"/>
+      <c r="I56" s="122"/>
+      <c r="J56" s="122"/>
+      <c r="K56" s="122"/>
+      <c r="L56" s="122"/>
+      <c r="M56" s="122"/>
+      <c r="N56" s="123"/>
       <c r="O56" s="50"/>
       <c r="P56" s="51"/>
       <c r="Q56" s="51"/>
       <c r="R56" s="51"/>
       <c r="S56" s="52"/>
-      <c r="X56" s="220" t="s">
+      <c r="X56" s="124" t="s">
         <v>83</v>
       </c>
-      <c r="Y56" s="221"/>
-      <c r="Z56" s="221"/>
-      <c r="AA56" s="221"/>
-      <c r="AB56" s="107"/>
-      <c r="AC56" s="107"/>
-      <c r="AD56" s="107"/>
-      <c r="AE56" s="107"/>
-      <c r="AF56" s="107"/>
-      <c r="AG56" s="107"/>
-      <c r="AH56" s="107"/>
-      <c r="AI56" s="107"/>
-      <c r="AJ56" s="107"/>
-      <c r="AK56" s="108"/>
+      <c r="Y56" s="125"/>
+      <c r="Z56" s="125"/>
+      <c r="AA56" s="125"/>
+      <c r="AB56" s="126"/>
+      <c r="AC56" s="126"/>
+      <c r="AD56" s="126"/>
+      <c r="AE56" s="126"/>
+      <c r="AF56" s="126"/>
+      <c r="AG56" s="126"/>
+      <c r="AH56" s="126"/>
+      <c r="AI56" s="126"/>
+      <c r="AJ56" s="126"/>
+      <c r="AK56" s="127"/>
     </row>
     <row r="57" spans="1:37" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="213" t="s">
+      <c r="A57" s="107" t="s">
         <v>79</v>
       </c>
-      <c r="B57" s="214"/>
-      <c r="C57" s="214"/>
-      <c r="D57" s="215"/>
+      <c r="B57" s="108"/>
+      <c r="C57" s="108"/>
+      <c r="D57" s="109"/>
       <c r="E57" s="103"/>
       <c r="F57" s="103"/>
       <c r="G57" s="21"/>
-      <c r="H57" s="212"/>
-      <c r="I57" s="216"/>
-      <c r="J57" s="216"/>
-      <c r="K57" s="216"/>
-      <c r="L57" s="216"/>
-      <c r="M57" s="216"/>
-      <c r="N57" s="216"/>
+      <c r="H57" s="110"/>
+      <c r="I57" s="111"/>
+      <c r="J57" s="111"/>
+      <c r="K57" s="111"/>
+      <c r="L57" s="111"/>
+      <c r="M57" s="111"/>
+      <c r="N57" s="111"/>
       <c r="O57" s="44"/>
       <c r="P57" s="21"/>
       <c r="Q57" s="21"/>
       <c r="R57" s="21"/>
       <c r="S57" s="45"/>
-      <c r="X57" s="217" t="s">
+      <c r="X57" s="112" t="s">
         <v>84</v>
       </c>
-      <c r="Y57" s="218"/>
-      <c r="Z57" s="218"/>
-      <c r="AA57" s="218"/>
-      <c r="AB57" s="109"/>
-      <c r="AC57" s="109"/>
-      <c r="AD57" s="109"/>
-      <c r="AE57" s="109"/>
-      <c r="AF57" s="109"/>
-      <c r="AG57" s="109"/>
-      <c r="AH57" s="109"/>
-      <c r="AI57" s="109"/>
-      <c r="AJ57" s="109"/>
-      <c r="AK57" s="110"/>
+      <c r="Y57" s="113"/>
+      <c r="Z57" s="113"/>
+      <c r="AA57" s="113"/>
+      <c r="AB57" s="114"/>
+      <c r="AC57" s="114"/>
+      <c r="AD57" s="114"/>
+      <c r="AE57" s="114"/>
+      <c r="AF57" s="114"/>
+      <c r="AG57" s="114"/>
+      <c r="AH57" s="114"/>
+      <c r="AI57" s="114"/>
+      <c r="AJ57" s="114"/>
+      <c r="AK57" s="115"/>
     </row>
     <row r="58" spans="1:37" ht="14.4" x14ac:dyDescent="0.2">
-      <c r="A58" s="219"/>
-      <c r="B58" s="219"/>
-      <c r="C58" s="219"/>
-      <c r="D58" s="219"/>
-      <c r="E58" s="219"/>
-      <c r="F58" s="219"/>
-      <c r="G58" s="219"/>
-      <c r="H58" s="219"/>
-      <c r="I58" s="219"/>
-      <c r="J58" s="219"/>
-      <c r="K58" s="219"/>
-      <c r="L58" s="219"/>
-      <c r="M58" s="219"/>
-      <c r="N58" s="219"/>
+      <c r="A58" s="116"/>
+      <c r="B58" s="116"/>
+      <c r="C58" s="116"/>
+      <c r="D58" s="116"/>
+      <c r="E58" s="116"/>
+      <c r="F58" s="116"/>
+      <c r="G58" s="116"/>
+      <c r="H58" s="116"/>
+      <c r="I58" s="116"/>
+      <c r="J58" s="116"/>
+      <c r="K58" s="116"/>
+      <c r="L58" s="116"/>
+      <c r="M58" s="116"/>
+      <c r="N58" s="116"/>
       <c r="U58" s="19"/>
       <c r="V58" s="19"/>
       <c r="W58" s="19"/>
@@ -6607,79 +6607,28 @@
     </row>
   </sheetData>
   <mergeCells count="118">
-    <mergeCell ref="A57:D57"/>
-    <mergeCell ref="H57:N57"/>
-    <mergeCell ref="X57:AA57"/>
-    <mergeCell ref="AB57:AK57"/>
-    <mergeCell ref="A58:N58"/>
-    <mergeCell ref="E54:I54"/>
-    <mergeCell ref="E55:I55"/>
-    <mergeCell ref="A56:D56"/>
-    <mergeCell ref="H56:N56"/>
-    <mergeCell ref="X56:AA56"/>
-    <mergeCell ref="AB56:AK56"/>
-    <mergeCell ref="U49:U50"/>
-    <mergeCell ref="V49:V50"/>
-    <mergeCell ref="E50:I50"/>
-    <mergeCell ref="E51:I51"/>
-    <mergeCell ref="E52:I52"/>
-    <mergeCell ref="E53:I53"/>
-    <mergeCell ref="E44:I44"/>
-    <mergeCell ref="E45:I45"/>
-    <mergeCell ref="E46:I46"/>
-    <mergeCell ref="E47:I47"/>
-    <mergeCell ref="E48:I48"/>
-    <mergeCell ref="E49:I49"/>
-    <mergeCell ref="O39:S39"/>
-    <mergeCell ref="U39:V40"/>
-    <mergeCell ref="E41:I41"/>
-    <mergeCell ref="E42:I42"/>
-    <mergeCell ref="U42:U43"/>
-    <mergeCell ref="V42:V43"/>
-    <mergeCell ref="E43:I43"/>
-    <mergeCell ref="A36:C36"/>
-    <mergeCell ref="D36:K38"/>
-    <mergeCell ref="L36:N38"/>
-    <mergeCell ref="O36:S36"/>
-    <mergeCell ref="A37:C37"/>
-    <mergeCell ref="A39:A40"/>
-    <mergeCell ref="B39:D40"/>
-    <mergeCell ref="E39:I40"/>
-    <mergeCell ref="J39:J40"/>
-    <mergeCell ref="K39:N39"/>
-    <mergeCell ref="E30:I30"/>
-    <mergeCell ref="E31:I31"/>
-    <mergeCell ref="A32:D32"/>
-    <mergeCell ref="H32:N32"/>
-    <mergeCell ref="A33:D33"/>
-    <mergeCell ref="H33:N33"/>
-    <mergeCell ref="U25:U26"/>
-    <mergeCell ref="V25:V26"/>
-    <mergeCell ref="E26:I26"/>
-    <mergeCell ref="E27:I27"/>
-    <mergeCell ref="E28:I28"/>
-    <mergeCell ref="E29:I29"/>
-    <mergeCell ref="E20:I20"/>
-    <mergeCell ref="E21:I21"/>
-    <mergeCell ref="E22:I22"/>
-    <mergeCell ref="E23:I23"/>
-    <mergeCell ref="E24:I24"/>
-    <mergeCell ref="E25:I25"/>
-    <mergeCell ref="U15:V16"/>
-    <mergeCell ref="E17:I17"/>
-    <mergeCell ref="E18:I18"/>
-    <mergeCell ref="U18:U19"/>
-    <mergeCell ref="V18:V19"/>
-    <mergeCell ref="E19:I19"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="B15:D16"/>
-    <mergeCell ref="E15:I16"/>
-    <mergeCell ref="J15:J16"/>
-    <mergeCell ref="K15:N15"/>
-    <mergeCell ref="O15:S15"/>
-    <mergeCell ref="X14:Y14"/>
-    <mergeCell ref="Z14:AA14"/>
-    <mergeCell ref="AC14:AD14"/>
+    <mergeCell ref="AF3:AH3"/>
+    <mergeCell ref="AI3:AK3"/>
+    <mergeCell ref="U4:W4"/>
+    <mergeCell ref="X4:AE4"/>
+    <mergeCell ref="AF4:AH4"/>
+    <mergeCell ref="AI4:AK4"/>
+    <mergeCell ref="S1:U1"/>
+    <mergeCell ref="J2:AE2"/>
+    <mergeCell ref="A3:C4"/>
+    <mergeCell ref="D3:T4"/>
+    <mergeCell ref="U3:W3"/>
+    <mergeCell ref="X3:AE3"/>
+    <mergeCell ref="A5:C5"/>
+    <mergeCell ref="R5:T5"/>
+    <mergeCell ref="U5:X5"/>
+    <mergeCell ref="AD5:AG5"/>
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="D6:F6"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="O6:Q6"/>
+    <mergeCell ref="U6:AC6"/>
+    <mergeCell ref="AD6:AK6"/>
     <mergeCell ref="AE14:AF14"/>
     <mergeCell ref="AH14:AI14"/>
     <mergeCell ref="AJ14:AK14"/>
@@ -6703,28 +6652,79 @@
     <mergeCell ref="AD8:AK8"/>
     <mergeCell ref="J9:K9"/>
     <mergeCell ref="U9:X9"/>
-    <mergeCell ref="A5:C5"/>
-    <mergeCell ref="R5:T5"/>
-    <mergeCell ref="U5:X5"/>
-    <mergeCell ref="AD5:AG5"/>
-    <mergeCell ref="A6:C6"/>
-    <mergeCell ref="D6:F6"/>
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="O6:Q6"/>
-    <mergeCell ref="U6:AC6"/>
-    <mergeCell ref="AD6:AK6"/>
-    <mergeCell ref="AF3:AH3"/>
-    <mergeCell ref="AI3:AK3"/>
-    <mergeCell ref="U4:W4"/>
-    <mergeCell ref="X4:AE4"/>
-    <mergeCell ref="AF4:AH4"/>
-    <mergeCell ref="AI4:AK4"/>
-    <mergeCell ref="S1:U1"/>
-    <mergeCell ref="J2:AE2"/>
-    <mergeCell ref="A3:C4"/>
-    <mergeCell ref="D3:T4"/>
-    <mergeCell ref="U3:W3"/>
-    <mergeCell ref="X3:AE3"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="B15:D16"/>
+    <mergeCell ref="E15:I16"/>
+    <mergeCell ref="J15:J16"/>
+    <mergeCell ref="K15:N15"/>
+    <mergeCell ref="O15:S15"/>
+    <mergeCell ref="X14:Y14"/>
+    <mergeCell ref="Z14:AA14"/>
+    <mergeCell ref="AC14:AD14"/>
+    <mergeCell ref="E20:I20"/>
+    <mergeCell ref="E21:I21"/>
+    <mergeCell ref="E22:I22"/>
+    <mergeCell ref="E23:I23"/>
+    <mergeCell ref="E24:I24"/>
+    <mergeCell ref="E25:I25"/>
+    <mergeCell ref="U15:V16"/>
+    <mergeCell ref="E17:I17"/>
+    <mergeCell ref="E18:I18"/>
+    <mergeCell ref="U18:U19"/>
+    <mergeCell ref="V18:V19"/>
+    <mergeCell ref="E19:I19"/>
+    <mergeCell ref="E30:I30"/>
+    <mergeCell ref="E31:I31"/>
+    <mergeCell ref="A32:D32"/>
+    <mergeCell ref="H32:N32"/>
+    <mergeCell ref="A33:D33"/>
+    <mergeCell ref="H33:N33"/>
+    <mergeCell ref="U25:U26"/>
+    <mergeCell ref="V25:V26"/>
+    <mergeCell ref="E26:I26"/>
+    <mergeCell ref="E27:I27"/>
+    <mergeCell ref="E28:I28"/>
+    <mergeCell ref="E29:I29"/>
+    <mergeCell ref="O39:S39"/>
+    <mergeCell ref="U39:V40"/>
+    <mergeCell ref="E41:I41"/>
+    <mergeCell ref="E42:I42"/>
+    <mergeCell ref="U42:U43"/>
+    <mergeCell ref="V42:V43"/>
+    <mergeCell ref="E43:I43"/>
+    <mergeCell ref="A36:C36"/>
+    <mergeCell ref="D36:K38"/>
+    <mergeCell ref="L36:N38"/>
+    <mergeCell ref="O36:S36"/>
+    <mergeCell ref="A37:C37"/>
+    <mergeCell ref="A39:A40"/>
+    <mergeCell ref="B39:D40"/>
+    <mergeCell ref="E39:I40"/>
+    <mergeCell ref="J39:J40"/>
+    <mergeCell ref="K39:N39"/>
+    <mergeCell ref="U49:U50"/>
+    <mergeCell ref="V49:V50"/>
+    <mergeCell ref="E50:I50"/>
+    <mergeCell ref="E51:I51"/>
+    <mergeCell ref="E52:I52"/>
+    <mergeCell ref="E53:I53"/>
+    <mergeCell ref="E44:I44"/>
+    <mergeCell ref="E45:I45"/>
+    <mergeCell ref="E46:I46"/>
+    <mergeCell ref="E47:I47"/>
+    <mergeCell ref="E48:I48"/>
+    <mergeCell ref="E49:I49"/>
+    <mergeCell ref="A57:D57"/>
+    <mergeCell ref="H57:N57"/>
+    <mergeCell ref="X57:AA57"/>
+    <mergeCell ref="AB57:AK57"/>
+    <mergeCell ref="A58:N58"/>
+    <mergeCell ref="E54:I54"/>
+    <mergeCell ref="E55:I55"/>
+    <mergeCell ref="A56:D56"/>
+    <mergeCell ref="H56:N56"/>
+    <mergeCell ref="X56:AA56"/>
+    <mergeCell ref="AB56:AK56"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
@@ -6757,11 +6757,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:37" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="S1" s="111" t="s">
+      <c r="S1" s="215" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="111"/>
-      <c r="U1" s="111"/>
+      <c r="T1" s="215"/>
+      <c r="U1" s="215"/>
     </row>
     <row r="2" spans="1:37" s="24" customFormat="1" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B2" s="2"/>
@@ -6772,30 +6772,30 @@
       <c r="G2" s="2"/>
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
-      <c r="J2" s="112" t="s">
+      <c r="J2" s="216" t="s">
         <v>52</v>
       </c>
-      <c r="K2" s="112"/>
-      <c r="L2" s="112"/>
-      <c r="M2" s="112"/>
-      <c r="N2" s="112"/>
-      <c r="O2" s="112"/>
-      <c r="P2" s="112"/>
-      <c r="Q2" s="112"/>
-      <c r="R2" s="112"/>
-      <c r="S2" s="112"/>
-      <c r="T2" s="112"/>
-      <c r="U2" s="112"/>
-      <c r="V2" s="112"/>
-      <c r="W2" s="112"/>
-      <c r="X2" s="112"/>
-      <c r="Y2" s="112"/>
-      <c r="Z2" s="112"/>
-      <c r="AA2" s="112"/>
-      <c r="AB2" s="112"/>
-      <c r="AC2" s="112"/>
-      <c r="AD2" s="112"/>
-      <c r="AE2" s="112"/>
+      <c r="K2" s="216"/>
+      <c r="L2" s="216"/>
+      <c r="M2" s="216"/>
+      <c r="N2" s="216"/>
+      <c r="O2" s="216"/>
+      <c r="P2" s="216"/>
+      <c r="Q2" s="216"/>
+      <c r="R2" s="216"/>
+      <c r="S2" s="216"/>
+      <c r="T2" s="216"/>
+      <c r="U2" s="216"/>
+      <c r="V2" s="216"/>
+      <c r="W2" s="216"/>
+      <c r="X2" s="216"/>
+      <c r="Y2" s="216"/>
+      <c r="Z2" s="216"/>
+      <c r="AA2" s="216"/>
+      <c r="AB2" s="216"/>
+      <c r="AC2" s="216"/>
+      <c r="AD2" s="216"/>
+      <c r="AE2" s="216"/>
       <c r="AF2" s="1"/>
       <c r="AG2" s="1"/>
       <c r="AH2" s="1"/>
@@ -6804,103 +6804,103 @@
       <c r="AK2" s="1"/>
     </row>
     <row r="3" spans="1:37" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="113" t="s">
+      <c r="A3" s="203" t="s">
         <v>53</v>
       </c>
-      <c r="B3" s="114"/>
-      <c r="C3" s="114"/>
-      <c r="D3" s="117"/>
-      <c r="E3" s="114"/>
-      <c r="F3" s="114"/>
-      <c r="G3" s="114"/>
-      <c r="H3" s="114"/>
-      <c r="I3" s="114"/>
-      <c r="J3" s="114"/>
-      <c r="K3" s="114"/>
-      <c r="L3" s="114"/>
-      <c r="M3" s="114"/>
-      <c r="N3" s="114"/>
-      <c r="O3" s="114"/>
-      <c r="P3" s="114"/>
-      <c r="Q3" s="114"/>
-      <c r="R3" s="114"/>
-      <c r="S3" s="114"/>
-      <c r="T3" s="118"/>
-      <c r="U3" s="107" t="s">
+      <c r="B3" s="204"/>
+      <c r="C3" s="204"/>
+      <c r="D3" s="123"/>
+      <c r="E3" s="204"/>
+      <c r="F3" s="204"/>
+      <c r="G3" s="204"/>
+      <c r="H3" s="204"/>
+      <c r="I3" s="204"/>
+      <c r="J3" s="204"/>
+      <c r="K3" s="204"/>
+      <c r="L3" s="204"/>
+      <c r="M3" s="204"/>
+      <c r="N3" s="204"/>
+      <c r="O3" s="204"/>
+      <c r="P3" s="204"/>
+      <c r="Q3" s="204"/>
+      <c r="R3" s="204"/>
+      <c r="S3" s="204"/>
+      <c r="T3" s="219"/>
+      <c r="U3" s="126" t="s">
         <v>54</v>
       </c>
-      <c r="V3" s="107"/>
-      <c r="W3" s="107"/>
-      <c r="X3" s="107" t="s">
+      <c r="V3" s="126"/>
+      <c r="W3" s="126"/>
+      <c r="X3" s="126" t="s">
         <v>58</v>
       </c>
-      <c r="Y3" s="107"/>
-      <c r="Z3" s="107"/>
-      <c r="AA3" s="107"/>
-      <c r="AB3" s="107"/>
-      <c r="AC3" s="107"/>
-      <c r="AD3" s="107"/>
-      <c r="AE3" s="107"/>
-      <c r="AF3" s="107" t="s">
+      <c r="Y3" s="126"/>
+      <c r="Z3" s="126"/>
+      <c r="AA3" s="126"/>
+      <c r="AB3" s="126"/>
+      <c r="AC3" s="126"/>
+      <c r="AD3" s="126"/>
+      <c r="AE3" s="126"/>
+      <c r="AF3" s="126" t="s">
         <v>56</v>
       </c>
-      <c r="AG3" s="107"/>
-      <c r="AH3" s="107"/>
-      <c r="AI3" s="107" t="s">
+      <c r="AG3" s="126"/>
+      <c r="AH3" s="126"/>
+      <c r="AI3" s="126" t="s">
         <v>86</v>
       </c>
-      <c r="AJ3" s="107"/>
-      <c r="AK3" s="108"/>
+      <c r="AJ3" s="126"/>
+      <c r="AK3" s="127"/>
     </row>
     <row r="4" spans="1:37" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="115"/>
-      <c r="B4" s="116"/>
-      <c r="C4" s="116"/>
-      <c r="D4" s="119"/>
-      <c r="E4" s="116"/>
-      <c r="F4" s="116"/>
-      <c r="G4" s="116"/>
-      <c r="H4" s="116"/>
-      <c r="I4" s="116"/>
-      <c r="J4" s="116"/>
-      <c r="K4" s="116"/>
-      <c r="L4" s="116"/>
-      <c r="M4" s="116"/>
-      <c r="N4" s="116"/>
-      <c r="O4" s="116"/>
-      <c r="P4" s="116"/>
-      <c r="Q4" s="116"/>
-      <c r="R4" s="116"/>
-      <c r="S4" s="116"/>
-      <c r="T4" s="120"/>
-      <c r="U4" s="109" t="s">
+      <c r="A4" s="217"/>
+      <c r="B4" s="218"/>
+      <c r="C4" s="218"/>
+      <c r="D4" s="220"/>
+      <c r="E4" s="218"/>
+      <c r="F4" s="218"/>
+      <c r="G4" s="218"/>
+      <c r="H4" s="218"/>
+      <c r="I4" s="218"/>
+      <c r="J4" s="218"/>
+      <c r="K4" s="218"/>
+      <c r="L4" s="218"/>
+      <c r="M4" s="218"/>
+      <c r="N4" s="218"/>
+      <c r="O4" s="218"/>
+      <c r="P4" s="218"/>
+      <c r="Q4" s="218"/>
+      <c r="R4" s="218"/>
+      <c r="S4" s="218"/>
+      <c r="T4" s="221"/>
+      <c r="U4" s="114" t="s">
         <v>55</v>
       </c>
-      <c r="V4" s="109"/>
-      <c r="W4" s="109"/>
-      <c r="X4" s="109"/>
-      <c r="Y4" s="109"/>
-      <c r="Z4" s="109"/>
-      <c r="AA4" s="109"/>
-      <c r="AB4" s="109"/>
-      <c r="AC4" s="109"/>
-      <c r="AD4" s="109"/>
-      <c r="AE4" s="109"/>
-      <c r="AF4" s="109" t="s">
+      <c r="V4" s="114"/>
+      <c r="W4" s="114"/>
+      <c r="X4" s="114"/>
+      <c r="Y4" s="114"/>
+      <c r="Z4" s="114"/>
+      <c r="AA4" s="114"/>
+      <c r="AB4" s="114"/>
+      <c r="AC4" s="114"/>
+      <c r="AD4" s="114"/>
+      <c r="AE4" s="114"/>
+      <c r="AF4" s="114" t="s">
         <v>57</v>
       </c>
-      <c r="AG4" s="109"/>
-      <c r="AH4" s="109"/>
-      <c r="AI4" s="109"/>
-      <c r="AJ4" s="109"/>
-      <c r="AK4" s="110"/>
+      <c r="AG4" s="114"/>
+      <c r="AH4" s="114"/>
+      <c r="AI4" s="114"/>
+      <c r="AJ4" s="114"/>
+      <c r="AK4" s="115"/>
     </row>
     <row r="5" spans="1:37" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="113" t="s">
+      <c r="A5" s="203" t="s">
         <v>62</v>
       </c>
-      <c r="B5" s="114"/>
-      <c r="C5" s="114"/>
+      <c r="B5" s="204"/>
+      <c r="C5" s="204"/>
       <c r="D5" s="86"/>
       <c r="E5" s="86"/>
       <c r="F5" s="86"/>
@@ -6915,116 +6915,116 @@
       <c r="O5" s="26"/>
       <c r="P5" s="26"/>
       <c r="Q5" s="26"/>
-      <c r="R5" s="121"/>
-      <c r="S5" s="122"/>
-      <c r="T5" s="123"/>
-      <c r="U5" s="124" t="s">
+      <c r="R5" s="205"/>
+      <c r="S5" s="206"/>
+      <c r="T5" s="207"/>
+      <c r="U5" s="208" t="s">
         <v>64</v>
       </c>
-      <c r="V5" s="125"/>
-      <c r="W5" s="125"/>
-      <c r="X5" s="125"/>
+      <c r="V5" s="209"/>
+      <c r="W5" s="209"/>
+      <c r="X5" s="209"/>
       <c r="Y5" s="90"/>
       <c r="Z5" s="90"/>
       <c r="AA5" s="90"/>
       <c r="AB5" s="90"/>
       <c r="AC5" s="28"/>
-      <c r="AD5" s="126" t="s">
+      <c r="AD5" s="210" t="s">
         <v>65</v>
       </c>
-      <c r="AE5" s="125"/>
-      <c r="AF5" s="125"/>
-      <c r="AG5" s="125"/>
+      <c r="AE5" s="209"/>
+      <c r="AF5" s="209"/>
+      <c r="AG5" s="209"/>
       <c r="AH5" s="90"/>
       <c r="AI5" s="90"/>
       <c r="AJ5" s="90"/>
       <c r="AK5" s="91"/>
     </row>
     <row r="6" spans="1:37" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="127" t="s">
+      <c r="A6" s="211" t="s">
         <v>63</v>
       </c>
-      <c r="B6" s="128"/>
-      <c r="C6" s="128"/>
-      <c r="D6" s="129" t="s">
+      <c r="B6" s="191"/>
+      <c r="C6" s="191"/>
+      <c r="D6" s="194" t="s">
         <v>60</v>
       </c>
-      <c r="E6" s="129"/>
-      <c r="F6" s="129"/>
+      <c r="E6" s="194"/>
+      <c r="F6" s="194"/>
       <c r="G6" s="19"/>
       <c r="H6" s="19"/>
       <c r="I6" s="19"/>
-      <c r="J6" s="128" t="s">
+      <c r="J6" s="191" t="s">
         <v>59</v>
       </c>
-      <c r="K6" s="128"/>
+      <c r="K6" s="191"/>
       <c r="L6" s="89"/>
       <c r="M6" s="19"/>
       <c r="N6" s="19"/>
-      <c r="O6" s="129" t="s">
+      <c r="O6" s="194" t="s">
         <v>61</v>
       </c>
-      <c r="P6" s="129"/>
-      <c r="Q6" s="129"/>
+      <c r="P6" s="194"/>
+      <c r="Q6" s="194"/>
       <c r="R6" s="89"/>
       <c r="S6" s="32"/>
       <c r="T6" s="33"/>
-      <c r="U6" s="130"/>
-      <c r="V6" s="131"/>
-      <c r="W6" s="131"/>
-      <c r="X6" s="131"/>
-      <c r="Y6" s="131"/>
-      <c r="Z6" s="131"/>
-      <c r="AA6" s="131"/>
-      <c r="AB6" s="131"/>
-      <c r="AC6" s="132"/>
-      <c r="AD6" s="133"/>
-      <c r="AE6" s="134"/>
-      <c r="AF6" s="134"/>
-      <c r="AG6" s="134"/>
-      <c r="AH6" s="134"/>
-      <c r="AI6" s="134"/>
-      <c r="AJ6" s="134"/>
-      <c r="AK6" s="135"/>
+      <c r="U6" s="212"/>
+      <c r="V6" s="213"/>
+      <c r="W6" s="213"/>
+      <c r="X6" s="213"/>
+      <c r="Y6" s="213"/>
+      <c r="Z6" s="213"/>
+      <c r="AA6" s="213"/>
+      <c r="AB6" s="213"/>
+      <c r="AC6" s="214"/>
+      <c r="AD6" s="201"/>
+      <c r="AE6" s="200"/>
+      <c r="AF6" s="200"/>
+      <c r="AG6" s="200"/>
+      <c r="AH6" s="200"/>
+      <c r="AI6" s="200"/>
+      <c r="AJ6" s="200"/>
+      <c r="AK6" s="202"/>
     </row>
     <row r="7" spans="1:37" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="30"/>
-      <c r="D7" s="170"/>
-      <c r="E7" s="171"/>
-      <c r="F7" s="172"/>
+      <c r="D7" s="187"/>
+      <c r="E7" s="188"/>
+      <c r="F7" s="189"/>
       <c r="G7" s="19"/>
       <c r="H7" s="19"/>
       <c r="I7" s="19"/>
-      <c r="J7" s="128" t="s">
+      <c r="J7" s="191" t="s">
         <v>59</v>
       </c>
-      <c r="K7" s="128"/>
+      <c r="K7" s="191"/>
       <c r="L7" s="89"/>
       <c r="M7" s="19"/>
       <c r="N7" s="19"/>
-      <c r="O7" s="170"/>
-      <c r="P7" s="171"/>
-      <c r="Q7" s="172"/>
+      <c r="O7" s="187"/>
+      <c r="P7" s="188"/>
+      <c r="Q7" s="189"/>
       <c r="R7" s="89"/>
       <c r="S7" s="34"/>
       <c r="T7" s="35"/>
-      <c r="U7" s="177" t="s">
+      <c r="U7" s="196" t="s">
         <v>4</v>
       </c>
-      <c r="V7" s="178"/>
-      <c r="W7" s="178"/>
-      <c r="X7" s="178"/>
+      <c r="V7" s="197"/>
+      <c r="W7" s="197"/>
+      <c r="X7" s="197"/>
       <c r="Y7" s="36"/>
       <c r="Z7" s="36"/>
       <c r="AA7" s="36"/>
       <c r="AB7" s="36"/>
       <c r="AC7" s="37"/>
-      <c r="AD7" s="179" t="s">
+      <c r="AD7" s="198" t="s">
         <v>3</v>
       </c>
-      <c r="AE7" s="178"/>
-      <c r="AF7" s="178"/>
-      <c r="AG7" s="178"/>
+      <c r="AE7" s="197"/>
+      <c r="AF7" s="197"/>
+      <c r="AG7" s="197"/>
       <c r="AH7" s="36"/>
       <c r="AI7" s="36"/>
       <c r="AJ7" s="36"/>
@@ -7033,79 +7033,79 @@
     <row r="8" spans="1:37" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="30"/>
       <c r="B8" s="89"/>
-      <c r="D8" s="173"/>
-      <c r="E8" s="128"/>
-      <c r="F8" s="174"/>
-      <c r="J8" s="128" t="s">
+      <c r="D8" s="190"/>
+      <c r="E8" s="191"/>
+      <c r="F8" s="192"/>
+      <c r="J8" s="191" t="s">
         <v>59</v>
       </c>
-      <c r="K8" s="128"/>
+      <c r="K8" s="191"/>
       <c r="L8" s="89"/>
       <c r="M8" s="19"/>
       <c r="N8" s="19"/>
-      <c r="O8" s="173"/>
-      <c r="P8" s="128"/>
-      <c r="Q8" s="174"/>
+      <c r="O8" s="190"/>
+      <c r="P8" s="191"/>
+      <c r="Q8" s="192"/>
       <c r="R8" s="89"/>
       <c r="S8" s="34"/>
       <c r="T8" s="35"/>
-      <c r="U8" s="180"/>
-      <c r="V8" s="134"/>
-      <c r="W8" s="134"/>
-      <c r="X8" s="134"/>
-      <c r="Y8" s="134"/>
-      <c r="Z8" s="134"/>
-      <c r="AA8" s="134"/>
-      <c r="AB8" s="134"/>
+      <c r="U8" s="199"/>
+      <c r="V8" s="200"/>
+      <c r="W8" s="200"/>
+      <c r="X8" s="200"/>
+      <c r="Y8" s="200"/>
+      <c r="Z8" s="200"/>
+      <c r="AA8" s="200"/>
+      <c r="AB8" s="200"/>
       <c r="AC8" s="39"/>
-      <c r="AD8" s="133"/>
-      <c r="AE8" s="134"/>
-      <c r="AF8" s="134"/>
-      <c r="AG8" s="134"/>
-      <c r="AH8" s="134"/>
-      <c r="AI8" s="134"/>
-      <c r="AJ8" s="134"/>
-      <c r="AK8" s="135"/>
+      <c r="AD8" s="201"/>
+      <c r="AE8" s="200"/>
+      <c r="AF8" s="200"/>
+      <c r="AG8" s="200"/>
+      <c r="AH8" s="200"/>
+      <c r="AI8" s="200"/>
+      <c r="AJ8" s="200"/>
+      <c r="AK8" s="202"/>
     </row>
     <row r="9" spans="1:37" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="30"/>
       <c r="B9" s="89"/>
-      <c r="D9" s="175"/>
-      <c r="E9" s="129"/>
-      <c r="F9" s="176"/>
-      <c r="J9" s="128" t="s">
+      <c r="D9" s="193"/>
+      <c r="E9" s="194"/>
+      <c r="F9" s="195"/>
+      <c r="J9" s="191" t="s">
         <v>59</v>
       </c>
-      <c r="K9" s="128"/>
+      <c r="K9" s="191"/>
       <c r="L9" s="89"/>
       <c r="M9" s="19"/>
       <c r="N9" s="19"/>
-      <c r="O9" s="175"/>
-      <c r="P9" s="129"/>
-      <c r="Q9" s="176"/>
+      <c r="O9" s="193"/>
+      <c r="P9" s="194"/>
+      <c r="Q9" s="195"/>
       <c r="R9" s="89"/>
       <c r="S9" s="89"/>
       <c r="T9" s="40"/>
-      <c r="U9" s="177" t="s">
+      <c r="U9" s="196" t="s">
         <v>2</v>
       </c>
-      <c r="V9" s="178"/>
-      <c r="W9" s="178"/>
-      <c r="X9" s="178"/>
+      <c r="V9" s="197"/>
+      <c r="W9" s="197"/>
+      <c r="X9" s="197"/>
       <c r="Y9" s="36"/>
       <c r="Z9" s="36"/>
       <c r="AA9" s="36"/>
       <c r="AB9" s="36"/>
       <c r="AC9" s="37"/>
-      <c r="AD9" s="141" t="s">
+      <c r="AD9" s="174" t="s">
         <v>66</v>
       </c>
-      <c r="AE9" s="142"/>
-      <c r="AF9" s="142"/>
-      <c r="AG9" s="142"/>
-      <c r="AH9" s="142"/>
-      <c r="AI9" s="142"/>
-      <c r="AJ9" s="142"/>
+      <c r="AE9" s="175"/>
+      <c r="AF9" s="175"/>
+      <c r="AG9" s="175"/>
+      <c r="AH9" s="175"/>
+      <c r="AI9" s="175"/>
+      <c r="AJ9" s="175"/>
       <c r="AK9" s="38"/>
     </row>
     <row r="10" spans="1:37" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -7118,10 +7118,10 @@
       <c r="G10" s="22"/>
       <c r="H10" s="22"/>
       <c r="I10" s="22"/>
-      <c r="J10" s="143" t="s">
+      <c r="J10" s="176" t="s">
         <v>85</v>
       </c>
-      <c r="K10" s="143"/>
+      <c r="K10" s="176"/>
       <c r="L10" s="59"/>
       <c r="M10" s="22"/>
       <c r="N10" s="22"/>
@@ -7131,85 +7131,85 @@
       <c r="R10" s="22"/>
       <c r="S10" s="22"/>
       <c r="T10" s="42"/>
-      <c r="U10" s="144"/>
-      <c r="V10" s="145"/>
-      <c r="W10" s="145"/>
-      <c r="X10" s="145"/>
-      <c r="Y10" s="145"/>
-      <c r="Z10" s="145"/>
-      <c r="AA10" s="145"/>
-      <c r="AB10" s="145"/>
+      <c r="U10" s="177"/>
+      <c r="V10" s="178"/>
+      <c r="W10" s="178"/>
+      <c r="X10" s="178"/>
+      <c r="Y10" s="178"/>
+      <c r="Z10" s="178"/>
+      <c r="AA10" s="178"/>
+      <c r="AB10" s="178"/>
       <c r="AC10" s="43"/>
-      <c r="AD10" s="146"/>
-      <c r="AE10" s="145"/>
-      <c r="AF10" s="145"/>
-      <c r="AG10" s="145"/>
-      <c r="AH10" s="145"/>
-      <c r="AI10" s="145"/>
-      <c r="AJ10" s="145"/>
-      <c r="AK10" s="147"/>
+      <c r="AD10" s="179"/>
+      <c r="AE10" s="178"/>
+      <c r="AF10" s="178"/>
+      <c r="AG10" s="178"/>
+      <c r="AH10" s="178"/>
+      <c r="AI10" s="178"/>
+      <c r="AJ10" s="178"/>
+      <c r="AK10" s="180"/>
     </row>
     <row r="11" spans="1:37" ht="9.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="12" spans="1:37" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="148" t="s">
+      <c r="A12" s="132" t="s">
         <v>73</v>
       </c>
-      <c r="B12" s="149"/>
-      <c r="C12" s="149"/>
-      <c r="D12" s="150"/>
-      <c r="E12" s="150"/>
-      <c r="F12" s="150"/>
-      <c r="G12" s="150"/>
-      <c r="H12" s="150"/>
-      <c r="I12" s="150"/>
-      <c r="J12" s="150"/>
-      <c r="K12" s="150"/>
-      <c r="L12" s="153" t="s">
+      <c r="B12" s="139"/>
+      <c r="C12" s="139"/>
+      <c r="D12" s="140"/>
+      <c r="E12" s="140"/>
+      <c r="F12" s="140"/>
+      <c r="G12" s="140"/>
+      <c r="H12" s="140"/>
+      <c r="I12" s="140"/>
+      <c r="J12" s="140"/>
+      <c r="K12" s="140"/>
+      <c r="L12" s="143" t="s">
         <v>72</v>
       </c>
-      <c r="M12" s="153"/>
-      <c r="N12" s="154"/>
-      <c r="O12" s="159" t="s">
+      <c r="M12" s="143"/>
+      <c r="N12" s="144"/>
+      <c r="O12" s="149" t="s">
         <v>20</v>
       </c>
-      <c r="P12" s="160"/>
-      <c r="Q12" s="160"/>
-      <c r="R12" s="160"/>
-      <c r="S12" s="161"/>
-      <c r="X12" s="162" t="s">
+      <c r="P12" s="150"/>
+      <c r="Q12" s="150"/>
+      <c r="R12" s="150"/>
+      <c r="S12" s="151"/>
+      <c r="X12" s="181" t="s">
         <v>71</v>
       </c>
-      <c r="Y12" s="163"/>
-      <c r="Z12" s="163"/>
-      <c r="AA12" s="163"/>
-      <c r="AB12" s="163"/>
-      <c r="AC12" s="163"/>
-      <c r="AD12" s="163"/>
-      <c r="AE12" s="163"/>
-      <c r="AF12" s="163"/>
-      <c r="AG12" s="163"/>
-      <c r="AH12" s="163"/>
-      <c r="AI12" s="163"/>
-      <c r="AJ12" s="163"/>
-      <c r="AK12" s="164"/>
+      <c r="Y12" s="182"/>
+      <c r="Z12" s="182"/>
+      <c r="AA12" s="182"/>
+      <c r="AB12" s="182"/>
+      <c r="AC12" s="182"/>
+      <c r="AD12" s="182"/>
+      <c r="AE12" s="182"/>
+      <c r="AF12" s="182"/>
+      <c r="AG12" s="182"/>
+      <c r="AH12" s="182"/>
+      <c r="AI12" s="182"/>
+      <c r="AJ12" s="182"/>
+      <c r="AK12" s="183"/>
     </row>
     <row r="13" spans="1:37" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="168" t="s">
+      <c r="A13" s="152" t="s">
         <v>74</v>
       </c>
-      <c r="B13" s="169"/>
-      <c r="C13" s="169"/>
-      <c r="D13" s="151"/>
-      <c r="E13" s="151"/>
-      <c r="F13" s="151"/>
-      <c r="G13" s="151"/>
-      <c r="H13" s="151"/>
-      <c r="I13" s="151"/>
-      <c r="J13" s="151"/>
-      <c r="K13" s="151"/>
-      <c r="L13" s="155"/>
-      <c r="M13" s="155"/>
-      <c r="N13" s="156"/>
+      <c r="B13" s="153"/>
+      <c r="C13" s="153"/>
+      <c r="D13" s="141"/>
+      <c r="E13" s="141"/>
+      <c r="F13" s="141"/>
+      <c r="G13" s="141"/>
+      <c r="H13" s="141"/>
+      <c r="I13" s="141"/>
+      <c r="J13" s="141"/>
+      <c r="K13" s="141"/>
+      <c r="L13" s="145"/>
+      <c r="M13" s="145"/>
+      <c r="N13" s="146"/>
       <c r="O13" s="3" t="s">
         <v>67</v>
       </c>
@@ -7225,104 +7225,104 @@
       <c r="S13" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="X13" s="165"/>
-      <c r="Y13" s="166"/>
-      <c r="Z13" s="166"/>
-      <c r="AA13" s="166"/>
-      <c r="AB13" s="166"/>
-      <c r="AC13" s="166"/>
-      <c r="AD13" s="166"/>
-      <c r="AE13" s="166"/>
-      <c r="AF13" s="166"/>
-      <c r="AG13" s="166"/>
-      <c r="AH13" s="166"/>
-      <c r="AI13" s="166"/>
-      <c r="AJ13" s="166"/>
-      <c r="AK13" s="167"/>
+      <c r="X13" s="184"/>
+      <c r="Y13" s="185"/>
+      <c r="Z13" s="185"/>
+      <c r="AA13" s="185"/>
+      <c r="AB13" s="185"/>
+      <c r="AC13" s="185"/>
+      <c r="AD13" s="185"/>
+      <c r="AE13" s="185"/>
+      <c r="AF13" s="185"/>
+      <c r="AG13" s="185"/>
+      <c r="AH13" s="185"/>
+      <c r="AI13" s="185"/>
+      <c r="AJ13" s="185"/>
+      <c r="AK13" s="186"/>
     </row>
     <row r="14" spans="1:37" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" s="100"/>
       <c r="B14" s="101"/>
       <c r="C14" s="101"/>
-      <c r="D14" s="152"/>
-      <c r="E14" s="152"/>
-      <c r="F14" s="152"/>
-      <c r="G14" s="152"/>
-      <c r="H14" s="152"/>
-      <c r="I14" s="152"/>
-      <c r="J14" s="152"/>
-      <c r="K14" s="152"/>
-      <c r="L14" s="157"/>
-      <c r="M14" s="157"/>
-      <c r="N14" s="158"/>
+      <c r="D14" s="142"/>
+      <c r="E14" s="142"/>
+      <c r="F14" s="142"/>
+      <c r="G14" s="142"/>
+      <c r="H14" s="142"/>
+      <c r="I14" s="142"/>
+      <c r="J14" s="142"/>
+      <c r="K14" s="142"/>
+      <c r="L14" s="147"/>
+      <c r="M14" s="147"/>
+      <c r="N14" s="148"/>
       <c r="O14" s="44"/>
       <c r="P14" s="21"/>
       <c r="Q14" s="21"/>
       <c r="R14" s="21"/>
       <c r="S14" s="45"/>
-      <c r="X14" s="194" t="s">
+      <c r="X14" s="168" t="s">
         <v>87</v>
       </c>
-      <c r="Y14" s="139"/>
-      <c r="Z14" s="136" t="s">
+      <c r="Y14" s="169"/>
+      <c r="Z14" s="170" t="s">
         <v>88</v>
       </c>
-      <c r="AA14" s="137"/>
+      <c r="AA14" s="171"/>
       <c r="AB14" s="17"/>
-      <c r="AC14" s="138" t="s">
+      <c r="AC14" s="172" t="s">
         <v>89</v>
       </c>
-      <c r="AD14" s="139"/>
-      <c r="AE14" s="136" t="s">
+      <c r="AD14" s="169"/>
+      <c r="AE14" s="170" t="s">
         <v>88</v>
       </c>
-      <c r="AF14" s="137"/>
+      <c r="AF14" s="171"/>
       <c r="AG14" s="17"/>
-      <c r="AH14" s="138" t="s">
+      <c r="AH14" s="172" t="s">
         <v>89</v>
       </c>
-      <c r="AI14" s="139"/>
-      <c r="AJ14" s="136" t="s">
+      <c r="AI14" s="169"/>
+      <c r="AJ14" s="170" t="s">
         <v>88</v>
       </c>
-      <c r="AK14" s="140"/>
+      <c r="AK14" s="173"/>
     </row>
     <row r="15" spans="1:37" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="181" t="s">
+      <c r="A15" s="154" t="s">
         <v>75</v>
       </c>
-      <c r="B15" s="183" t="s">
+      <c r="B15" s="155" t="s">
         <v>76</v>
       </c>
-      <c r="C15" s="183"/>
-      <c r="D15" s="183"/>
-      <c r="E15" s="185" t="s">
+      <c r="C15" s="155"/>
+      <c r="D15" s="155"/>
+      <c r="E15" s="121" t="s">
         <v>77</v>
       </c>
-      <c r="F15" s="186"/>
-      <c r="G15" s="186"/>
-      <c r="H15" s="186"/>
-      <c r="I15" s="186"/>
-      <c r="J15" s="188" t="s">
+      <c r="F15" s="122"/>
+      <c r="G15" s="122"/>
+      <c r="H15" s="122"/>
+      <c r="I15" s="122"/>
+      <c r="J15" s="158" t="s">
         <v>0</v>
       </c>
-      <c r="K15" s="190" t="s">
+      <c r="K15" s="160" t="s">
         <v>15</v>
       </c>
-      <c r="L15" s="191"/>
-      <c r="M15" s="191"/>
-      <c r="N15" s="192"/>
-      <c r="O15" s="193" t="s">
+      <c r="L15" s="161"/>
+      <c r="M15" s="161"/>
+      <c r="N15" s="162"/>
+      <c r="O15" s="131" t="s">
         <v>5</v>
       </c>
-      <c r="P15" s="107"/>
-      <c r="Q15" s="107"/>
-      <c r="R15" s="107"/>
-      <c r="S15" s="108"/>
-      <c r="U15" s="148" t="s">
+      <c r="P15" s="126"/>
+      <c r="Q15" s="126"/>
+      <c r="R15" s="126"/>
+      <c r="S15" s="127"/>
+      <c r="U15" s="132" t="s">
         <v>6</v>
       </c>
-      <c r="V15" s="198"/>
+      <c r="V15" s="133"/>
       <c r="X15" s="47"/>
       <c r="Y15" s="94">
         <v>1</v>
@@ -7351,16 +7351,16 @@
       <c r="AK15" s="97"/>
     </row>
     <row r="16" spans="1:37" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="182"/>
-      <c r="B16" s="184"/>
-      <c r="C16" s="184"/>
-      <c r="D16" s="184"/>
-      <c r="E16" s="187"/>
-      <c r="F16" s="187"/>
-      <c r="G16" s="187"/>
-      <c r="H16" s="187"/>
-      <c r="I16" s="187"/>
-      <c r="J16" s="189"/>
+      <c r="A16" s="128"/>
+      <c r="B16" s="156"/>
+      <c r="C16" s="156"/>
+      <c r="D16" s="156"/>
+      <c r="E16" s="157"/>
+      <c r="F16" s="157"/>
+      <c r="G16" s="157"/>
+      <c r="H16" s="157"/>
+      <c r="I16" s="157"/>
+      <c r="J16" s="159"/>
       <c r="K16" s="48" t="s">
         <v>7</v>
       </c>
@@ -7388,8 +7388,8 @@
       <c r="S16" s="10">
         <v>5</v>
       </c>
-      <c r="U16" s="199"/>
-      <c r="V16" s="200"/>
+      <c r="U16" s="134"/>
+      <c r="V16" s="135"/>
       <c r="X16" s="49"/>
       <c r="Y16" s="87">
         <v>2</v>
@@ -7424,11 +7424,11 @@
       <c r="B17" s="17"/>
       <c r="C17" s="17"/>
       <c r="D17" s="17"/>
-      <c r="E17" s="201"/>
-      <c r="F17" s="202"/>
-      <c r="G17" s="202"/>
-      <c r="H17" s="202"/>
-      <c r="I17" s="203"/>
+      <c r="E17" s="136"/>
+      <c r="F17" s="137"/>
+      <c r="G17" s="137"/>
+      <c r="H17" s="137"/>
+      <c r="I17" s="138"/>
       <c r="J17" s="60">
         <v>4</v>
       </c>
@@ -7475,11 +7475,11 @@
       <c r="B18" s="20"/>
       <c r="C18" s="20"/>
       <c r="D18" s="20"/>
-      <c r="E18" s="195"/>
-      <c r="F18" s="196"/>
-      <c r="G18" s="196"/>
-      <c r="H18" s="196"/>
-      <c r="I18" s="197"/>
+      <c r="E18" s="117"/>
+      <c r="F18" s="118"/>
+      <c r="G18" s="118"/>
+      <c r="H18" s="118"/>
+      <c r="I18" s="119"/>
       <c r="J18" s="61">
         <v>5</v>
       </c>
@@ -7492,10 +7492,10 @@
       <c r="Q18" s="20"/>
       <c r="R18" s="20"/>
       <c r="S18" s="54"/>
-      <c r="U18" s="204" t="s">
+      <c r="U18" s="120" t="s">
         <v>11</v>
       </c>
-      <c r="V18" s="205" t="s">
+      <c r="V18" s="129" t="s">
         <v>12</v>
       </c>
       <c r="X18" s="49"/>
@@ -7532,11 +7532,11 @@
       <c r="B19" s="20"/>
       <c r="C19" s="20"/>
       <c r="D19" s="20"/>
-      <c r="E19" s="195"/>
-      <c r="F19" s="196"/>
-      <c r="G19" s="196"/>
-      <c r="H19" s="196"/>
-      <c r="I19" s="197"/>
+      <c r="E19" s="117"/>
+      <c r="F19" s="118"/>
+      <c r="G19" s="118"/>
+      <c r="H19" s="118"/>
+      <c r="I19" s="119"/>
       <c r="J19" s="61">
         <v>6</v>
       </c>
@@ -7549,8 +7549,8 @@
       <c r="Q19" s="20"/>
       <c r="R19" s="20"/>
       <c r="S19" s="54"/>
-      <c r="U19" s="182"/>
-      <c r="V19" s="206"/>
+      <c r="U19" s="128"/>
+      <c r="V19" s="130"/>
       <c r="X19" s="49"/>
       <c r="Y19" s="87">
         <v>5</v>
@@ -7585,11 +7585,11 @@
       <c r="B20" s="20"/>
       <c r="C20" s="20"/>
       <c r="D20" s="20"/>
-      <c r="E20" s="195"/>
-      <c r="F20" s="196"/>
-      <c r="G20" s="196"/>
-      <c r="H20" s="196"/>
-      <c r="I20" s="197"/>
+      <c r="E20" s="117"/>
+      <c r="F20" s="118"/>
+      <c r="G20" s="118"/>
+      <c r="H20" s="118"/>
+      <c r="I20" s="119"/>
       <c r="J20" s="61">
         <v>7</v>
       </c>
@@ -7642,11 +7642,11 @@
       <c r="B21" s="20"/>
       <c r="C21" s="20"/>
       <c r="D21" s="20"/>
-      <c r="E21" s="195"/>
-      <c r="F21" s="196"/>
-      <c r="G21" s="196"/>
-      <c r="H21" s="196"/>
-      <c r="I21" s="197"/>
+      <c r="E21" s="117"/>
+      <c r="F21" s="118"/>
+      <c r="G21" s="118"/>
+      <c r="H21" s="118"/>
+      <c r="I21" s="119"/>
       <c r="J21" s="61">
         <v>8</v>
       </c>
@@ -7699,11 +7699,11 @@
       <c r="B22" s="20"/>
       <c r="C22" s="20"/>
       <c r="D22" s="20"/>
-      <c r="E22" s="195"/>
-      <c r="F22" s="196"/>
-      <c r="G22" s="196"/>
-      <c r="H22" s="196"/>
-      <c r="I22" s="197"/>
+      <c r="E22" s="117"/>
+      <c r="F22" s="118"/>
+      <c r="G22" s="118"/>
+      <c r="H22" s="118"/>
+      <c r="I22" s="119"/>
       <c r="J22" s="61">
         <v>9</v>
       </c>
@@ -7756,11 +7756,11 @@
       <c r="B23" s="20"/>
       <c r="C23" s="20"/>
       <c r="D23" s="20"/>
-      <c r="E23" s="195"/>
-      <c r="F23" s="196"/>
-      <c r="G23" s="196"/>
-      <c r="H23" s="196"/>
-      <c r="I23" s="197"/>
+      <c r="E23" s="117"/>
+      <c r="F23" s="118"/>
+      <c r="G23" s="118"/>
+      <c r="H23" s="118"/>
+      <c r="I23" s="119"/>
       <c r="J23" s="61">
         <v>10</v>
       </c>
@@ -7813,11 +7813,11 @@
       <c r="B24" s="20"/>
       <c r="C24" s="20"/>
       <c r="D24" s="20"/>
-      <c r="E24" s="195"/>
-      <c r="F24" s="196"/>
-      <c r="G24" s="196"/>
-      <c r="H24" s="196"/>
-      <c r="I24" s="197"/>
+      <c r="E24" s="117"/>
+      <c r="F24" s="118"/>
+      <c r="G24" s="118"/>
+      <c r="H24" s="118"/>
+      <c r="I24" s="119"/>
       <c r="J24" s="61">
         <v>11</v>
       </c>
@@ -7864,11 +7864,11 @@
       <c r="B25" s="20"/>
       <c r="C25" s="20"/>
       <c r="D25" s="20"/>
-      <c r="E25" s="195"/>
-      <c r="F25" s="196"/>
-      <c r="G25" s="196"/>
-      <c r="H25" s="196"/>
-      <c r="I25" s="197"/>
+      <c r="E25" s="117"/>
+      <c r="F25" s="118"/>
+      <c r="G25" s="118"/>
+      <c r="H25" s="118"/>
+      <c r="I25" s="119"/>
       <c r="J25" s="61">
         <v>12</v>
       </c>
@@ -7881,10 +7881,10 @@
       <c r="Q25" s="20"/>
       <c r="R25" s="20"/>
       <c r="S25" s="54"/>
-      <c r="U25" s="204" t="s">
+      <c r="U25" s="120" t="s">
         <v>13</v>
       </c>
-      <c r="V25" s="205" t="s">
+      <c r="V25" s="129" t="s">
         <v>14</v>
       </c>
       <c r="X25" s="49"/>
@@ -7921,11 +7921,11 @@
       <c r="B26" s="20"/>
       <c r="C26" s="20"/>
       <c r="D26" s="20"/>
-      <c r="E26" s="195"/>
-      <c r="F26" s="196"/>
-      <c r="G26" s="196"/>
-      <c r="H26" s="196"/>
-      <c r="I26" s="197"/>
+      <c r="E26" s="117"/>
+      <c r="F26" s="118"/>
+      <c r="G26" s="118"/>
+      <c r="H26" s="118"/>
+      <c r="I26" s="119"/>
       <c r="J26" s="61">
         <v>13</v>
       </c>
@@ -7938,8 +7938,8 @@
       <c r="Q26" s="20"/>
       <c r="R26" s="20"/>
       <c r="S26" s="54"/>
-      <c r="U26" s="182"/>
-      <c r="V26" s="206"/>
+      <c r="U26" s="128"/>
+      <c r="V26" s="130"/>
       <c r="X26" s="49"/>
       <c r="Y26" s="87">
         <v>12</v>
@@ -7977,11 +7977,11 @@
       <c r="B27" s="20"/>
       <c r="C27" s="20"/>
       <c r="D27" s="20"/>
-      <c r="E27" s="195"/>
-      <c r="F27" s="196"/>
-      <c r="G27" s="196"/>
-      <c r="H27" s="196"/>
-      <c r="I27" s="197"/>
+      <c r="E27" s="117"/>
+      <c r="F27" s="118"/>
+      <c r="G27" s="118"/>
+      <c r="H27" s="118"/>
+      <c r="I27" s="119"/>
       <c r="J27" s="61">
         <v>14</v>
       </c>
@@ -8034,11 +8034,11 @@
       <c r="B28" s="20"/>
       <c r="C28" s="20"/>
       <c r="D28" s="20"/>
-      <c r="E28" s="195"/>
-      <c r="F28" s="196"/>
-      <c r="G28" s="196"/>
-      <c r="H28" s="196"/>
-      <c r="I28" s="197"/>
+      <c r="E28" s="117"/>
+      <c r="F28" s="118"/>
+      <c r="G28" s="118"/>
+      <c r="H28" s="118"/>
+      <c r="I28" s="119"/>
       <c r="J28" s="61">
         <v>15</v>
       </c>
@@ -8091,11 +8091,11 @@
       <c r="B29" s="20"/>
       <c r="C29" s="20"/>
       <c r="D29" s="20"/>
-      <c r="E29" s="195"/>
-      <c r="F29" s="196"/>
-      <c r="G29" s="196"/>
-      <c r="H29" s="196"/>
-      <c r="I29" s="197"/>
+      <c r="E29" s="117"/>
+      <c r="F29" s="118"/>
+      <c r="G29" s="118"/>
+      <c r="H29" s="118"/>
+      <c r="I29" s="119"/>
       <c r="J29" s="61">
         <v>16</v>
       </c>
@@ -8148,11 +8148,11 @@
       <c r="B30" s="20"/>
       <c r="C30" s="20"/>
       <c r="D30" s="20"/>
-      <c r="E30" s="195"/>
-      <c r="F30" s="196"/>
-      <c r="G30" s="196"/>
-      <c r="H30" s="196"/>
-      <c r="I30" s="197"/>
+      <c r="E30" s="117"/>
+      <c r="F30" s="118"/>
+      <c r="G30" s="118"/>
+      <c r="H30" s="118"/>
+      <c r="I30" s="119"/>
       <c r="J30" s="61">
         <v>17</v>
       </c>
@@ -8205,11 +8205,11 @@
       <c r="B31" s="20"/>
       <c r="C31" s="20"/>
       <c r="D31" s="20"/>
-      <c r="E31" s="195"/>
-      <c r="F31" s="196"/>
-      <c r="G31" s="196"/>
-      <c r="H31" s="196"/>
-      <c r="I31" s="197"/>
+      <c r="E31" s="117"/>
+      <c r="F31" s="118"/>
+      <c r="G31" s="118"/>
+      <c r="H31" s="118"/>
+      <c r="I31" s="119"/>
       <c r="J31" s="62">
         <v>18</v>
       </c>
@@ -8250,22 +8250,22 @@
       <c r="AK31" s="23"/>
     </row>
     <row r="32" spans="1:39" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="207" t="s">
+      <c r="A32" s="163" t="s">
         <v>78</v>
       </c>
-      <c r="B32" s="208"/>
-      <c r="C32" s="208"/>
-      <c r="D32" s="208"/>
+      <c r="B32" s="164"/>
+      <c r="C32" s="164"/>
+      <c r="D32" s="164"/>
       <c r="E32" s="102"/>
       <c r="F32" s="102"/>
       <c r="G32" s="51"/>
-      <c r="H32" s="107"/>
-      <c r="I32" s="107"/>
-      <c r="J32" s="107"/>
-      <c r="K32" s="107"/>
-      <c r="L32" s="107"/>
-      <c r="M32" s="107"/>
-      <c r="N32" s="107"/>
+      <c r="H32" s="126"/>
+      <c r="I32" s="126"/>
+      <c r="J32" s="126"/>
+      <c r="K32" s="126"/>
+      <c r="L32" s="126"/>
+      <c r="M32" s="126"/>
+      <c r="N32" s="126"/>
       <c r="O32" s="51"/>
       <c r="P32" s="51"/>
       <c r="Q32" s="51"/>
@@ -8299,22 +8299,22 @@
       <c r="AK32" s="23"/>
     </row>
     <row r="33" spans="1:37" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="210" t="s">
+      <c r="A33" s="166" t="s">
         <v>79</v>
       </c>
-      <c r="B33" s="211"/>
-      <c r="C33" s="211"/>
-      <c r="D33" s="211"/>
+      <c r="B33" s="167"/>
+      <c r="C33" s="167"/>
+      <c r="D33" s="167"/>
       <c r="E33" s="103"/>
       <c r="F33" s="103"/>
       <c r="G33" s="21"/>
-      <c r="H33" s="109"/>
-      <c r="I33" s="109"/>
-      <c r="J33" s="109"/>
-      <c r="K33" s="109"/>
-      <c r="L33" s="109"/>
-      <c r="M33" s="109"/>
-      <c r="N33" s="109"/>
+      <c r="H33" s="114"/>
+      <c r="I33" s="114"/>
+      <c r="J33" s="114"/>
+      <c r="K33" s="114"/>
+      <c r="L33" s="114"/>
+      <c r="M33" s="114"/>
+      <c r="N33" s="114"/>
       <c r="O33" s="21"/>
       <c r="P33" s="21"/>
       <c r="Q33" s="21"/>
@@ -8423,33 +8423,33 @@
       <c r="AK35" s="23"/>
     </row>
     <row r="36" spans="1:37" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="148" t="s">
+      <c r="A36" s="132" t="s">
         <v>80</v>
       </c>
-      <c r="B36" s="149"/>
-      <c r="C36" s="149"/>
-      <c r="D36" s="150" t="s">
+      <c r="B36" s="139"/>
+      <c r="C36" s="139"/>
+      <c r="D36" s="140" t="s">
         <v>22</v>
       </c>
-      <c r="E36" s="150"/>
-      <c r="F36" s="150"/>
-      <c r="G36" s="150"/>
-      <c r="H36" s="150"/>
-      <c r="I36" s="150"/>
-      <c r="J36" s="150"/>
-      <c r="K36" s="150"/>
-      <c r="L36" s="153" t="s">
+      <c r="E36" s="140"/>
+      <c r="F36" s="140"/>
+      <c r="G36" s="140"/>
+      <c r="H36" s="140"/>
+      <c r="I36" s="140"/>
+      <c r="J36" s="140"/>
+      <c r="K36" s="140"/>
+      <c r="L36" s="143" t="s">
         <v>82</v>
       </c>
-      <c r="M36" s="153"/>
-      <c r="N36" s="154"/>
-      <c r="O36" s="159" t="s">
+      <c r="M36" s="143"/>
+      <c r="N36" s="144"/>
+      <c r="O36" s="149" t="s">
         <v>20</v>
       </c>
-      <c r="P36" s="160"/>
-      <c r="Q36" s="160"/>
-      <c r="R36" s="160"/>
-      <c r="S36" s="161"/>
+      <c r="P36" s="150"/>
+      <c r="Q36" s="150"/>
+      <c r="R36" s="150"/>
+      <c r="S36" s="151"/>
       <c r="X36" s="49"/>
       <c r="Y36" s="87">
         <v>22</v>
@@ -8478,22 +8478,22 @@
       <c r="AK36" s="23"/>
     </row>
     <row r="37" spans="1:37" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="168" t="s">
+      <c r="A37" s="152" t="s">
         <v>81</v>
       </c>
-      <c r="B37" s="169"/>
-      <c r="C37" s="169"/>
-      <c r="D37" s="151"/>
-      <c r="E37" s="151"/>
-      <c r="F37" s="151"/>
-      <c r="G37" s="151"/>
-      <c r="H37" s="151"/>
-      <c r="I37" s="151"/>
-      <c r="J37" s="151"/>
-      <c r="K37" s="151"/>
-      <c r="L37" s="155"/>
-      <c r="M37" s="155"/>
-      <c r="N37" s="156"/>
+      <c r="B37" s="153"/>
+      <c r="C37" s="153"/>
+      <c r="D37" s="141"/>
+      <c r="E37" s="141"/>
+      <c r="F37" s="141"/>
+      <c r="G37" s="141"/>
+      <c r="H37" s="141"/>
+      <c r="I37" s="141"/>
+      <c r="J37" s="141"/>
+      <c r="K37" s="141"/>
+      <c r="L37" s="145"/>
+      <c r="M37" s="145"/>
+      <c r="N37" s="146"/>
       <c r="O37" s="3" t="s">
         <v>67</v>
       </c>
@@ -8540,17 +8540,17 @@
       <c r="A38" s="100"/>
       <c r="B38" s="101"/>
       <c r="C38" s="101"/>
-      <c r="D38" s="152"/>
-      <c r="E38" s="152"/>
-      <c r="F38" s="152"/>
-      <c r="G38" s="152"/>
-      <c r="H38" s="152"/>
-      <c r="I38" s="152"/>
-      <c r="J38" s="152"/>
-      <c r="K38" s="152"/>
-      <c r="L38" s="157"/>
-      <c r="M38" s="157"/>
-      <c r="N38" s="158"/>
+      <c r="D38" s="142"/>
+      <c r="E38" s="142"/>
+      <c r="F38" s="142"/>
+      <c r="G38" s="142"/>
+      <c r="H38" s="142"/>
+      <c r="I38" s="142"/>
+      <c r="J38" s="142"/>
+      <c r="K38" s="142"/>
+      <c r="L38" s="147"/>
+      <c r="M38" s="147"/>
+      <c r="N38" s="148"/>
       <c r="O38" s="44"/>
       <c r="P38" s="21"/>
       <c r="Q38" s="21"/>
@@ -8584,41 +8584,41 @@
       <c r="AK38" s="23"/>
     </row>
     <row r="39" spans="1:37" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="181" t="s">
+      <c r="A39" s="154" t="s">
         <v>75</v>
       </c>
-      <c r="B39" s="183" t="s">
+      <c r="B39" s="155" t="s">
         <v>76</v>
       </c>
-      <c r="C39" s="183"/>
-      <c r="D39" s="183"/>
-      <c r="E39" s="185" t="s">
+      <c r="C39" s="155"/>
+      <c r="D39" s="155"/>
+      <c r="E39" s="121" t="s">
         <v>77</v>
       </c>
-      <c r="F39" s="186"/>
-      <c r="G39" s="186"/>
-      <c r="H39" s="186"/>
-      <c r="I39" s="186"/>
-      <c r="J39" s="188" t="s">
+      <c r="F39" s="122"/>
+      <c r="G39" s="122"/>
+      <c r="H39" s="122"/>
+      <c r="I39" s="122"/>
+      <c r="J39" s="158" t="s">
         <v>0</v>
       </c>
-      <c r="K39" s="190" t="s">
+      <c r="K39" s="160" t="s">
         <v>15</v>
       </c>
-      <c r="L39" s="191"/>
-      <c r="M39" s="191"/>
-      <c r="N39" s="192"/>
-      <c r="O39" s="193" t="s">
+      <c r="L39" s="161"/>
+      <c r="M39" s="161"/>
+      <c r="N39" s="162"/>
+      <c r="O39" s="131" t="s">
         <v>5</v>
       </c>
-      <c r="P39" s="107"/>
-      <c r="Q39" s="107"/>
-      <c r="R39" s="107"/>
-      <c r="S39" s="108"/>
-      <c r="U39" s="148" t="s">
+      <c r="P39" s="126"/>
+      <c r="Q39" s="126"/>
+      <c r="R39" s="126"/>
+      <c r="S39" s="127"/>
+      <c r="U39" s="132" t="s">
         <v>6</v>
       </c>
-      <c r="V39" s="198"/>
+      <c r="V39" s="133"/>
       <c r="X39" s="49"/>
       <c r="Y39" s="87">
         <v>25</v>
@@ -8647,16 +8647,16 @@
       <c r="AK39" s="23"/>
     </row>
     <row r="40" spans="1:37" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="182"/>
-      <c r="B40" s="184"/>
-      <c r="C40" s="184"/>
-      <c r="D40" s="184"/>
-      <c r="E40" s="187"/>
-      <c r="F40" s="187"/>
-      <c r="G40" s="187"/>
-      <c r="H40" s="187"/>
-      <c r="I40" s="187"/>
-      <c r="J40" s="189"/>
+      <c r="A40" s="128"/>
+      <c r="B40" s="156"/>
+      <c r="C40" s="156"/>
+      <c r="D40" s="156"/>
+      <c r="E40" s="157"/>
+      <c r="F40" s="157"/>
+      <c r="G40" s="157"/>
+      <c r="H40" s="157"/>
+      <c r="I40" s="157"/>
+      <c r="J40" s="159"/>
       <c r="K40" s="48" t="s">
         <v>7</v>
       </c>
@@ -8684,8 +8684,8 @@
       <c r="S40" s="10">
         <v>5</v>
       </c>
-      <c r="U40" s="199"/>
-      <c r="V40" s="200"/>
+      <c r="U40" s="134"/>
+      <c r="V40" s="135"/>
       <c r="X40" s="49"/>
       <c r="Y40" s="87">
         <v>26</v>
@@ -8720,13 +8720,13 @@
       <c r="B41" s="17"/>
       <c r="C41" s="17"/>
       <c r="D41" s="17"/>
-      <c r="E41" s="201" t="s">
+      <c r="E41" s="136" t="s">
         <v>37</v>
       </c>
-      <c r="F41" s="202"/>
-      <c r="G41" s="202"/>
-      <c r="H41" s="202"/>
-      <c r="I41" s="203"/>
+      <c r="F41" s="137"/>
+      <c r="G41" s="137"/>
+      <c r="H41" s="137"/>
+      <c r="I41" s="138"/>
       <c r="J41" s="60">
         <v>4</v>
       </c>
@@ -8773,13 +8773,13 @@
       <c r="B42" s="20"/>
       <c r="C42" s="20"/>
       <c r="D42" s="20"/>
-      <c r="E42" s="195" t="s">
+      <c r="E42" s="117" t="s">
         <v>38</v>
       </c>
-      <c r="F42" s="196"/>
-      <c r="G42" s="196"/>
-      <c r="H42" s="196"/>
-      <c r="I42" s="197"/>
+      <c r="F42" s="118"/>
+      <c r="G42" s="118"/>
+      <c r="H42" s="118"/>
+      <c r="I42" s="119"/>
       <c r="J42" s="61">
         <v>5</v>
       </c>
@@ -8792,10 +8792,10 @@
       <c r="Q42" s="20"/>
       <c r="R42" s="20"/>
       <c r="S42" s="54"/>
-      <c r="U42" s="204" t="s">
+      <c r="U42" s="120" t="s">
         <v>11</v>
       </c>
-      <c r="V42" s="205" t="s">
+      <c r="V42" s="129" t="s">
         <v>12</v>
       </c>
       <c r="X42" s="49"/>
@@ -8832,13 +8832,13 @@
       <c r="B43" s="20"/>
       <c r="C43" s="20"/>
       <c r="D43" s="20"/>
-      <c r="E43" s="195" t="s">
+      <c r="E43" s="117" t="s">
         <v>39</v>
       </c>
-      <c r="F43" s="196"/>
-      <c r="G43" s="196"/>
-      <c r="H43" s="196"/>
-      <c r="I43" s="197"/>
+      <c r="F43" s="118"/>
+      <c r="G43" s="118"/>
+      <c r="H43" s="118"/>
+      <c r="I43" s="119"/>
       <c r="J43" s="61">
         <v>6</v>
       </c>
@@ -8851,8 +8851,8 @@
       <c r="Q43" s="20"/>
       <c r="R43" s="20"/>
       <c r="S43" s="54"/>
-      <c r="U43" s="182"/>
-      <c r="V43" s="206"/>
+      <c r="U43" s="128"/>
+      <c r="V43" s="130"/>
       <c r="X43" s="49"/>
       <c r="Y43" s="87">
         <v>29</v>
@@ -8887,13 +8887,13 @@
       <c r="B44" s="20"/>
       <c r="C44" s="20"/>
       <c r="D44" s="20"/>
-      <c r="E44" s="195" t="s">
+      <c r="E44" s="117" t="s">
         <v>40</v>
       </c>
-      <c r="F44" s="196"/>
-      <c r="G44" s="196"/>
-      <c r="H44" s="196"/>
-      <c r="I44" s="197"/>
+      <c r="F44" s="118"/>
+      <c r="G44" s="118"/>
+      <c r="H44" s="118"/>
+      <c r="I44" s="119"/>
       <c r="J44" s="61">
         <v>7</v>
       </c>
@@ -8946,13 +8946,13 @@
       <c r="B45" s="20"/>
       <c r="C45" s="20"/>
       <c r="D45" s="20"/>
-      <c r="E45" s="195" t="s">
+      <c r="E45" s="117" t="s">
         <v>41</v>
       </c>
-      <c r="F45" s="196"/>
-      <c r="G45" s="196"/>
-      <c r="H45" s="196"/>
-      <c r="I45" s="197"/>
+      <c r="F45" s="118"/>
+      <c r="G45" s="118"/>
+      <c r="H45" s="118"/>
+      <c r="I45" s="119"/>
       <c r="J45" s="61">
         <v>8</v>
       </c>
@@ -9005,13 +9005,13 @@
       <c r="B46" s="20"/>
       <c r="C46" s="20"/>
       <c r="D46" s="20"/>
-      <c r="E46" s="195" t="s">
+      <c r="E46" s="117" t="s">
         <v>42</v>
       </c>
-      <c r="F46" s="196"/>
-      <c r="G46" s="196"/>
-      <c r="H46" s="196"/>
-      <c r="I46" s="197"/>
+      <c r="F46" s="118"/>
+      <c r="G46" s="118"/>
+      <c r="H46" s="118"/>
+      <c r="I46" s="119"/>
       <c r="J46" s="61">
         <v>9</v>
       </c>
@@ -9064,13 +9064,13 @@
       <c r="B47" s="20"/>
       <c r="C47" s="20"/>
       <c r="D47" s="20"/>
-      <c r="E47" s="195" t="s">
+      <c r="E47" s="117" t="s">
         <v>43</v>
       </c>
-      <c r="F47" s="196"/>
-      <c r="G47" s="196"/>
-      <c r="H47" s="196"/>
-      <c r="I47" s="197"/>
+      <c r="F47" s="118"/>
+      <c r="G47" s="118"/>
+      <c r="H47" s="118"/>
+      <c r="I47" s="119"/>
       <c r="J47" s="61">
         <v>10</v>
       </c>
@@ -9123,13 +9123,13 @@
       <c r="B48" s="20"/>
       <c r="C48" s="20"/>
       <c r="D48" s="20"/>
-      <c r="E48" s="195" t="s">
+      <c r="E48" s="117" t="s">
         <v>44</v>
       </c>
-      <c r="F48" s="196"/>
-      <c r="G48" s="196"/>
-      <c r="H48" s="196"/>
-      <c r="I48" s="197"/>
+      <c r="F48" s="118"/>
+      <c r="G48" s="118"/>
+      <c r="H48" s="118"/>
+      <c r="I48" s="119"/>
       <c r="J48" s="61">
         <v>11</v>
       </c>
@@ -9176,13 +9176,13 @@
       <c r="B49" s="20"/>
       <c r="C49" s="20"/>
       <c r="D49" s="20"/>
-      <c r="E49" s="195" t="s">
+      <c r="E49" s="117" t="s">
         <v>45</v>
       </c>
-      <c r="F49" s="196"/>
-      <c r="G49" s="196"/>
-      <c r="H49" s="196"/>
-      <c r="I49" s="197"/>
+      <c r="F49" s="118"/>
+      <c r="G49" s="118"/>
+      <c r="H49" s="118"/>
+      <c r="I49" s="119"/>
       <c r="J49" s="61">
         <v>12</v>
       </c>
@@ -9195,10 +9195,10 @@
       <c r="Q49" s="20"/>
       <c r="R49" s="20"/>
       <c r="S49" s="54"/>
-      <c r="U49" s="204" t="s">
+      <c r="U49" s="120" t="s">
         <v>13</v>
       </c>
-      <c r="V49" s="205" t="s">
+      <c r="V49" s="129" t="s">
         <v>14</v>
       </c>
       <c r="X49" s="49"/>
@@ -9235,13 +9235,13 @@
       <c r="B50" s="20"/>
       <c r="C50" s="20"/>
       <c r="D50" s="20"/>
-      <c r="E50" s="195" t="s">
+      <c r="E50" s="117" t="s">
         <v>46</v>
       </c>
-      <c r="F50" s="196"/>
-      <c r="G50" s="196"/>
-      <c r="H50" s="196"/>
-      <c r="I50" s="197"/>
+      <c r="F50" s="118"/>
+      <c r="G50" s="118"/>
+      <c r="H50" s="118"/>
+      <c r="I50" s="119"/>
       <c r="J50" s="61">
         <v>13</v>
       </c>
@@ -9254,8 +9254,8 @@
       <c r="Q50" s="20"/>
       <c r="R50" s="20"/>
       <c r="S50" s="54"/>
-      <c r="U50" s="182"/>
-      <c r="V50" s="206"/>
+      <c r="U50" s="128"/>
+      <c r="V50" s="130"/>
       <c r="X50" s="49"/>
       <c r="Y50" s="87">
         <v>36</v>
@@ -9290,13 +9290,13 @@
       <c r="B51" s="20"/>
       <c r="C51" s="20"/>
       <c r="D51" s="20"/>
-      <c r="E51" s="195" t="s">
+      <c r="E51" s="117" t="s">
         <v>47</v>
       </c>
-      <c r="F51" s="196"/>
-      <c r="G51" s="196"/>
-      <c r="H51" s="196"/>
-      <c r="I51" s="197"/>
+      <c r="F51" s="118"/>
+      <c r="G51" s="118"/>
+      <c r="H51" s="118"/>
+      <c r="I51" s="119"/>
       <c r="J51" s="61">
         <v>14</v>
       </c>
@@ -9349,13 +9349,13 @@
       <c r="B52" s="20"/>
       <c r="C52" s="20"/>
       <c r="D52" s="20"/>
-      <c r="E52" s="195" t="s">
+      <c r="E52" s="117" t="s">
         <v>48</v>
       </c>
-      <c r="F52" s="196"/>
-      <c r="G52" s="196"/>
-      <c r="H52" s="196"/>
-      <c r="I52" s="197"/>
+      <c r="F52" s="118"/>
+      <c r="G52" s="118"/>
+      <c r="H52" s="118"/>
+      <c r="I52" s="119"/>
       <c r="J52" s="61">
         <v>15</v>
       </c>
@@ -9408,13 +9408,13 @@
       <c r="B53" s="20"/>
       <c r="C53" s="20"/>
       <c r="D53" s="20"/>
-      <c r="E53" s="195" t="s">
+      <c r="E53" s="117" t="s">
         <v>49</v>
       </c>
-      <c r="F53" s="196"/>
-      <c r="G53" s="196"/>
-      <c r="H53" s="196"/>
-      <c r="I53" s="197"/>
+      <c r="F53" s="118"/>
+      <c r="G53" s="118"/>
+      <c r="H53" s="118"/>
+      <c r="I53" s="119"/>
       <c r="J53" s="61">
         <v>16</v>
       </c>
@@ -9467,13 +9467,13 @@
       <c r="B54" s="20"/>
       <c r="C54" s="20"/>
       <c r="D54" s="20"/>
-      <c r="E54" s="195" t="s">
+      <c r="E54" s="117" t="s">
         <v>50</v>
       </c>
-      <c r="F54" s="196"/>
-      <c r="G54" s="196"/>
-      <c r="H54" s="196"/>
-      <c r="I54" s="197"/>
+      <c r="F54" s="118"/>
+      <c r="G54" s="118"/>
+      <c r="H54" s="118"/>
+      <c r="I54" s="119"/>
       <c r="J54" s="61">
         <v>17</v>
       </c>
@@ -9526,13 +9526,13 @@
       <c r="B55" s="20"/>
       <c r="C55" s="20"/>
       <c r="D55" s="20"/>
-      <c r="E55" s="195" t="s">
+      <c r="E55" s="117" t="s">
         <v>51</v>
       </c>
-      <c r="F55" s="196"/>
-      <c r="G55" s="196"/>
-      <c r="H55" s="196"/>
-      <c r="I55" s="197"/>
+      <c r="F55" s="118"/>
+      <c r="G55" s="118"/>
+      <c r="H55" s="118"/>
+      <c r="I55" s="119"/>
       <c r="J55" s="62">
         <v>18</v>
       </c>
@@ -9547,98 +9547,98 @@
       <c r="S55" s="45"/>
     </row>
     <row r="56" spans="1:37" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="204" t="s">
+      <c r="A56" s="120" t="s">
         <v>78</v>
       </c>
-      <c r="B56" s="185"/>
-      <c r="C56" s="185"/>
-      <c r="D56" s="185"/>
+      <c r="B56" s="121"/>
+      <c r="C56" s="121"/>
+      <c r="D56" s="121"/>
       <c r="E56" s="102"/>
       <c r="F56" s="102"/>
       <c r="G56" s="51"/>
-      <c r="H56" s="186"/>
-      <c r="I56" s="186"/>
-      <c r="J56" s="186"/>
-      <c r="K56" s="186"/>
-      <c r="L56" s="186"/>
-      <c r="M56" s="186"/>
-      <c r="N56" s="186"/>
+      <c r="H56" s="122"/>
+      <c r="I56" s="122"/>
+      <c r="J56" s="122"/>
+      <c r="K56" s="122"/>
+      <c r="L56" s="122"/>
+      <c r="M56" s="122"/>
+      <c r="N56" s="122"/>
       <c r="O56" s="51"/>
       <c r="P56" s="51"/>
       <c r="Q56" s="51"/>
       <c r="R56" s="51"/>
       <c r="S56" s="52"/>
-      <c r="X56" s="220" t="s">
+      <c r="X56" s="124" t="s">
         <v>83</v>
       </c>
-      <c r="Y56" s="221"/>
-      <c r="Z56" s="221"/>
-      <c r="AA56" s="221"/>
-      <c r="AB56" s="107"/>
-      <c r="AC56" s="107"/>
-      <c r="AD56" s="107"/>
-      <c r="AE56" s="107"/>
-      <c r="AF56" s="107"/>
-      <c r="AG56" s="107"/>
-      <c r="AH56" s="107"/>
-      <c r="AI56" s="107"/>
-      <c r="AJ56" s="107"/>
-      <c r="AK56" s="108"/>
+      <c r="Y56" s="125"/>
+      <c r="Z56" s="125"/>
+      <c r="AA56" s="125"/>
+      <c r="AB56" s="126"/>
+      <c r="AC56" s="126"/>
+      <c r="AD56" s="126"/>
+      <c r="AE56" s="126"/>
+      <c r="AF56" s="126"/>
+      <c r="AG56" s="126"/>
+      <c r="AH56" s="126"/>
+      <c r="AI56" s="126"/>
+      <c r="AJ56" s="126"/>
+      <c r="AK56" s="127"/>
     </row>
     <row r="57" spans="1:37" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="213" t="s">
+      <c r="A57" s="107" t="s">
         <v>79</v>
       </c>
-      <c r="B57" s="214"/>
-      <c r="C57" s="214"/>
-      <c r="D57" s="215"/>
+      <c r="B57" s="108"/>
+      <c r="C57" s="108"/>
+      <c r="D57" s="109"/>
       <c r="E57" s="103"/>
       <c r="F57" s="103"/>
       <c r="G57" s="21"/>
-      <c r="H57" s="212"/>
-      <c r="I57" s="216"/>
-      <c r="J57" s="216"/>
-      <c r="K57" s="216"/>
-      <c r="L57" s="216"/>
-      <c r="M57" s="216"/>
+      <c r="H57" s="110"/>
+      <c r="I57" s="111"/>
+      <c r="J57" s="111"/>
+      <c r="K57" s="111"/>
+      <c r="L57" s="111"/>
+      <c r="M57" s="111"/>
       <c r="N57" s="222"/>
       <c r="O57" s="21"/>
       <c r="P57" s="21"/>
       <c r="Q57" s="21"/>
       <c r="R57" s="21"/>
       <c r="S57" s="45"/>
-      <c r="X57" s="217" t="s">
+      <c r="X57" s="112" t="s">
         <v>84</v>
       </c>
-      <c r="Y57" s="218"/>
-      <c r="Z57" s="218"/>
-      <c r="AA57" s="218"/>
-      <c r="AB57" s="109"/>
-      <c r="AC57" s="109"/>
-      <c r="AD57" s="109"/>
-      <c r="AE57" s="109"/>
-      <c r="AF57" s="109"/>
-      <c r="AG57" s="109"/>
-      <c r="AH57" s="109"/>
-      <c r="AI57" s="109"/>
-      <c r="AJ57" s="109"/>
-      <c r="AK57" s="110"/>
+      <c r="Y57" s="113"/>
+      <c r="Z57" s="113"/>
+      <c r="AA57" s="113"/>
+      <c r="AB57" s="114"/>
+      <c r="AC57" s="114"/>
+      <c r="AD57" s="114"/>
+      <c r="AE57" s="114"/>
+      <c r="AF57" s="114"/>
+      <c r="AG57" s="114"/>
+      <c r="AH57" s="114"/>
+      <c r="AI57" s="114"/>
+      <c r="AJ57" s="114"/>
+      <c r="AK57" s="115"/>
     </row>
     <row r="58" spans="1:37" ht="14.4" x14ac:dyDescent="0.2">
-      <c r="A58" s="219"/>
-      <c r="B58" s="219"/>
-      <c r="C58" s="219"/>
-      <c r="D58" s="219"/>
-      <c r="E58" s="219"/>
-      <c r="F58" s="219"/>
-      <c r="G58" s="219"/>
-      <c r="H58" s="219"/>
-      <c r="I58" s="219"/>
-      <c r="J58" s="219"/>
-      <c r="K58" s="219"/>
-      <c r="L58" s="219"/>
-      <c r="M58" s="219"/>
-      <c r="N58" s="219"/>
+      <c r="A58" s="116"/>
+      <c r="B58" s="116"/>
+      <c r="C58" s="116"/>
+      <c r="D58" s="116"/>
+      <c r="E58" s="116"/>
+      <c r="F58" s="116"/>
+      <c r="G58" s="116"/>
+      <c r="H58" s="116"/>
+      <c r="I58" s="116"/>
+      <c r="J58" s="116"/>
+      <c r="K58" s="116"/>
+      <c r="L58" s="116"/>
+      <c r="M58" s="116"/>
+      <c r="N58" s="116"/>
       <c r="U58" s="19"/>
       <c r="V58" s="19"/>
       <c r="W58" s="19"/>
@@ -9655,79 +9655,28 @@
     </row>
   </sheetData>
   <mergeCells count="118">
-    <mergeCell ref="A57:D57"/>
-    <mergeCell ref="H57:N57"/>
-    <mergeCell ref="X57:AA57"/>
-    <mergeCell ref="AB57:AK57"/>
-    <mergeCell ref="A58:N58"/>
-    <mergeCell ref="E54:I54"/>
-    <mergeCell ref="E55:I55"/>
-    <mergeCell ref="A56:D56"/>
-    <mergeCell ref="H56:N56"/>
-    <mergeCell ref="X56:AA56"/>
-    <mergeCell ref="AB56:AK56"/>
-    <mergeCell ref="U49:U50"/>
-    <mergeCell ref="V49:V50"/>
-    <mergeCell ref="E50:I50"/>
-    <mergeCell ref="E51:I51"/>
-    <mergeCell ref="E52:I52"/>
-    <mergeCell ref="E53:I53"/>
-    <mergeCell ref="E44:I44"/>
-    <mergeCell ref="E45:I45"/>
-    <mergeCell ref="E46:I46"/>
-    <mergeCell ref="E47:I47"/>
-    <mergeCell ref="E48:I48"/>
-    <mergeCell ref="E49:I49"/>
-    <mergeCell ref="O39:S39"/>
-    <mergeCell ref="U39:V40"/>
-    <mergeCell ref="E41:I41"/>
-    <mergeCell ref="E42:I42"/>
-    <mergeCell ref="U42:U43"/>
-    <mergeCell ref="V42:V43"/>
-    <mergeCell ref="E43:I43"/>
-    <mergeCell ref="A36:C36"/>
-    <mergeCell ref="D36:K38"/>
-    <mergeCell ref="L36:N38"/>
-    <mergeCell ref="O36:S36"/>
-    <mergeCell ref="A37:C37"/>
-    <mergeCell ref="A39:A40"/>
-    <mergeCell ref="B39:D40"/>
-    <mergeCell ref="E39:I40"/>
-    <mergeCell ref="J39:J40"/>
-    <mergeCell ref="K39:N39"/>
-    <mergeCell ref="E30:I30"/>
-    <mergeCell ref="E31:I31"/>
-    <mergeCell ref="A32:D32"/>
-    <mergeCell ref="H32:N32"/>
-    <mergeCell ref="A33:D33"/>
-    <mergeCell ref="H33:N33"/>
-    <mergeCell ref="U25:U26"/>
-    <mergeCell ref="V25:V26"/>
-    <mergeCell ref="E26:I26"/>
-    <mergeCell ref="E27:I27"/>
-    <mergeCell ref="E28:I28"/>
-    <mergeCell ref="E29:I29"/>
-    <mergeCell ref="E20:I20"/>
-    <mergeCell ref="E21:I21"/>
-    <mergeCell ref="E22:I22"/>
-    <mergeCell ref="E23:I23"/>
-    <mergeCell ref="E24:I24"/>
-    <mergeCell ref="E25:I25"/>
-    <mergeCell ref="U15:V16"/>
-    <mergeCell ref="E17:I17"/>
-    <mergeCell ref="E18:I18"/>
-    <mergeCell ref="U18:U19"/>
-    <mergeCell ref="V18:V19"/>
-    <mergeCell ref="E19:I19"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="B15:D16"/>
-    <mergeCell ref="E15:I16"/>
-    <mergeCell ref="J15:J16"/>
-    <mergeCell ref="K15:N15"/>
-    <mergeCell ref="O15:S15"/>
-    <mergeCell ref="X14:Y14"/>
-    <mergeCell ref="Z14:AA14"/>
-    <mergeCell ref="AC14:AD14"/>
+    <mergeCell ref="AF3:AH3"/>
+    <mergeCell ref="AI3:AK3"/>
+    <mergeCell ref="U4:W4"/>
+    <mergeCell ref="X4:AE4"/>
+    <mergeCell ref="AF4:AH4"/>
+    <mergeCell ref="AI4:AK4"/>
+    <mergeCell ref="S1:U1"/>
+    <mergeCell ref="J2:AE2"/>
+    <mergeCell ref="A3:C4"/>
+    <mergeCell ref="D3:T4"/>
+    <mergeCell ref="U3:W3"/>
+    <mergeCell ref="X3:AE3"/>
+    <mergeCell ref="A5:C5"/>
+    <mergeCell ref="R5:T5"/>
+    <mergeCell ref="U5:X5"/>
+    <mergeCell ref="AD5:AG5"/>
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="D6:F6"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="O6:Q6"/>
+    <mergeCell ref="U6:AC6"/>
+    <mergeCell ref="AD6:AK6"/>
     <mergeCell ref="AE14:AF14"/>
     <mergeCell ref="AH14:AI14"/>
     <mergeCell ref="AJ14:AK14"/>
@@ -9751,28 +9700,79 @@
     <mergeCell ref="AD8:AK8"/>
     <mergeCell ref="J9:K9"/>
     <mergeCell ref="U9:X9"/>
-    <mergeCell ref="A5:C5"/>
-    <mergeCell ref="R5:T5"/>
-    <mergeCell ref="U5:X5"/>
-    <mergeCell ref="AD5:AG5"/>
-    <mergeCell ref="A6:C6"/>
-    <mergeCell ref="D6:F6"/>
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="O6:Q6"/>
-    <mergeCell ref="U6:AC6"/>
-    <mergeCell ref="AD6:AK6"/>
-    <mergeCell ref="AF3:AH3"/>
-    <mergeCell ref="AI3:AK3"/>
-    <mergeCell ref="U4:W4"/>
-    <mergeCell ref="X4:AE4"/>
-    <mergeCell ref="AF4:AH4"/>
-    <mergeCell ref="AI4:AK4"/>
-    <mergeCell ref="S1:U1"/>
-    <mergeCell ref="J2:AE2"/>
-    <mergeCell ref="A3:C4"/>
-    <mergeCell ref="D3:T4"/>
-    <mergeCell ref="U3:W3"/>
-    <mergeCell ref="X3:AE3"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="B15:D16"/>
+    <mergeCell ref="E15:I16"/>
+    <mergeCell ref="J15:J16"/>
+    <mergeCell ref="K15:N15"/>
+    <mergeCell ref="O15:S15"/>
+    <mergeCell ref="X14:Y14"/>
+    <mergeCell ref="Z14:AA14"/>
+    <mergeCell ref="AC14:AD14"/>
+    <mergeCell ref="E20:I20"/>
+    <mergeCell ref="E21:I21"/>
+    <mergeCell ref="E22:I22"/>
+    <mergeCell ref="E23:I23"/>
+    <mergeCell ref="E24:I24"/>
+    <mergeCell ref="E25:I25"/>
+    <mergeCell ref="U15:V16"/>
+    <mergeCell ref="E17:I17"/>
+    <mergeCell ref="E18:I18"/>
+    <mergeCell ref="U18:U19"/>
+    <mergeCell ref="V18:V19"/>
+    <mergeCell ref="E19:I19"/>
+    <mergeCell ref="E30:I30"/>
+    <mergeCell ref="E31:I31"/>
+    <mergeCell ref="A32:D32"/>
+    <mergeCell ref="H32:N32"/>
+    <mergeCell ref="A33:D33"/>
+    <mergeCell ref="H33:N33"/>
+    <mergeCell ref="U25:U26"/>
+    <mergeCell ref="V25:V26"/>
+    <mergeCell ref="E26:I26"/>
+    <mergeCell ref="E27:I27"/>
+    <mergeCell ref="E28:I28"/>
+    <mergeCell ref="E29:I29"/>
+    <mergeCell ref="O39:S39"/>
+    <mergeCell ref="U39:V40"/>
+    <mergeCell ref="E41:I41"/>
+    <mergeCell ref="E42:I42"/>
+    <mergeCell ref="U42:U43"/>
+    <mergeCell ref="V42:V43"/>
+    <mergeCell ref="E43:I43"/>
+    <mergeCell ref="A36:C36"/>
+    <mergeCell ref="D36:K38"/>
+    <mergeCell ref="L36:N38"/>
+    <mergeCell ref="O36:S36"/>
+    <mergeCell ref="A37:C37"/>
+    <mergeCell ref="A39:A40"/>
+    <mergeCell ref="B39:D40"/>
+    <mergeCell ref="E39:I40"/>
+    <mergeCell ref="J39:J40"/>
+    <mergeCell ref="K39:N39"/>
+    <mergeCell ref="U49:U50"/>
+    <mergeCell ref="V49:V50"/>
+    <mergeCell ref="E50:I50"/>
+    <mergeCell ref="E51:I51"/>
+    <mergeCell ref="E52:I52"/>
+    <mergeCell ref="E53:I53"/>
+    <mergeCell ref="E44:I44"/>
+    <mergeCell ref="E45:I45"/>
+    <mergeCell ref="E46:I46"/>
+    <mergeCell ref="E47:I47"/>
+    <mergeCell ref="E48:I48"/>
+    <mergeCell ref="E49:I49"/>
+    <mergeCell ref="A57:D57"/>
+    <mergeCell ref="H57:N57"/>
+    <mergeCell ref="X57:AA57"/>
+    <mergeCell ref="AB57:AK57"/>
+    <mergeCell ref="A58:N58"/>
+    <mergeCell ref="E54:I54"/>
+    <mergeCell ref="E55:I55"/>
+    <mergeCell ref="A56:D56"/>
+    <mergeCell ref="H56:N56"/>
+    <mergeCell ref="X56:AA56"/>
+    <mergeCell ref="AB56:AK56"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
@@ -9788,7 +9788,7 @@
   <sheetPr codeName="Sheet14"/>
   <dimension ref="A1:AM60"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScale="60" zoomScaleNormal="50" workbookViewId="0"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="60" zoomScaleNormal="50" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.109375" defaultRowHeight="24" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
@@ -9806,11 +9806,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:37" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="S1" s="111" t="s">
+      <c r="S1" s="215" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="111"/>
-      <c r="U1" s="111"/>
+      <c r="T1" s="215"/>
+      <c r="U1" s="215"/>
     </row>
     <row r="2" spans="1:37" s="24" customFormat="1" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B2" s="2"/>
@@ -9821,30 +9821,30 @@
       <c r="G2" s="2"/>
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
-      <c r="J2" s="112" t="s">
+      <c r="J2" s="216" t="s">
         <v>52</v>
       </c>
-      <c r="K2" s="112"/>
-      <c r="L2" s="112"/>
-      <c r="M2" s="112"/>
-      <c r="N2" s="112"/>
-      <c r="O2" s="112"/>
-      <c r="P2" s="112"/>
-      <c r="Q2" s="112"/>
-      <c r="R2" s="112"/>
-      <c r="S2" s="112"/>
-      <c r="T2" s="112"/>
-      <c r="U2" s="112"/>
-      <c r="V2" s="112"/>
-      <c r="W2" s="112"/>
-      <c r="X2" s="112"/>
-      <c r="Y2" s="112"/>
-      <c r="Z2" s="112"/>
-      <c r="AA2" s="112"/>
-      <c r="AB2" s="112"/>
-      <c r="AC2" s="112"/>
-      <c r="AD2" s="112"/>
-      <c r="AE2" s="112"/>
+      <c r="K2" s="216"/>
+      <c r="L2" s="216"/>
+      <c r="M2" s="216"/>
+      <c r="N2" s="216"/>
+      <c r="O2" s="216"/>
+      <c r="P2" s="216"/>
+      <c r="Q2" s="216"/>
+      <c r="R2" s="216"/>
+      <c r="S2" s="216"/>
+      <c r="T2" s="216"/>
+      <c r="U2" s="216"/>
+      <c r="V2" s="216"/>
+      <c r="W2" s="216"/>
+      <c r="X2" s="216"/>
+      <c r="Y2" s="216"/>
+      <c r="Z2" s="216"/>
+      <c r="AA2" s="216"/>
+      <c r="AB2" s="216"/>
+      <c r="AC2" s="216"/>
+      <c r="AD2" s="216"/>
+      <c r="AE2" s="216"/>
       <c r="AF2" s="1"/>
       <c r="AG2" s="1"/>
       <c r="AH2" s="1"/>
@@ -9853,103 +9853,103 @@
       <c r="AK2" s="1"/>
     </row>
     <row r="3" spans="1:37" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="113" t="s">
+      <c r="A3" s="203" t="s">
         <v>53</v>
       </c>
-      <c r="B3" s="114"/>
-      <c r="C3" s="114"/>
-      <c r="D3" s="117"/>
-      <c r="E3" s="114"/>
-      <c r="F3" s="114"/>
-      <c r="G3" s="114"/>
-      <c r="H3" s="114"/>
-      <c r="I3" s="114"/>
-      <c r="J3" s="114"/>
-      <c r="K3" s="114"/>
-      <c r="L3" s="114"/>
-      <c r="M3" s="114"/>
-      <c r="N3" s="114"/>
-      <c r="O3" s="114"/>
-      <c r="P3" s="114"/>
-      <c r="Q3" s="114"/>
-      <c r="R3" s="114"/>
-      <c r="S3" s="114"/>
-      <c r="T3" s="118"/>
-      <c r="U3" s="107" t="s">
+      <c r="B3" s="204"/>
+      <c r="C3" s="204"/>
+      <c r="D3" s="123"/>
+      <c r="E3" s="204"/>
+      <c r="F3" s="204"/>
+      <c r="G3" s="204"/>
+      <c r="H3" s="204"/>
+      <c r="I3" s="204"/>
+      <c r="J3" s="204"/>
+      <c r="K3" s="204"/>
+      <c r="L3" s="204"/>
+      <c r="M3" s="204"/>
+      <c r="N3" s="204"/>
+      <c r="O3" s="204"/>
+      <c r="P3" s="204"/>
+      <c r="Q3" s="204"/>
+      <c r="R3" s="204"/>
+      <c r="S3" s="204"/>
+      <c r="T3" s="219"/>
+      <c r="U3" s="126" t="s">
         <v>54</v>
       </c>
-      <c r="V3" s="107"/>
-      <c r="W3" s="107"/>
-      <c r="X3" s="107" t="s">
+      <c r="V3" s="126"/>
+      <c r="W3" s="126"/>
+      <c r="X3" s="126" t="s">
         <v>58</v>
       </c>
-      <c r="Y3" s="107"/>
-      <c r="Z3" s="107"/>
-      <c r="AA3" s="107"/>
-      <c r="AB3" s="107"/>
-      <c r="AC3" s="107"/>
-      <c r="AD3" s="107"/>
-      <c r="AE3" s="107"/>
-      <c r="AF3" s="107" t="s">
+      <c r="Y3" s="126"/>
+      <c r="Z3" s="126"/>
+      <c r="AA3" s="126"/>
+      <c r="AB3" s="126"/>
+      <c r="AC3" s="126"/>
+      <c r="AD3" s="126"/>
+      <c r="AE3" s="126"/>
+      <c r="AF3" s="126" t="s">
         <v>56</v>
       </c>
-      <c r="AG3" s="107"/>
-      <c r="AH3" s="107"/>
-      <c r="AI3" s="107" t="s">
+      <c r="AG3" s="126"/>
+      <c r="AH3" s="126"/>
+      <c r="AI3" s="126" t="s">
         <v>86</v>
       </c>
-      <c r="AJ3" s="107"/>
-      <c r="AK3" s="108"/>
+      <c r="AJ3" s="126"/>
+      <c r="AK3" s="127"/>
     </row>
     <row r="4" spans="1:37" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="115"/>
-      <c r="B4" s="116"/>
-      <c r="C4" s="116"/>
-      <c r="D4" s="119"/>
-      <c r="E4" s="116"/>
-      <c r="F4" s="116"/>
-      <c r="G4" s="116"/>
-      <c r="H4" s="116"/>
-      <c r="I4" s="116"/>
-      <c r="J4" s="116"/>
-      <c r="K4" s="116"/>
-      <c r="L4" s="116"/>
-      <c r="M4" s="116"/>
-      <c r="N4" s="116"/>
-      <c r="O4" s="116"/>
-      <c r="P4" s="116"/>
-      <c r="Q4" s="116"/>
-      <c r="R4" s="116"/>
-      <c r="S4" s="116"/>
-      <c r="T4" s="120"/>
-      <c r="U4" s="109" t="s">
+      <c r="A4" s="217"/>
+      <c r="B4" s="218"/>
+      <c r="C4" s="218"/>
+      <c r="D4" s="220"/>
+      <c r="E4" s="218"/>
+      <c r="F4" s="218"/>
+      <c r="G4" s="218"/>
+      <c r="H4" s="218"/>
+      <c r="I4" s="218"/>
+      <c r="J4" s="218"/>
+      <c r="K4" s="218"/>
+      <c r="L4" s="218"/>
+      <c r="M4" s="218"/>
+      <c r="N4" s="218"/>
+      <c r="O4" s="218"/>
+      <c r="P4" s="218"/>
+      <c r="Q4" s="218"/>
+      <c r="R4" s="218"/>
+      <c r="S4" s="218"/>
+      <c r="T4" s="221"/>
+      <c r="U4" s="114" t="s">
         <v>55</v>
       </c>
-      <c r="V4" s="109"/>
-      <c r="W4" s="109"/>
-      <c r="X4" s="109"/>
-      <c r="Y4" s="109"/>
-      <c r="Z4" s="109"/>
-      <c r="AA4" s="109"/>
-      <c r="AB4" s="109"/>
-      <c r="AC4" s="109"/>
-      <c r="AD4" s="109"/>
-      <c r="AE4" s="109"/>
-      <c r="AF4" s="109" t="s">
+      <c r="V4" s="114"/>
+      <c r="W4" s="114"/>
+      <c r="X4" s="114"/>
+      <c r="Y4" s="114"/>
+      <c r="Z4" s="114"/>
+      <c r="AA4" s="114"/>
+      <c r="AB4" s="114"/>
+      <c r="AC4" s="114"/>
+      <c r="AD4" s="114"/>
+      <c r="AE4" s="114"/>
+      <c r="AF4" s="114" t="s">
         <v>57</v>
       </c>
-      <c r="AG4" s="109"/>
-      <c r="AH4" s="109"/>
-      <c r="AI4" s="109"/>
-      <c r="AJ4" s="109"/>
-      <c r="AK4" s="110"/>
+      <c r="AG4" s="114"/>
+      <c r="AH4" s="114"/>
+      <c r="AI4" s="114"/>
+      <c r="AJ4" s="114"/>
+      <c r="AK4" s="115"/>
     </row>
     <row r="5" spans="1:37" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="113" t="s">
+      <c r="A5" s="203" t="s">
         <v>62</v>
       </c>
-      <c r="B5" s="114"/>
-      <c r="C5" s="114"/>
+      <c r="B5" s="204"/>
+      <c r="C5" s="204"/>
       <c r="D5" s="86"/>
       <c r="E5" s="86"/>
       <c r="F5" s="86"/>
@@ -9964,116 +9964,116 @@
       <c r="O5" s="26"/>
       <c r="P5" s="26"/>
       <c r="Q5" s="26"/>
-      <c r="R5" s="121"/>
-      <c r="S5" s="122"/>
-      <c r="T5" s="123"/>
-      <c r="U5" s="124" t="s">
+      <c r="R5" s="205"/>
+      <c r="S5" s="206"/>
+      <c r="T5" s="207"/>
+      <c r="U5" s="208" t="s">
         <v>64</v>
       </c>
-      <c r="V5" s="125"/>
-      <c r="W5" s="125"/>
-      <c r="X5" s="125"/>
+      <c r="V5" s="209"/>
+      <c r="W5" s="209"/>
+      <c r="X5" s="209"/>
       <c r="Y5" s="27"/>
       <c r="Z5" s="27"/>
       <c r="AA5" s="27"/>
       <c r="AB5" s="27"/>
       <c r="AC5" s="28"/>
-      <c r="AD5" s="126" t="s">
+      <c r="AD5" s="210" t="s">
         <v>65</v>
       </c>
-      <c r="AE5" s="125"/>
-      <c r="AF5" s="125"/>
-      <c r="AG5" s="125"/>
+      <c r="AE5" s="209"/>
+      <c r="AF5" s="209"/>
+      <c r="AG5" s="209"/>
       <c r="AH5" s="27"/>
       <c r="AI5" s="27"/>
       <c r="AJ5" s="27"/>
       <c r="AK5" s="29"/>
     </row>
     <row r="6" spans="1:37" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="127" t="s">
+      <c r="A6" s="211" t="s">
         <v>63</v>
       </c>
-      <c r="B6" s="128"/>
-      <c r="C6" s="128"/>
-      <c r="D6" s="129" t="s">
+      <c r="B6" s="191"/>
+      <c r="C6" s="191"/>
+      <c r="D6" s="194" t="s">
         <v>60</v>
       </c>
-      <c r="E6" s="129"/>
-      <c r="F6" s="129"/>
+      <c r="E6" s="194"/>
+      <c r="F6" s="194"/>
       <c r="G6" s="19"/>
       <c r="H6" s="19"/>
       <c r="I6" s="19"/>
-      <c r="J6" s="128" t="s">
+      <c r="J6" s="191" t="s">
         <v>59</v>
       </c>
-      <c r="K6" s="128"/>
+      <c r="K6" s="191"/>
       <c r="L6" s="31"/>
       <c r="M6" s="19"/>
       <c r="N6" s="19"/>
-      <c r="O6" s="129" t="s">
+      <c r="O6" s="194" t="s">
         <v>61</v>
       </c>
-      <c r="P6" s="129"/>
-      <c r="Q6" s="129"/>
+      <c r="P6" s="194"/>
+      <c r="Q6" s="194"/>
       <c r="R6" s="31"/>
       <c r="S6" s="32"/>
       <c r="T6" s="33"/>
-      <c r="U6" s="130"/>
-      <c r="V6" s="131"/>
-      <c r="W6" s="131"/>
-      <c r="X6" s="131"/>
-      <c r="Y6" s="131"/>
-      <c r="Z6" s="131"/>
-      <c r="AA6" s="131"/>
-      <c r="AB6" s="131"/>
-      <c r="AC6" s="132"/>
-      <c r="AD6" s="133"/>
-      <c r="AE6" s="134"/>
-      <c r="AF6" s="134"/>
-      <c r="AG6" s="134"/>
-      <c r="AH6" s="134"/>
-      <c r="AI6" s="134"/>
-      <c r="AJ6" s="134"/>
-      <c r="AK6" s="135"/>
+      <c r="U6" s="212"/>
+      <c r="V6" s="213"/>
+      <c r="W6" s="213"/>
+      <c r="X6" s="213"/>
+      <c r="Y6" s="213"/>
+      <c r="Z6" s="213"/>
+      <c r="AA6" s="213"/>
+      <c r="AB6" s="213"/>
+      <c r="AC6" s="214"/>
+      <c r="AD6" s="201"/>
+      <c r="AE6" s="200"/>
+      <c r="AF6" s="200"/>
+      <c r="AG6" s="200"/>
+      <c r="AH6" s="200"/>
+      <c r="AI6" s="200"/>
+      <c r="AJ6" s="200"/>
+      <c r="AK6" s="202"/>
     </row>
     <row r="7" spans="1:37" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="30"/>
-      <c r="D7" s="170"/>
-      <c r="E7" s="171"/>
-      <c r="F7" s="172"/>
+      <c r="D7" s="187"/>
+      <c r="E7" s="188"/>
+      <c r="F7" s="189"/>
       <c r="G7" s="19"/>
       <c r="H7" s="19"/>
       <c r="I7" s="19"/>
-      <c r="J7" s="128" t="s">
+      <c r="J7" s="191" t="s">
         <v>59</v>
       </c>
-      <c r="K7" s="128"/>
+      <c r="K7" s="191"/>
       <c r="L7" s="31"/>
       <c r="M7" s="19"/>
       <c r="N7" s="19"/>
-      <c r="O7" s="170"/>
-      <c r="P7" s="171"/>
-      <c r="Q7" s="172"/>
+      <c r="O7" s="187"/>
+      <c r="P7" s="188"/>
+      <c r="Q7" s="189"/>
       <c r="R7" s="31"/>
       <c r="S7" s="34"/>
       <c r="T7" s="35"/>
-      <c r="U7" s="177" t="s">
+      <c r="U7" s="196" t="s">
         <v>4</v>
       </c>
-      <c r="V7" s="178"/>
-      <c r="W7" s="178"/>
-      <c r="X7" s="178"/>
+      <c r="V7" s="197"/>
+      <c r="W7" s="197"/>
+      <c r="X7" s="197"/>
       <c r="Y7" s="36"/>
       <c r="Z7" s="36"/>
       <c r="AA7" s="36"/>
       <c r="AB7" s="36"/>
       <c r="AC7" s="37"/>
-      <c r="AD7" s="179" t="s">
+      <c r="AD7" s="198" t="s">
         <v>19</v>
       </c>
-      <c r="AE7" s="178"/>
-      <c r="AF7" s="178"/>
-      <c r="AG7" s="178"/>
+      <c r="AE7" s="197"/>
+      <c r="AF7" s="197"/>
+      <c r="AG7" s="197"/>
       <c r="AH7" s="36"/>
       <c r="AI7" s="36"/>
       <c r="AJ7" s="36"/>
@@ -10082,79 +10082,79 @@
     <row r="8" spans="1:37" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="30"/>
       <c r="B8" s="31"/>
-      <c r="D8" s="173"/>
-      <c r="E8" s="128"/>
-      <c r="F8" s="174"/>
-      <c r="J8" s="128" t="s">
+      <c r="D8" s="190"/>
+      <c r="E8" s="191"/>
+      <c r="F8" s="192"/>
+      <c r="J8" s="191" t="s">
         <v>59</v>
       </c>
-      <c r="K8" s="128"/>
+      <c r="K8" s="191"/>
       <c r="L8" s="31"/>
       <c r="M8" s="19"/>
       <c r="N8" s="19"/>
-      <c r="O8" s="173"/>
-      <c r="P8" s="128"/>
-      <c r="Q8" s="174"/>
+      <c r="O8" s="190"/>
+      <c r="P8" s="191"/>
+      <c r="Q8" s="192"/>
       <c r="R8" s="31"/>
       <c r="S8" s="34"/>
       <c r="T8" s="35"/>
-      <c r="U8" s="180"/>
-      <c r="V8" s="134"/>
-      <c r="W8" s="134"/>
-      <c r="X8" s="134"/>
-      <c r="Y8" s="134"/>
-      <c r="Z8" s="134"/>
-      <c r="AA8" s="134"/>
-      <c r="AB8" s="134"/>
+      <c r="U8" s="199"/>
+      <c r="V8" s="200"/>
+      <c r="W8" s="200"/>
+      <c r="X8" s="200"/>
+      <c r="Y8" s="200"/>
+      <c r="Z8" s="200"/>
+      <c r="AA8" s="200"/>
+      <c r="AB8" s="200"/>
       <c r="AC8" s="39"/>
-      <c r="AD8" s="133"/>
-      <c r="AE8" s="134"/>
-      <c r="AF8" s="134"/>
-      <c r="AG8" s="134"/>
-      <c r="AH8" s="134"/>
-      <c r="AI8" s="134"/>
-      <c r="AJ8" s="134"/>
-      <c r="AK8" s="135"/>
+      <c r="AD8" s="201"/>
+      <c r="AE8" s="200"/>
+      <c r="AF8" s="200"/>
+      <c r="AG8" s="200"/>
+      <c r="AH8" s="200"/>
+      <c r="AI8" s="200"/>
+      <c r="AJ8" s="200"/>
+      <c r="AK8" s="202"/>
     </row>
     <row r="9" spans="1:37" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="30"/>
       <c r="B9" s="31"/>
-      <c r="D9" s="175"/>
-      <c r="E9" s="129"/>
-      <c r="F9" s="176"/>
-      <c r="J9" s="128" t="s">
+      <c r="D9" s="193"/>
+      <c r="E9" s="194"/>
+      <c r="F9" s="195"/>
+      <c r="J9" s="191" t="s">
         <v>59</v>
       </c>
-      <c r="K9" s="128"/>
+      <c r="K9" s="191"/>
       <c r="L9" s="31"/>
       <c r="M9" s="19"/>
       <c r="N9" s="19"/>
-      <c r="O9" s="175"/>
-      <c r="P9" s="129"/>
-      <c r="Q9" s="176"/>
+      <c r="O9" s="193"/>
+      <c r="P9" s="194"/>
+      <c r="Q9" s="195"/>
       <c r="R9" s="31"/>
       <c r="S9" s="31"/>
       <c r="T9" s="40"/>
-      <c r="U9" s="177" t="s">
+      <c r="U9" s="196" t="s">
         <v>2</v>
       </c>
-      <c r="V9" s="178"/>
-      <c r="W9" s="178"/>
-      <c r="X9" s="178"/>
+      <c r="V9" s="197"/>
+      <c r="W9" s="197"/>
+      <c r="X9" s="197"/>
       <c r="Y9" s="36"/>
       <c r="Z9" s="36"/>
       <c r="AA9" s="36"/>
       <c r="AB9" s="36"/>
       <c r="AC9" s="37"/>
-      <c r="AD9" s="141" t="s">
+      <c r="AD9" s="174" t="s">
         <v>66</v>
       </c>
-      <c r="AE9" s="142"/>
-      <c r="AF9" s="142"/>
-      <c r="AG9" s="142"/>
-      <c r="AH9" s="142"/>
-      <c r="AI9" s="142"/>
-      <c r="AJ9" s="142"/>
+      <c r="AE9" s="175"/>
+      <c r="AF9" s="175"/>
+      <c r="AG9" s="175"/>
+      <c r="AH9" s="175"/>
+      <c r="AI9" s="175"/>
+      <c r="AJ9" s="175"/>
       <c r="AK9" s="38"/>
     </row>
     <row r="10" spans="1:37" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -10167,10 +10167,10 @@
       <c r="G10" s="22"/>
       <c r="H10" s="22"/>
       <c r="I10" s="22"/>
-      <c r="J10" s="143" t="s">
+      <c r="J10" s="176" t="s">
         <v>85</v>
       </c>
-      <c r="K10" s="143"/>
+      <c r="K10" s="176"/>
       <c r="L10" s="59"/>
       <c r="M10" s="22"/>
       <c r="N10" s="22"/>
@@ -10180,85 +10180,85 @@
       <c r="R10" s="22"/>
       <c r="S10" s="22"/>
       <c r="T10" s="42"/>
-      <c r="U10" s="144"/>
-      <c r="V10" s="145"/>
-      <c r="W10" s="145"/>
-      <c r="X10" s="145"/>
-      <c r="Y10" s="145"/>
-      <c r="Z10" s="145"/>
-      <c r="AA10" s="145"/>
-      <c r="AB10" s="145"/>
+      <c r="U10" s="177"/>
+      <c r="V10" s="178"/>
+      <c r="W10" s="178"/>
+      <c r="X10" s="178"/>
+      <c r="Y10" s="178"/>
+      <c r="Z10" s="178"/>
+      <c r="AA10" s="178"/>
+      <c r="AB10" s="178"/>
       <c r="AC10" s="43"/>
-      <c r="AD10" s="146"/>
-      <c r="AE10" s="145"/>
-      <c r="AF10" s="145"/>
-      <c r="AG10" s="145"/>
-      <c r="AH10" s="145"/>
-      <c r="AI10" s="145"/>
-      <c r="AJ10" s="145"/>
-      <c r="AK10" s="147"/>
+      <c r="AD10" s="179"/>
+      <c r="AE10" s="178"/>
+      <c r="AF10" s="178"/>
+      <c r="AG10" s="178"/>
+      <c r="AH10" s="178"/>
+      <c r="AI10" s="178"/>
+      <c r="AJ10" s="178"/>
+      <c r="AK10" s="180"/>
     </row>
     <row r="11" spans="1:37" ht="9.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="12" spans="1:37" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="148" t="s">
+      <c r="A12" s="132" t="s">
         <v>73</v>
       </c>
-      <c r="B12" s="149"/>
-      <c r="C12" s="149"/>
-      <c r="D12" s="150"/>
-      <c r="E12" s="150"/>
-      <c r="F12" s="150"/>
-      <c r="G12" s="150"/>
-      <c r="H12" s="150"/>
-      <c r="I12" s="150"/>
-      <c r="J12" s="150"/>
-      <c r="K12" s="150"/>
-      <c r="L12" s="153" t="s">
+      <c r="B12" s="139"/>
+      <c r="C12" s="139"/>
+      <c r="D12" s="140"/>
+      <c r="E12" s="140"/>
+      <c r="F12" s="140"/>
+      <c r="G12" s="140"/>
+      <c r="H12" s="140"/>
+      <c r="I12" s="140"/>
+      <c r="J12" s="140"/>
+      <c r="K12" s="140"/>
+      <c r="L12" s="143" t="s">
         <v>72</v>
       </c>
-      <c r="M12" s="153"/>
-      <c r="N12" s="154"/>
-      <c r="O12" s="159" t="s">
+      <c r="M12" s="143"/>
+      <c r="N12" s="144"/>
+      <c r="O12" s="149" t="s">
         <v>20</v>
       </c>
-      <c r="P12" s="160"/>
-      <c r="Q12" s="160"/>
-      <c r="R12" s="160"/>
-      <c r="S12" s="161"/>
-      <c r="X12" s="225" t="s">
+      <c r="P12" s="150"/>
+      <c r="Q12" s="150"/>
+      <c r="R12" s="150"/>
+      <c r="S12" s="151"/>
+      <c r="X12" s="226" t="s">
         <v>71</v>
       </c>
-      <c r="Y12" s="226"/>
-      <c r="Z12" s="226"/>
-      <c r="AA12" s="226"/>
-      <c r="AB12" s="226"/>
-      <c r="AC12" s="226"/>
-      <c r="AD12" s="226"/>
-      <c r="AE12" s="226"/>
-      <c r="AF12" s="226"/>
-      <c r="AG12" s="226"/>
-      <c r="AH12" s="226"/>
-      <c r="AI12" s="226"/>
-      <c r="AJ12" s="226"/>
-      <c r="AK12" s="227"/>
+      <c r="Y12" s="227"/>
+      <c r="Z12" s="227"/>
+      <c r="AA12" s="227"/>
+      <c r="AB12" s="227"/>
+      <c r="AC12" s="227"/>
+      <c r="AD12" s="227"/>
+      <c r="AE12" s="227"/>
+      <c r="AF12" s="227"/>
+      <c r="AG12" s="227"/>
+      <c r="AH12" s="227"/>
+      <c r="AI12" s="227"/>
+      <c r="AJ12" s="227"/>
+      <c r="AK12" s="228"/>
     </row>
     <row r="13" spans="1:37" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="168" t="s">
+      <c r="A13" s="152" t="s">
         <v>74</v>
       </c>
-      <c r="B13" s="169"/>
-      <c r="C13" s="169"/>
-      <c r="D13" s="151"/>
-      <c r="E13" s="151"/>
-      <c r="F13" s="151"/>
-      <c r="G13" s="151"/>
-      <c r="H13" s="151"/>
-      <c r="I13" s="151"/>
-      <c r="J13" s="151"/>
-      <c r="K13" s="151"/>
-      <c r="L13" s="155"/>
-      <c r="M13" s="155"/>
-      <c r="N13" s="156"/>
+      <c r="B13" s="153"/>
+      <c r="C13" s="153"/>
+      <c r="D13" s="141"/>
+      <c r="E13" s="141"/>
+      <c r="F13" s="141"/>
+      <c r="G13" s="141"/>
+      <c r="H13" s="141"/>
+      <c r="I13" s="141"/>
+      <c r="J13" s="141"/>
+      <c r="K13" s="141"/>
+      <c r="L13" s="145"/>
+      <c r="M13" s="145"/>
+      <c r="N13" s="146"/>
       <c r="O13" s="3" t="s">
         <v>67</v>
       </c>
@@ -10274,104 +10274,104 @@
       <c r="S13" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="X13" s="223"/>
-      <c r="Y13" s="228"/>
-      <c r="Z13" s="228"/>
-      <c r="AA13" s="228"/>
-      <c r="AB13" s="228"/>
-      <c r="AC13" s="228"/>
-      <c r="AD13" s="228"/>
-      <c r="AE13" s="228"/>
-      <c r="AF13" s="228"/>
-      <c r="AG13" s="228"/>
-      <c r="AH13" s="228"/>
-      <c r="AI13" s="228"/>
-      <c r="AJ13" s="228"/>
-      <c r="AK13" s="224"/>
+      <c r="X13" s="224"/>
+      <c r="Y13" s="225"/>
+      <c r="Z13" s="225"/>
+      <c r="AA13" s="225"/>
+      <c r="AB13" s="225"/>
+      <c r="AC13" s="225"/>
+      <c r="AD13" s="225"/>
+      <c r="AE13" s="225"/>
+      <c r="AF13" s="225"/>
+      <c r="AG13" s="225"/>
+      <c r="AH13" s="225"/>
+      <c r="AI13" s="225"/>
+      <c r="AJ13" s="225"/>
+      <c r="AK13" s="229"/>
     </row>
     <row r="14" spans="1:37" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" s="100"/>
       <c r="B14" s="101"/>
       <c r="C14" s="101"/>
-      <c r="D14" s="152"/>
-      <c r="E14" s="152"/>
-      <c r="F14" s="152"/>
-      <c r="G14" s="152"/>
-      <c r="H14" s="152"/>
-      <c r="I14" s="152"/>
-      <c r="J14" s="152"/>
-      <c r="K14" s="152"/>
-      <c r="L14" s="157"/>
-      <c r="M14" s="157"/>
-      <c r="N14" s="158"/>
+      <c r="D14" s="142"/>
+      <c r="E14" s="142"/>
+      <c r="F14" s="142"/>
+      <c r="G14" s="142"/>
+      <c r="H14" s="142"/>
+      <c r="I14" s="142"/>
+      <c r="J14" s="142"/>
+      <c r="K14" s="142"/>
+      <c r="L14" s="147"/>
+      <c r="M14" s="147"/>
+      <c r="N14" s="148"/>
       <c r="O14" s="44"/>
       <c r="P14" s="21"/>
       <c r="Q14" s="21"/>
       <c r="R14" s="21"/>
       <c r="S14" s="45"/>
-      <c r="X14" s="115" t="s">
+      <c r="X14" s="217" t="s">
         <v>16</v>
       </c>
-      <c r="Y14" s="229"/>
-      <c r="Z14" s="223" t="s">
+      <c r="Y14" s="223"/>
+      <c r="Z14" s="224" t="s">
         <v>17</v>
       </c>
-      <c r="AA14" s="228"/>
+      <c r="AA14" s="225"/>
       <c r="AB14" s="17"/>
-      <c r="AC14" s="116" t="s">
+      <c r="AC14" s="218" t="s">
         <v>16</v>
       </c>
-      <c r="AD14" s="229"/>
-      <c r="AE14" s="223" t="s">
+      <c r="AD14" s="223"/>
+      <c r="AE14" s="224" t="s">
         <v>17</v>
       </c>
-      <c r="AF14" s="228"/>
+      <c r="AF14" s="225"/>
       <c r="AG14" s="17"/>
-      <c r="AH14" s="116" t="s">
+      <c r="AH14" s="218" t="s">
         <v>16</v>
       </c>
-      <c r="AI14" s="229"/>
-      <c r="AJ14" s="223" t="s">
+      <c r="AI14" s="223"/>
+      <c r="AJ14" s="224" t="s">
         <v>17</v>
       </c>
-      <c r="AK14" s="224"/>
+      <c r="AK14" s="229"/>
     </row>
     <row r="15" spans="1:37" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="181" t="s">
+      <c r="A15" s="154" t="s">
         <v>75</v>
       </c>
-      <c r="B15" s="183" t="s">
+      <c r="B15" s="155" t="s">
         <v>76</v>
       </c>
-      <c r="C15" s="183"/>
-      <c r="D15" s="183"/>
-      <c r="E15" s="185" t="s">
+      <c r="C15" s="155"/>
+      <c r="D15" s="155"/>
+      <c r="E15" s="121" t="s">
         <v>77</v>
       </c>
-      <c r="F15" s="186"/>
-      <c r="G15" s="186"/>
-      <c r="H15" s="186"/>
-      <c r="I15" s="186"/>
-      <c r="J15" s="188" t="s">
+      <c r="F15" s="122"/>
+      <c r="G15" s="122"/>
+      <c r="H15" s="122"/>
+      <c r="I15" s="122"/>
+      <c r="J15" s="158" t="s">
         <v>0</v>
       </c>
-      <c r="K15" s="190" t="s">
+      <c r="K15" s="160" t="s">
         <v>15</v>
       </c>
-      <c r="L15" s="191"/>
-      <c r="M15" s="191"/>
-      <c r="N15" s="192"/>
-      <c r="O15" s="193" t="s">
+      <c r="L15" s="161"/>
+      <c r="M15" s="161"/>
+      <c r="N15" s="162"/>
+      <c r="O15" s="131" t="s">
         <v>5</v>
       </c>
-      <c r="P15" s="107"/>
-      <c r="Q15" s="107"/>
-      <c r="R15" s="107"/>
-      <c r="S15" s="108"/>
-      <c r="U15" s="148" t="s">
+      <c r="P15" s="126"/>
+      <c r="Q15" s="126"/>
+      <c r="R15" s="126"/>
+      <c r="S15" s="127"/>
+      <c r="U15" s="132" t="s">
         <v>6</v>
       </c>
-      <c r="V15" s="198"/>
+      <c r="V15" s="133"/>
       <c r="X15" s="47"/>
       <c r="Y15" s="11">
         <v>1</v>
@@ -10400,16 +10400,16 @@
       <c r="AK15" s="7"/>
     </row>
     <row r="16" spans="1:37" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="182"/>
-      <c r="B16" s="184"/>
-      <c r="C16" s="184"/>
-      <c r="D16" s="184"/>
-      <c r="E16" s="187"/>
-      <c r="F16" s="187"/>
-      <c r="G16" s="187"/>
-      <c r="H16" s="187"/>
-      <c r="I16" s="187"/>
-      <c r="J16" s="189"/>
+      <c r="A16" s="128"/>
+      <c r="B16" s="156"/>
+      <c r="C16" s="156"/>
+      <c r="D16" s="156"/>
+      <c r="E16" s="157"/>
+      <c r="F16" s="157"/>
+      <c r="G16" s="157"/>
+      <c r="H16" s="157"/>
+      <c r="I16" s="157"/>
+      <c r="J16" s="159"/>
       <c r="K16" s="48" t="s">
         <v>7</v>
       </c>
@@ -10437,8 +10437,8 @@
       <c r="S16" s="10">
         <v>5</v>
       </c>
-      <c r="U16" s="199"/>
-      <c r="V16" s="200"/>
+      <c r="U16" s="134"/>
+      <c r="V16" s="135"/>
       <c r="X16" s="49"/>
       <c r="Y16" s="13">
         <v>2</v>
@@ -10473,11 +10473,11 @@
       <c r="B17" s="17"/>
       <c r="C17" s="17"/>
       <c r="D17" s="17"/>
-      <c r="E17" s="201"/>
-      <c r="F17" s="202"/>
-      <c r="G17" s="202"/>
-      <c r="H17" s="202"/>
-      <c r="I17" s="203"/>
+      <c r="E17" s="136"/>
+      <c r="F17" s="137"/>
+      <c r="G17" s="137"/>
+      <c r="H17" s="137"/>
+      <c r="I17" s="138"/>
       <c r="J17" s="60">
         <v>4</v>
       </c>
@@ -10524,11 +10524,11 @@
       <c r="B18" s="20"/>
       <c r="C18" s="20"/>
       <c r="D18" s="20"/>
-      <c r="E18" s="195"/>
-      <c r="F18" s="196"/>
-      <c r="G18" s="196"/>
-      <c r="H18" s="196"/>
-      <c r="I18" s="197"/>
+      <c r="E18" s="117"/>
+      <c r="F18" s="118"/>
+      <c r="G18" s="118"/>
+      <c r="H18" s="118"/>
+      <c r="I18" s="119"/>
       <c r="J18" s="61">
         <v>5</v>
       </c>
@@ -10541,10 +10541,10 @@
       <c r="Q18" s="20"/>
       <c r="R18" s="20"/>
       <c r="S18" s="54"/>
-      <c r="U18" s="204" t="s">
+      <c r="U18" s="120" t="s">
         <v>11</v>
       </c>
-      <c r="V18" s="205" t="s">
+      <c r="V18" s="129" t="s">
         <v>12</v>
       </c>
       <c r="X18" s="49"/>
@@ -10581,11 +10581,11 @@
       <c r="B19" s="20"/>
       <c r="C19" s="20"/>
       <c r="D19" s="20"/>
-      <c r="E19" s="195"/>
-      <c r="F19" s="196"/>
-      <c r="G19" s="196"/>
-      <c r="H19" s="196"/>
-      <c r="I19" s="197"/>
+      <c r="E19" s="117"/>
+      <c r="F19" s="118"/>
+      <c r="G19" s="118"/>
+      <c r="H19" s="118"/>
+      <c r="I19" s="119"/>
       <c r="J19" s="61">
         <v>6</v>
       </c>
@@ -10598,8 +10598,8 @@
       <c r="Q19" s="20"/>
       <c r="R19" s="20"/>
       <c r="S19" s="54"/>
-      <c r="U19" s="182"/>
-      <c r="V19" s="206"/>
+      <c r="U19" s="128"/>
+      <c r="V19" s="130"/>
       <c r="X19" s="49"/>
       <c r="Y19" s="13">
         <v>5</v>
@@ -10634,11 +10634,11 @@
       <c r="B20" s="20"/>
       <c r="C20" s="20"/>
       <c r="D20" s="20"/>
-      <c r="E20" s="195"/>
-      <c r="F20" s="196"/>
-      <c r="G20" s="196"/>
-      <c r="H20" s="196"/>
-      <c r="I20" s="197"/>
+      <c r="E20" s="117"/>
+      <c r="F20" s="118"/>
+      <c r="G20" s="118"/>
+      <c r="H20" s="118"/>
+      <c r="I20" s="119"/>
       <c r="J20" s="61">
         <v>7</v>
       </c>
@@ -10691,11 +10691,11 @@
       <c r="B21" s="20"/>
       <c r="C21" s="20"/>
       <c r="D21" s="20"/>
-      <c r="E21" s="195"/>
-      <c r="F21" s="196"/>
-      <c r="G21" s="196"/>
-      <c r="H21" s="196"/>
-      <c r="I21" s="197"/>
+      <c r="E21" s="117"/>
+      <c r="F21" s="118"/>
+      <c r="G21" s="118"/>
+      <c r="H21" s="118"/>
+      <c r="I21" s="119"/>
       <c r="J21" s="61">
         <v>8</v>
       </c>
@@ -10748,11 +10748,11 @@
       <c r="B22" s="20"/>
       <c r="C22" s="20"/>
       <c r="D22" s="20"/>
-      <c r="E22" s="195"/>
-      <c r="F22" s="196"/>
-      <c r="G22" s="196"/>
-      <c r="H22" s="196"/>
-      <c r="I22" s="197"/>
+      <c r="E22" s="117"/>
+      <c r="F22" s="118"/>
+      <c r="G22" s="118"/>
+      <c r="H22" s="118"/>
+      <c r="I22" s="119"/>
       <c r="J22" s="61">
         <v>9</v>
       </c>
@@ -10805,11 +10805,11 @@
       <c r="B23" s="20"/>
       <c r="C23" s="20"/>
       <c r="D23" s="20"/>
-      <c r="E23" s="195"/>
-      <c r="F23" s="196"/>
-      <c r="G23" s="196"/>
-      <c r="H23" s="196"/>
-      <c r="I23" s="197"/>
+      <c r="E23" s="117"/>
+      <c r="F23" s="118"/>
+      <c r="G23" s="118"/>
+      <c r="H23" s="118"/>
+      <c r="I23" s="119"/>
       <c r="J23" s="61">
         <v>10</v>
       </c>
@@ -10862,11 +10862,11 @@
       <c r="B24" s="20"/>
       <c r="C24" s="20"/>
       <c r="D24" s="20"/>
-      <c r="E24" s="195"/>
-      <c r="F24" s="196"/>
-      <c r="G24" s="196"/>
-      <c r="H24" s="196"/>
-      <c r="I24" s="197"/>
+      <c r="E24" s="117"/>
+      <c r="F24" s="118"/>
+      <c r="G24" s="118"/>
+      <c r="H24" s="118"/>
+      <c r="I24" s="119"/>
       <c r="J24" s="61">
         <v>11</v>
       </c>
@@ -10913,11 +10913,11 @@
       <c r="B25" s="20"/>
       <c r="C25" s="20"/>
       <c r="D25" s="20"/>
-      <c r="E25" s="195"/>
-      <c r="F25" s="196"/>
-      <c r="G25" s="196"/>
-      <c r="H25" s="196"/>
-      <c r="I25" s="197"/>
+      <c r="E25" s="117"/>
+      <c r="F25" s="118"/>
+      <c r="G25" s="118"/>
+      <c r="H25" s="118"/>
+      <c r="I25" s="119"/>
       <c r="J25" s="61">
         <v>12</v>
       </c>
@@ -10930,10 +10930,10 @@
       <c r="Q25" s="20"/>
       <c r="R25" s="20"/>
       <c r="S25" s="54"/>
-      <c r="U25" s="204" t="s">
+      <c r="U25" s="120" t="s">
         <v>13</v>
       </c>
-      <c r="V25" s="205" t="s">
+      <c r="V25" s="129" t="s">
         <v>14</v>
       </c>
       <c r="X25" s="49"/>
@@ -10970,11 +10970,11 @@
       <c r="B26" s="20"/>
       <c r="C26" s="20"/>
       <c r="D26" s="20"/>
-      <c r="E26" s="195"/>
-      <c r="F26" s="196"/>
-      <c r="G26" s="196"/>
-      <c r="H26" s="196"/>
-      <c r="I26" s="197"/>
+      <c r="E26" s="117"/>
+      <c r="F26" s="118"/>
+      <c r="G26" s="118"/>
+      <c r="H26" s="118"/>
+      <c r="I26" s="119"/>
       <c r="J26" s="61">
         <v>13</v>
       </c>
@@ -10987,8 +10987,8 @@
       <c r="Q26" s="20"/>
       <c r="R26" s="20"/>
       <c r="S26" s="54"/>
-      <c r="U26" s="182"/>
-      <c r="V26" s="206"/>
+      <c r="U26" s="128"/>
+      <c r="V26" s="130"/>
       <c r="X26" s="49"/>
       <c r="Y26" s="13">
         <v>12</v>
@@ -11026,11 +11026,11 @@
       <c r="B27" s="20"/>
       <c r="C27" s="20"/>
       <c r="D27" s="20"/>
-      <c r="E27" s="195"/>
-      <c r="F27" s="196"/>
-      <c r="G27" s="196"/>
-      <c r="H27" s="196"/>
-      <c r="I27" s="197"/>
+      <c r="E27" s="117"/>
+      <c r="F27" s="118"/>
+      <c r="G27" s="118"/>
+      <c r="H27" s="118"/>
+      <c r="I27" s="119"/>
       <c r="J27" s="61">
         <v>14</v>
       </c>
@@ -11083,11 +11083,11 @@
       <c r="B28" s="20"/>
       <c r="C28" s="20"/>
       <c r="D28" s="20"/>
-      <c r="E28" s="195"/>
-      <c r="F28" s="196"/>
-      <c r="G28" s="196"/>
-      <c r="H28" s="196"/>
-      <c r="I28" s="197"/>
+      <c r="E28" s="117"/>
+      <c r="F28" s="118"/>
+      <c r="G28" s="118"/>
+      <c r="H28" s="118"/>
+      <c r="I28" s="119"/>
       <c r="J28" s="61">
         <v>15</v>
       </c>
@@ -11140,11 +11140,11 @@
       <c r="B29" s="20"/>
       <c r="C29" s="20"/>
       <c r="D29" s="20"/>
-      <c r="E29" s="195"/>
-      <c r="F29" s="196"/>
-      <c r="G29" s="196"/>
-      <c r="H29" s="196"/>
-      <c r="I29" s="197"/>
+      <c r="E29" s="117"/>
+      <c r="F29" s="118"/>
+      <c r="G29" s="118"/>
+      <c r="H29" s="118"/>
+      <c r="I29" s="119"/>
       <c r="J29" s="61">
         <v>16</v>
       </c>
@@ -11197,11 +11197,11 @@
       <c r="B30" s="20"/>
       <c r="C30" s="20"/>
       <c r="D30" s="20"/>
-      <c r="E30" s="195"/>
-      <c r="F30" s="196"/>
-      <c r="G30" s="196"/>
-      <c r="H30" s="196"/>
-      <c r="I30" s="197"/>
+      <c r="E30" s="117"/>
+      <c r="F30" s="118"/>
+      <c r="G30" s="118"/>
+      <c r="H30" s="118"/>
+      <c r="I30" s="119"/>
       <c r="J30" s="61">
         <v>17</v>
       </c>
@@ -11254,11 +11254,11 @@
       <c r="B31" s="20"/>
       <c r="C31" s="20"/>
       <c r="D31" s="20"/>
-      <c r="E31" s="195"/>
-      <c r="F31" s="196"/>
-      <c r="G31" s="196"/>
-      <c r="H31" s="196"/>
-      <c r="I31" s="197"/>
+      <c r="E31" s="117"/>
+      <c r="F31" s="118"/>
+      <c r="G31" s="118"/>
+      <c r="H31" s="118"/>
+      <c r="I31" s="119"/>
       <c r="J31" s="62">
         <v>18</v>
       </c>
@@ -11299,22 +11299,22 @@
       <c r="AK31" s="23"/>
     </row>
     <row r="32" spans="1:39" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="207" t="s">
+      <c r="A32" s="163" t="s">
         <v>78</v>
       </c>
-      <c r="B32" s="208"/>
-      <c r="C32" s="208"/>
-      <c r="D32" s="208"/>
+      <c r="B32" s="164"/>
+      <c r="C32" s="164"/>
+      <c r="D32" s="164"/>
       <c r="E32" s="102"/>
       <c r="F32" s="102"/>
       <c r="G32" s="51"/>
-      <c r="H32" s="107"/>
-      <c r="I32" s="107"/>
-      <c r="J32" s="107"/>
-      <c r="K32" s="107"/>
-      <c r="L32" s="107"/>
-      <c r="M32" s="107"/>
-      <c r="N32" s="107"/>
+      <c r="H32" s="126"/>
+      <c r="I32" s="126"/>
+      <c r="J32" s="126"/>
+      <c r="K32" s="126"/>
+      <c r="L32" s="126"/>
+      <c r="M32" s="126"/>
+      <c r="N32" s="126"/>
       <c r="O32" s="51"/>
       <c r="P32" s="51"/>
       <c r="Q32" s="51"/>
@@ -11348,22 +11348,22 @@
       <c r="AK32" s="23"/>
     </row>
     <row r="33" spans="1:37" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="210" t="s">
+      <c r="A33" s="166" t="s">
         <v>79</v>
       </c>
-      <c r="B33" s="211"/>
-      <c r="C33" s="211"/>
-      <c r="D33" s="211"/>
+      <c r="B33" s="167"/>
+      <c r="C33" s="167"/>
+      <c r="D33" s="167"/>
       <c r="E33" s="103"/>
       <c r="F33" s="103"/>
       <c r="G33" s="21"/>
-      <c r="H33" s="109"/>
-      <c r="I33" s="109"/>
-      <c r="J33" s="109"/>
-      <c r="K33" s="109"/>
-      <c r="L33" s="109"/>
-      <c r="M33" s="109"/>
-      <c r="N33" s="109"/>
+      <c r="H33" s="114"/>
+      <c r="I33" s="114"/>
+      <c r="J33" s="114"/>
+      <c r="K33" s="114"/>
+      <c r="L33" s="114"/>
+      <c r="M33" s="114"/>
+      <c r="N33" s="114"/>
       <c r="O33" s="21"/>
       <c r="P33" s="21"/>
       <c r="Q33" s="21"/>
@@ -11472,31 +11472,31 @@
       <c r="AK35" s="23"/>
     </row>
     <row r="36" spans="1:37" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="148" t="s">
+      <c r="A36" s="132" t="s">
         <v>80</v>
       </c>
-      <c r="B36" s="149"/>
-      <c r="C36" s="149"/>
-      <c r="D36" s="150"/>
-      <c r="E36" s="150"/>
-      <c r="F36" s="150"/>
-      <c r="G36" s="150"/>
-      <c r="H36" s="150"/>
-      <c r="I36" s="150"/>
-      <c r="J36" s="150"/>
-      <c r="K36" s="150"/>
-      <c r="L36" s="153" t="s">
+      <c r="B36" s="139"/>
+      <c r="C36" s="139"/>
+      <c r="D36" s="140"/>
+      <c r="E36" s="140"/>
+      <c r="F36" s="140"/>
+      <c r="G36" s="140"/>
+      <c r="H36" s="140"/>
+      <c r="I36" s="140"/>
+      <c r="J36" s="140"/>
+      <c r="K36" s="140"/>
+      <c r="L36" s="143" t="s">
         <v>82</v>
       </c>
-      <c r="M36" s="153"/>
-      <c r="N36" s="154"/>
-      <c r="O36" s="159" t="s">
+      <c r="M36" s="143"/>
+      <c r="N36" s="144"/>
+      <c r="O36" s="149" t="s">
         <v>20</v>
       </c>
-      <c r="P36" s="160"/>
-      <c r="Q36" s="160"/>
-      <c r="R36" s="160"/>
-      <c r="S36" s="161"/>
+      <c r="P36" s="150"/>
+      <c r="Q36" s="150"/>
+      <c r="R36" s="150"/>
+      <c r="S36" s="151"/>
       <c r="X36" s="49"/>
       <c r="Y36" s="13">
         <v>22</v>
@@ -11525,22 +11525,22 @@
       <c r="AK36" s="23"/>
     </row>
     <row r="37" spans="1:37" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="168" t="s">
+      <c r="A37" s="152" t="s">
         <v>81</v>
       </c>
-      <c r="B37" s="169"/>
-      <c r="C37" s="169"/>
-      <c r="D37" s="151"/>
-      <c r="E37" s="151"/>
-      <c r="F37" s="151"/>
-      <c r="G37" s="151"/>
-      <c r="H37" s="151"/>
-      <c r="I37" s="151"/>
-      <c r="J37" s="151"/>
-      <c r="K37" s="151"/>
-      <c r="L37" s="155"/>
-      <c r="M37" s="155"/>
-      <c r="N37" s="156"/>
+      <c r="B37" s="153"/>
+      <c r="C37" s="153"/>
+      <c r="D37" s="141"/>
+      <c r="E37" s="141"/>
+      <c r="F37" s="141"/>
+      <c r="G37" s="141"/>
+      <c r="H37" s="141"/>
+      <c r="I37" s="141"/>
+      <c r="J37" s="141"/>
+      <c r="K37" s="141"/>
+      <c r="L37" s="145"/>
+      <c r="M37" s="145"/>
+      <c r="N37" s="146"/>
       <c r="O37" s="3" t="s">
         <v>67</v>
       </c>
@@ -11587,17 +11587,17 @@
       <c r="A38" s="100"/>
       <c r="B38" s="101"/>
       <c r="C38" s="101"/>
-      <c r="D38" s="152"/>
-      <c r="E38" s="152"/>
-      <c r="F38" s="152"/>
-      <c r="G38" s="152"/>
-      <c r="H38" s="152"/>
-      <c r="I38" s="152"/>
-      <c r="J38" s="152"/>
-      <c r="K38" s="152"/>
-      <c r="L38" s="157"/>
-      <c r="M38" s="157"/>
-      <c r="N38" s="158"/>
+      <c r="D38" s="142"/>
+      <c r="E38" s="142"/>
+      <c r="F38" s="142"/>
+      <c r="G38" s="142"/>
+      <c r="H38" s="142"/>
+      <c r="I38" s="142"/>
+      <c r="J38" s="142"/>
+      <c r="K38" s="142"/>
+      <c r="L38" s="147"/>
+      <c r="M38" s="147"/>
+      <c r="N38" s="148"/>
       <c r="O38" s="44"/>
       <c r="P38" s="21"/>
       <c r="Q38" s="21"/>
@@ -11631,41 +11631,41 @@
       <c r="AK38" s="23"/>
     </row>
     <row r="39" spans="1:37" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="181" t="s">
+      <c r="A39" s="154" t="s">
         <v>75</v>
       </c>
-      <c r="B39" s="183" t="s">
+      <c r="B39" s="155" t="s">
         <v>76</v>
       </c>
-      <c r="C39" s="183"/>
-      <c r="D39" s="183"/>
-      <c r="E39" s="185" t="s">
+      <c r="C39" s="155"/>
+      <c r="D39" s="155"/>
+      <c r="E39" s="121" t="s">
         <v>77</v>
       </c>
-      <c r="F39" s="186"/>
-      <c r="G39" s="186"/>
-      <c r="H39" s="186"/>
-      <c r="I39" s="186"/>
-      <c r="J39" s="188" t="s">
+      <c r="F39" s="122"/>
+      <c r="G39" s="122"/>
+      <c r="H39" s="122"/>
+      <c r="I39" s="122"/>
+      <c r="J39" s="158" t="s">
         <v>0</v>
       </c>
-      <c r="K39" s="190" t="s">
+      <c r="K39" s="160" t="s">
         <v>15</v>
       </c>
-      <c r="L39" s="191"/>
-      <c r="M39" s="191"/>
-      <c r="N39" s="192"/>
-      <c r="O39" s="193" t="s">
+      <c r="L39" s="161"/>
+      <c r="M39" s="161"/>
+      <c r="N39" s="162"/>
+      <c r="O39" s="131" t="s">
         <v>5</v>
       </c>
-      <c r="P39" s="107"/>
-      <c r="Q39" s="107"/>
-      <c r="R39" s="107"/>
-      <c r="S39" s="108"/>
-      <c r="U39" s="148" t="s">
+      <c r="P39" s="126"/>
+      <c r="Q39" s="126"/>
+      <c r="R39" s="126"/>
+      <c r="S39" s="127"/>
+      <c r="U39" s="132" t="s">
         <v>6</v>
       </c>
-      <c r="V39" s="198"/>
+      <c r="V39" s="133"/>
       <c r="X39" s="49"/>
       <c r="Y39" s="13">
         <v>25</v>
@@ -11694,16 +11694,16 @@
       <c r="AK39" s="23"/>
     </row>
     <row r="40" spans="1:37" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="182"/>
-      <c r="B40" s="184"/>
-      <c r="C40" s="184"/>
-      <c r="D40" s="184"/>
-      <c r="E40" s="187"/>
-      <c r="F40" s="187"/>
-      <c r="G40" s="187"/>
-      <c r="H40" s="187"/>
-      <c r="I40" s="187"/>
-      <c r="J40" s="189"/>
+      <c r="A40" s="128"/>
+      <c r="B40" s="156"/>
+      <c r="C40" s="156"/>
+      <c r="D40" s="156"/>
+      <c r="E40" s="157"/>
+      <c r="F40" s="157"/>
+      <c r="G40" s="157"/>
+      <c r="H40" s="157"/>
+      <c r="I40" s="157"/>
+      <c r="J40" s="159"/>
       <c r="K40" s="48" t="s">
         <v>7</v>
       </c>
@@ -11731,8 +11731,8 @@
       <c r="S40" s="10">
         <v>5</v>
       </c>
-      <c r="U40" s="199"/>
-      <c r="V40" s="200"/>
+      <c r="U40" s="134"/>
+      <c r="V40" s="135"/>
       <c r="X40" s="49"/>
       <c r="Y40" s="13">
         <v>26</v>
@@ -11767,11 +11767,11 @@
       <c r="B41" s="17"/>
       <c r="C41" s="17"/>
       <c r="D41" s="17"/>
-      <c r="E41" s="201"/>
-      <c r="F41" s="202"/>
-      <c r="G41" s="202"/>
-      <c r="H41" s="202"/>
-      <c r="I41" s="203"/>
+      <c r="E41" s="136"/>
+      <c r="F41" s="137"/>
+      <c r="G41" s="137"/>
+      <c r="H41" s="137"/>
+      <c r="I41" s="138"/>
       <c r="J41" s="60">
         <v>4</v>
       </c>
@@ -11818,11 +11818,11 @@
       <c r="B42" s="20"/>
       <c r="C42" s="20"/>
       <c r="D42" s="20"/>
-      <c r="E42" s="195"/>
-      <c r="F42" s="196"/>
-      <c r="G42" s="196"/>
-      <c r="H42" s="196"/>
-      <c r="I42" s="197"/>
+      <c r="E42" s="117"/>
+      <c r="F42" s="118"/>
+      <c r="G42" s="118"/>
+      <c r="H42" s="118"/>
+      <c r="I42" s="119"/>
       <c r="J42" s="61">
         <v>5</v>
       </c>
@@ -11835,10 +11835,10 @@
       <c r="Q42" s="20"/>
       <c r="R42" s="20"/>
       <c r="S42" s="54"/>
-      <c r="U42" s="204" t="s">
+      <c r="U42" s="120" t="s">
         <v>11</v>
       </c>
-      <c r="V42" s="205" t="s">
+      <c r="V42" s="129" t="s">
         <v>12</v>
       </c>
       <c r="X42" s="49"/>
@@ -11875,11 +11875,11 @@
       <c r="B43" s="20"/>
       <c r="C43" s="20"/>
       <c r="D43" s="20"/>
-      <c r="E43" s="195"/>
-      <c r="F43" s="196"/>
-      <c r="G43" s="196"/>
-      <c r="H43" s="196"/>
-      <c r="I43" s="197"/>
+      <c r="E43" s="117"/>
+      <c r="F43" s="118"/>
+      <c r="G43" s="118"/>
+      <c r="H43" s="118"/>
+      <c r="I43" s="119"/>
       <c r="J43" s="61">
         <v>6</v>
       </c>
@@ -11892,8 +11892,8 @@
       <c r="Q43" s="20"/>
       <c r="R43" s="20"/>
       <c r="S43" s="54"/>
-      <c r="U43" s="182"/>
-      <c r="V43" s="206"/>
+      <c r="U43" s="128"/>
+      <c r="V43" s="130"/>
       <c r="X43" s="49"/>
       <c r="Y43" s="13">
         <v>29</v>
@@ -11928,11 +11928,11 @@
       <c r="B44" s="20"/>
       <c r="C44" s="20"/>
       <c r="D44" s="20"/>
-      <c r="E44" s="195"/>
-      <c r="F44" s="196"/>
-      <c r="G44" s="196"/>
-      <c r="H44" s="196"/>
-      <c r="I44" s="197"/>
+      <c r="E44" s="117"/>
+      <c r="F44" s="118"/>
+      <c r="G44" s="118"/>
+      <c r="H44" s="118"/>
+      <c r="I44" s="119"/>
       <c r="J44" s="61">
         <v>7</v>
       </c>
@@ -11985,11 +11985,11 @@
       <c r="B45" s="20"/>
       <c r="C45" s="20"/>
       <c r="D45" s="20"/>
-      <c r="E45" s="195"/>
-      <c r="F45" s="196"/>
-      <c r="G45" s="196"/>
-      <c r="H45" s="196"/>
-      <c r="I45" s="197"/>
+      <c r="E45" s="117"/>
+      <c r="F45" s="118"/>
+      <c r="G45" s="118"/>
+      <c r="H45" s="118"/>
+      <c r="I45" s="119"/>
       <c r="J45" s="61">
         <v>8</v>
       </c>
@@ -12042,11 +12042,11 @@
       <c r="B46" s="20"/>
       <c r="C46" s="20"/>
       <c r="D46" s="20"/>
-      <c r="E46" s="195"/>
-      <c r="F46" s="196"/>
-      <c r="G46" s="196"/>
-      <c r="H46" s="196"/>
-      <c r="I46" s="197"/>
+      <c r="E46" s="117"/>
+      <c r="F46" s="118"/>
+      <c r="G46" s="118"/>
+      <c r="H46" s="118"/>
+      <c r="I46" s="119"/>
       <c r="J46" s="61">
         <v>9</v>
       </c>
@@ -12099,11 +12099,11 @@
       <c r="B47" s="20"/>
       <c r="C47" s="20"/>
       <c r="D47" s="20"/>
-      <c r="E47" s="195"/>
-      <c r="F47" s="196"/>
-      <c r="G47" s="196"/>
-      <c r="H47" s="196"/>
-      <c r="I47" s="197"/>
+      <c r="E47" s="117"/>
+      <c r="F47" s="118"/>
+      <c r="G47" s="118"/>
+      <c r="H47" s="118"/>
+      <c r="I47" s="119"/>
       <c r="J47" s="61">
         <v>10</v>
       </c>
@@ -12156,11 +12156,11 @@
       <c r="B48" s="20"/>
       <c r="C48" s="20"/>
       <c r="D48" s="20"/>
-      <c r="E48" s="195"/>
-      <c r="F48" s="196"/>
-      <c r="G48" s="196"/>
-      <c r="H48" s="196"/>
-      <c r="I48" s="197"/>
+      <c r="E48" s="117"/>
+      <c r="F48" s="118"/>
+      <c r="G48" s="118"/>
+      <c r="H48" s="118"/>
+      <c r="I48" s="119"/>
       <c r="J48" s="61">
         <v>11</v>
       </c>
@@ -12207,11 +12207,11 @@
       <c r="B49" s="20"/>
       <c r="C49" s="20"/>
       <c r="D49" s="20"/>
-      <c r="E49" s="195"/>
-      <c r="F49" s="196"/>
-      <c r="G49" s="196"/>
-      <c r="H49" s="196"/>
-      <c r="I49" s="197"/>
+      <c r="E49" s="117"/>
+      <c r="F49" s="118"/>
+      <c r="G49" s="118"/>
+      <c r="H49" s="118"/>
+      <c r="I49" s="119"/>
       <c r="J49" s="61">
         <v>12</v>
       </c>
@@ -12224,10 +12224,10 @@
       <c r="Q49" s="20"/>
       <c r="R49" s="20"/>
       <c r="S49" s="54"/>
-      <c r="U49" s="204" t="s">
+      <c r="U49" s="120" t="s">
         <v>13</v>
       </c>
-      <c r="V49" s="205" t="s">
+      <c r="V49" s="129" t="s">
         <v>14</v>
       </c>
       <c r="X49" s="49"/>
@@ -12264,11 +12264,11 @@
       <c r="B50" s="20"/>
       <c r="C50" s="20"/>
       <c r="D50" s="20"/>
-      <c r="E50" s="195"/>
-      <c r="F50" s="196"/>
-      <c r="G50" s="196"/>
-      <c r="H50" s="196"/>
-      <c r="I50" s="197"/>
+      <c r="E50" s="117"/>
+      <c r="F50" s="118"/>
+      <c r="G50" s="118"/>
+      <c r="H50" s="118"/>
+      <c r="I50" s="119"/>
       <c r="J50" s="61">
         <v>13</v>
       </c>
@@ -12281,8 +12281,8 @@
       <c r="Q50" s="20"/>
       <c r="R50" s="20"/>
       <c r="S50" s="54"/>
-      <c r="U50" s="182"/>
-      <c r="V50" s="206"/>
+      <c r="U50" s="128"/>
+      <c r="V50" s="130"/>
       <c r="X50" s="49"/>
       <c r="Y50" s="13">
         <v>36</v>
@@ -12317,11 +12317,11 @@
       <c r="B51" s="20"/>
       <c r="C51" s="20"/>
       <c r="D51" s="20"/>
-      <c r="E51" s="195"/>
-      <c r="F51" s="196"/>
-      <c r="G51" s="196"/>
-      <c r="H51" s="196"/>
-      <c r="I51" s="197"/>
+      <c r="E51" s="117"/>
+      <c r="F51" s="118"/>
+      <c r="G51" s="118"/>
+      <c r="H51" s="118"/>
+      <c r="I51" s="119"/>
       <c r="J51" s="61">
         <v>14</v>
       </c>
@@ -12374,11 +12374,11 @@
       <c r="B52" s="20"/>
       <c r="C52" s="20"/>
       <c r="D52" s="20"/>
-      <c r="E52" s="195"/>
-      <c r="F52" s="196"/>
-      <c r="G52" s="196"/>
-      <c r="H52" s="196"/>
-      <c r="I52" s="197"/>
+      <c r="E52" s="117"/>
+      <c r="F52" s="118"/>
+      <c r="G52" s="118"/>
+      <c r="H52" s="118"/>
+      <c r="I52" s="119"/>
       <c r="J52" s="61">
         <v>15</v>
       </c>
@@ -12431,11 +12431,11 @@
       <c r="B53" s="20"/>
       <c r="C53" s="20"/>
       <c r="D53" s="20"/>
-      <c r="E53" s="195"/>
-      <c r="F53" s="196"/>
-      <c r="G53" s="196"/>
-      <c r="H53" s="196"/>
-      <c r="I53" s="197"/>
+      <c r="E53" s="117"/>
+      <c r="F53" s="118"/>
+      <c r="G53" s="118"/>
+      <c r="H53" s="118"/>
+      <c r="I53" s="119"/>
       <c r="J53" s="61">
         <v>16</v>
       </c>
@@ -12488,11 +12488,11 @@
       <c r="B54" s="20"/>
       <c r="C54" s="20"/>
       <c r="D54" s="20"/>
-      <c r="E54" s="195"/>
-      <c r="F54" s="196"/>
-      <c r="G54" s="196"/>
-      <c r="H54" s="196"/>
-      <c r="I54" s="197"/>
+      <c r="E54" s="117"/>
+      <c r="F54" s="118"/>
+      <c r="G54" s="118"/>
+      <c r="H54" s="118"/>
+      <c r="I54" s="119"/>
       <c r="J54" s="61">
         <v>17</v>
       </c>
@@ -12545,11 +12545,11 @@
       <c r="B55" s="20"/>
       <c r="C55" s="20"/>
       <c r="D55" s="20"/>
-      <c r="E55" s="195"/>
-      <c r="F55" s="196"/>
-      <c r="G55" s="196"/>
-      <c r="H55" s="196"/>
-      <c r="I55" s="197"/>
+      <c r="E55" s="117"/>
+      <c r="F55" s="118"/>
+      <c r="G55" s="118"/>
+      <c r="H55" s="118"/>
+      <c r="I55" s="119"/>
       <c r="J55" s="62">
         <v>18</v>
       </c>
@@ -12564,98 +12564,98 @@
       <c r="S55" s="45"/>
     </row>
     <row r="56" spans="1:37" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="204" t="s">
+      <c r="A56" s="120" t="s">
         <v>78</v>
       </c>
-      <c r="B56" s="185"/>
-      <c r="C56" s="185"/>
-      <c r="D56" s="185"/>
+      <c r="B56" s="121"/>
+      <c r="C56" s="121"/>
+      <c r="D56" s="121"/>
       <c r="E56" s="102"/>
       <c r="F56" s="102"/>
       <c r="G56" s="51"/>
-      <c r="H56" s="186"/>
-      <c r="I56" s="186"/>
-      <c r="J56" s="186"/>
-      <c r="K56" s="186"/>
-      <c r="L56" s="186"/>
-      <c r="M56" s="186"/>
-      <c r="N56" s="186"/>
+      <c r="H56" s="122"/>
+      <c r="I56" s="122"/>
+      <c r="J56" s="122"/>
+      <c r="K56" s="122"/>
+      <c r="L56" s="122"/>
+      <c r="M56" s="122"/>
+      <c r="N56" s="122"/>
       <c r="O56" s="51"/>
       <c r="P56" s="51"/>
       <c r="Q56" s="51"/>
       <c r="R56" s="51"/>
       <c r="S56" s="52"/>
-      <c r="X56" s="220" t="s">
+      <c r="X56" s="124" t="s">
         <v>83</v>
       </c>
-      <c r="Y56" s="221"/>
-      <c r="Z56" s="221"/>
-      <c r="AA56" s="221"/>
-      <c r="AB56" s="107"/>
-      <c r="AC56" s="107"/>
-      <c r="AD56" s="107"/>
-      <c r="AE56" s="107"/>
-      <c r="AF56" s="107"/>
-      <c r="AG56" s="107"/>
-      <c r="AH56" s="107"/>
-      <c r="AI56" s="107"/>
-      <c r="AJ56" s="107"/>
-      <c r="AK56" s="108"/>
+      <c r="Y56" s="125"/>
+      <c r="Z56" s="125"/>
+      <c r="AA56" s="125"/>
+      <c r="AB56" s="126"/>
+      <c r="AC56" s="126"/>
+      <c r="AD56" s="126"/>
+      <c r="AE56" s="126"/>
+      <c r="AF56" s="126"/>
+      <c r="AG56" s="126"/>
+      <c r="AH56" s="126"/>
+      <c r="AI56" s="126"/>
+      <c r="AJ56" s="126"/>
+      <c r="AK56" s="127"/>
     </row>
     <row r="57" spans="1:37" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="213" t="s">
+      <c r="A57" s="107" t="s">
         <v>79</v>
       </c>
-      <c r="B57" s="214"/>
-      <c r="C57" s="214"/>
-      <c r="D57" s="215"/>
+      <c r="B57" s="108"/>
+      <c r="C57" s="108"/>
+      <c r="D57" s="109"/>
       <c r="E57" s="103"/>
       <c r="F57" s="103"/>
       <c r="G57" s="21"/>
-      <c r="H57" s="212"/>
-      <c r="I57" s="216"/>
-      <c r="J57" s="216"/>
-      <c r="K57" s="216"/>
-      <c r="L57" s="216"/>
-      <c r="M57" s="216"/>
+      <c r="H57" s="110"/>
+      <c r="I57" s="111"/>
+      <c r="J57" s="111"/>
+      <c r="K57" s="111"/>
+      <c r="L57" s="111"/>
+      <c r="M57" s="111"/>
       <c r="N57" s="222"/>
       <c r="O57" s="21"/>
       <c r="P57" s="21"/>
       <c r="Q57" s="21"/>
       <c r="R57" s="21"/>
       <c r="S57" s="45"/>
-      <c r="X57" s="217" t="s">
+      <c r="X57" s="112" t="s">
         <v>84</v>
       </c>
-      <c r="Y57" s="218"/>
-      <c r="Z57" s="218"/>
-      <c r="AA57" s="218"/>
-      <c r="AB57" s="109"/>
-      <c r="AC57" s="109"/>
-      <c r="AD57" s="109"/>
-      <c r="AE57" s="109"/>
-      <c r="AF57" s="109"/>
-      <c r="AG57" s="109"/>
-      <c r="AH57" s="109"/>
-      <c r="AI57" s="109"/>
-      <c r="AJ57" s="109"/>
-      <c r="AK57" s="110"/>
+      <c r="Y57" s="113"/>
+      <c r="Z57" s="113"/>
+      <c r="AA57" s="113"/>
+      <c r="AB57" s="114"/>
+      <c r="AC57" s="114"/>
+      <c r="AD57" s="114"/>
+      <c r="AE57" s="114"/>
+      <c r="AF57" s="114"/>
+      <c r="AG57" s="114"/>
+      <c r="AH57" s="114"/>
+      <c r="AI57" s="114"/>
+      <c r="AJ57" s="114"/>
+      <c r="AK57" s="115"/>
     </row>
     <row r="58" spans="1:37" ht="14.4" x14ac:dyDescent="0.2">
-      <c r="A58" s="219"/>
-      <c r="B58" s="219"/>
-      <c r="C58" s="219"/>
-      <c r="D58" s="219"/>
-      <c r="E58" s="219"/>
-      <c r="F58" s="219"/>
-      <c r="G58" s="219"/>
-      <c r="H58" s="219"/>
-      <c r="I58" s="219"/>
-      <c r="J58" s="219"/>
-      <c r="K58" s="219"/>
-      <c r="L58" s="219"/>
-      <c r="M58" s="219"/>
-      <c r="N58" s="219"/>
+      <c r="A58" s="116"/>
+      <c r="B58" s="116"/>
+      <c r="C58" s="116"/>
+      <c r="D58" s="116"/>
+      <c r="E58" s="116"/>
+      <c r="F58" s="116"/>
+      <c r="G58" s="116"/>
+      <c r="H58" s="116"/>
+      <c r="I58" s="116"/>
+      <c r="J58" s="116"/>
+      <c r="K58" s="116"/>
+      <c r="L58" s="116"/>
+      <c r="M58" s="116"/>
+      <c r="N58" s="116"/>
       <c r="U58" s="19"/>
       <c r="V58" s="19"/>
       <c r="W58" s="19"/>
@@ -12672,52 +12672,59 @@
     </row>
   </sheetData>
   <mergeCells count="118">
-    <mergeCell ref="X56:AA56"/>
-    <mergeCell ref="AB56:AK56"/>
-    <mergeCell ref="X57:AA57"/>
-    <mergeCell ref="AB57:AK57"/>
-    <mergeCell ref="E47:I47"/>
-    <mergeCell ref="E48:I48"/>
-    <mergeCell ref="E49:I49"/>
-    <mergeCell ref="E50:I50"/>
-    <mergeCell ref="E51:I51"/>
-    <mergeCell ref="U49:U50"/>
-    <mergeCell ref="V49:V50"/>
-    <mergeCell ref="U3:W3"/>
-    <mergeCell ref="U4:W4"/>
-    <mergeCell ref="AD9:AJ9"/>
-    <mergeCell ref="L12:N14"/>
-    <mergeCell ref="A12:C12"/>
-    <mergeCell ref="A13:C13"/>
-    <mergeCell ref="D12:K14"/>
-    <mergeCell ref="D7:F9"/>
-    <mergeCell ref="O7:Q9"/>
-    <mergeCell ref="D6:F6"/>
-    <mergeCell ref="O6:Q6"/>
-    <mergeCell ref="A6:C6"/>
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="J8:K8"/>
-    <mergeCell ref="J9:K9"/>
-    <mergeCell ref="J10:K10"/>
-    <mergeCell ref="U8:AB8"/>
-    <mergeCell ref="O39:S39"/>
-    <mergeCell ref="U39:V40"/>
-    <mergeCell ref="U42:U43"/>
-    <mergeCell ref="V42:V43"/>
-    <mergeCell ref="K39:N39"/>
-    <mergeCell ref="J39:J40"/>
-    <mergeCell ref="A39:A40"/>
-    <mergeCell ref="B39:D40"/>
-    <mergeCell ref="E39:I40"/>
-    <mergeCell ref="E41:I41"/>
-    <mergeCell ref="E42:I42"/>
-    <mergeCell ref="E43:I43"/>
-    <mergeCell ref="R5:T5"/>
-    <mergeCell ref="U5:X5"/>
-    <mergeCell ref="U7:X7"/>
-    <mergeCell ref="U10:AB10"/>
-    <mergeCell ref="U6:AC6"/>
+    <mergeCell ref="E44:I44"/>
+    <mergeCell ref="E45:I45"/>
+    <mergeCell ref="E46:I46"/>
+    <mergeCell ref="A33:D33"/>
+    <mergeCell ref="A36:C36"/>
+    <mergeCell ref="A37:C37"/>
+    <mergeCell ref="A58:N58"/>
+    <mergeCell ref="E52:I52"/>
+    <mergeCell ref="E53:I53"/>
+    <mergeCell ref="E54:I54"/>
+    <mergeCell ref="E55:I55"/>
+    <mergeCell ref="A56:D56"/>
+    <mergeCell ref="H56:N56"/>
+    <mergeCell ref="A57:D57"/>
+    <mergeCell ref="H57:N57"/>
+    <mergeCell ref="E19:I19"/>
+    <mergeCell ref="E20:I20"/>
+    <mergeCell ref="E21:I21"/>
+    <mergeCell ref="O36:S36"/>
+    <mergeCell ref="E22:I22"/>
+    <mergeCell ref="E23:I23"/>
+    <mergeCell ref="E24:I24"/>
+    <mergeCell ref="E25:I25"/>
+    <mergeCell ref="E26:I26"/>
+    <mergeCell ref="E27:I27"/>
+    <mergeCell ref="E28:I28"/>
+    <mergeCell ref="E29:I29"/>
+    <mergeCell ref="E30:I30"/>
+    <mergeCell ref="E31:I31"/>
+    <mergeCell ref="H33:N33"/>
+    <mergeCell ref="D36:K38"/>
+    <mergeCell ref="L36:N38"/>
+    <mergeCell ref="A32:D32"/>
+    <mergeCell ref="H32:N32"/>
+    <mergeCell ref="K15:N15"/>
+    <mergeCell ref="J15:J16"/>
+    <mergeCell ref="O15:S15"/>
+    <mergeCell ref="AJ14:AK14"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="B15:D16"/>
+    <mergeCell ref="E15:I16"/>
+    <mergeCell ref="E17:I17"/>
+    <mergeCell ref="E18:I18"/>
+    <mergeCell ref="U25:U26"/>
+    <mergeCell ref="V25:V26"/>
+    <mergeCell ref="U18:U19"/>
+    <mergeCell ref="V18:V19"/>
+    <mergeCell ref="U15:V16"/>
+    <mergeCell ref="X12:AK13"/>
+    <mergeCell ref="AD5:AG5"/>
+    <mergeCell ref="AD7:AG7"/>
+    <mergeCell ref="AD6:AK6"/>
+    <mergeCell ref="AD8:AK8"/>
     <mergeCell ref="S1:U1"/>
     <mergeCell ref="A5:C5"/>
     <mergeCell ref="X14:Y14"/>
@@ -12737,64 +12744,57 @@
     <mergeCell ref="AI4:AK4"/>
     <mergeCell ref="J2:AE2"/>
     <mergeCell ref="D3:T4"/>
-    <mergeCell ref="U25:U26"/>
-    <mergeCell ref="V25:V26"/>
-    <mergeCell ref="U18:U19"/>
-    <mergeCell ref="V18:V19"/>
-    <mergeCell ref="U15:V16"/>
-    <mergeCell ref="X12:AK13"/>
-    <mergeCell ref="AD5:AG5"/>
-    <mergeCell ref="AD7:AG7"/>
-    <mergeCell ref="AD6:AK6"/>
-    <mergeCell ref="AD8:AK8"/>
-    <mergeCell ref="K15:N15"/>
-    <mergeCell ref="J15:J16"/>
-    <mergeCell ref="O15:S15"/>
-    <mergeCell ref="AJ14:AK14"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="B15:D16"/>
-    <mergeCell ref="E15:I16"/>
-    <mergeCell ref="E17:I17"/>
-    <mergeCell ref="E18:I18"/>
-    <mergeCell ref="E19:I19"/>
-    <mergeCell ref="E20:I20"/>
-    <mergeCell ref="E21:I21"/>
-    <mergeCell ref="O36:S36"/>
-    <mergeCell ref="E22:I22"/>
-    <mergeCell ref="E23:I23"/>
-    <mergeCell ref="E24:I24"/>
-    <mergeCell ref="E25:I25"/>
-    <mergeCell ref="E26:I26"/>
-    <mergeCell ref="E27:I27"/>
-    <mergeCell ref="E28:I28"/>
-    <mergeCell ref="E29:I29"/>
-    <mergeCell ref="E30:I30"/>
-    <mergeCell ref="E31:I31"/>
-    <mergeCell ref="H33:N33"/>
-    <mergeCell ref="D36:K38"/>
-    <mergeCell ref="L36:N38"/>
-    <mergeCell ref="A32:D32"/>
-    <mergeCell ref="H32:N32"/>
-    <mergeCell ref="A58:N58"/>
-    <mergeCell ref="E52:I52"/>
-    <mergeCell ref="E53:I53"/>
-    <mergeCell ref="E54:I54"/>
-    <mergeCell ref="E55:I55"/>
-    <mergeCell ref="A56:D56"/>
-    <mergeCell ref="H56:N56"/>
-    <mergeCell ref="A57:D57"/>
-    <mergeCell ref="H57:N57"/>
-    <mergeCell ref="E44:I44"/>
-    <mergeCell ref="E45:I45"/>
-    <mergeCell ref="E46:I46"/>
-    <mergeCell ref="A33:D33"/>
-    <mergeCell ref="A36:C36"/>
-    <mergeCell ref="A37:C37"/>
+    <mergeCell ref="O39:S39"/>
+    <mergeCell ref="U39:V40"/>
+    <mergeCell ref="U42:U43"/>
+    <mergeCell ref="V42:V43"/>
+    <mergeCell ref="K39:N39"/>
+    <mergeCell ref="J39:J40"/>
+    <mergeCell ref="A39:A40"/>
+    <mergeCell ref="B39:D40"/>
+    <mergeCell ref="E39:I40"/>
+    <mergeCell ref="E41:I41"/>
+    <mergeCell ref="E42:I42"/>
+    <mergeCell ref="E43:I43"/>
+    <mergeCell ref="U3:W3"/>
+    <mergeCell ref="U4:W4"/>
+    <mergeCell ref="AD9:AJ9"/>
+    <mergeCell ref="L12:N14"/>
+    <mergeCell ref="A12:C12"/>
+    <mergeCell ref="A13:C13"/>
+    <mergeCell ref="D12:K14"/>
+    <mergeCell ref="D7:F9"/>
+    <mergeCell ref="O7:Q9"/>
+    <mergeCell ref="D6:F6"/>
+    <mergeCell ref="O6:Q6"/>
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="J8:K8"/>
+    <mergeCell ref="J9:K9"/>
+    <mergeCell ref="J10:K10"/>
+    <mergeCell ref="U8:AB8"/>
+    <mergeCell ref="R5:T5"/>
+    <mergeCell ref="U5:X5"/>
+    <mergeCell ref="U7:X7"/>
+    <mergeCell ref="U10:AB10"/>
+    <mergeCell ref="U6:AC6"/>
+    <mergeCell ref="X56:AA56"/>
+    <mergeCell ref="AB56:AK56"/>
+    <mergeCell ref="X57:AA57"/>
+    <mergeCell ref="AB57:AK57"/>
+    <mergeCell ref="E47:I47"/>
+    <mergeCell ref="E48:I48"/>
+    <mergeCell ref="E49:I49"/>
+    <mergeCell ref="E50:I50"/>
+    <mergeCell ref="E51:I51"/>
+    <mergeCell ref="U49:U50"/>
+    <mergeCell ref="V49:V50"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" scale="68" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="66" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
   <drawing r:id="rId2"/>
 </worksheet>
@@ -12814,50 +12814,50 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="67.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="245" t="s">
+      <c r="A1" s="230" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="246"/>
-      <c r="C1" s="246"/>
-      <c r="D1" s="246"/>
-      <c r="E1" s="246"/>
-      <c r="F1" s="246"/>
-      <c r="G1" s="246"/>
-      <c r="H1" s="246"/>
-      <c r="I1" s="246"/>
-      <c r="J1" s="246"/>
-      <c r="K1" s="246"/>
-      <c r="L1" s="246"/>
-      <c r="M1" s="246"/>
-      <c r="N1" s="246"/>
-      <c r="O1" s="246"/>
-      <c r="P1" s="246"/>
-      <c r="Q1" s="246"/>
-      <c r="R1" s="246"/>
-      <c r="S1" s="246"/>
+      <c r="B1" s="231"/>
+      <c r="C1" s="231"/>
+      <c r="D1" s="231"/>
+      <c r="E1" s="231"/>
+      <c r="F1" s="231"/>
+      <c r="G1" s="231"/>
+      <c r="H1" s="231"/>
+      <c r="I1" s="231"/>
+      <c r="J1" s="231"/>
+      <c r="K1" s="231"/>
+      <c r="L1" s="231"/>
+      <c r="M1" s="231"/>
+      <c r="N1" s="231"/>
+      <c r="O1" s="231"/>
+      <c r="P1" s="231"/>
+      <c r="Q1" s="231"/>
+      <c r="R1" s="231"/>
+      <c r="S1" s="231"/>
     </row>
     <row r="2" spans="1:20" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="247" t="s">
+      <c r="A2" s="232" t="s">
         <v>24</v>
       </c>
-      <c r="B2" s="247"/>
-      <c r="C2" s="247"/>
-      <c r="D2" s="247"/>
-      <c r="E2" s="247"/>
-      <c r="F2" s="247"/>
-      <c r="G2" s="247"/>
-      <c r="H2" s="247"/>
-      <c r="I2" s="247"/>
-      <c r="J2" s="247"/>
-      <c r="K2" s="247"/>
-      <c r="L2" s="247"/>
-      <c r="M2" s="247"/>
-      <c r="N2" s="247"/>
-      <c r="O2" s="247"/>
-      <c r="P2" s="247"/>
-      <c r="Q2" s="247"/>
-      <c r="R2" s="247"/>
-      <c r="S2" s="247"/>
+      <c r="B2" s="232"/>
+      <c r="C2" s="232"/>
+      <c r="D2" s="232"/>
+      <c r="E2" s="232"/>
+      <c r="F2" s="232"/>
+      <c r="G2" s="232"/>
+      <c r="H2" s="232"/>
+      <c r="I2" s="232"/>
+      <c r="J2" s="232"/>
+      <c r="K2" s="232"/>
+      <c r="L2" s="232"/>
+      <c r="M2" s="232"/>
+      <c r="N2" s="232"/>
+      <c r="O2" s="232"/>
+      <c r="P2" s="232"/>
+      <c r="Q2" s="232"/>
+      <c r="R2" s="232"/>
+      <c r="S2" s="232"/>
       <c r="T2" s="65"/>
     </row>
     <row r="3" spans="1:20" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -12871,43 +12871,43 @@
       <c r="H3" s="66"/>
       <c r="I3" s="66"/>
       <c r="J3" s="66"/>
-      <c r="K3" s="248" t="s">
+      <c r="K3" s="233" t="s">
         <v>36</v>
       </c>
-      <c r="L3" s="249"/>
-      <c r="M3" s="249"/>
-      <c r="N3" s="249"/>
-      <c r="O3" s="249"/>
-      <c r="P3" s="249"/>
-      <c r="Q3" s="249"/>
-      <c r="R3" s="249"/>
-      <c r="S3" s="249"/>
+      <c r="L3" s="234"/>
+      <c r="M3" s="234"/>
+      <c r="N3" s="234"/>
+      <c r="O3" s="234"/>
+      <c r="P3" s="234"/>
+      <c r="Q3" s="234"/>
+      <c r="R3" s="234"/>
+      <c r="S3" s="234"/>
       <c r="T3" s="67"/>
     </row>
     <row r="4" spans="1:20" s="69" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="250" t="s">
+      <c r="A4" s="235" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="250"/>
-      <c r="C4" s="251"/>
-      <c r="D4" s="251"/>
-      <c r="E4" s="251"/>
-      <c r="F4" s="251"/>
-      <c r="G4" s="251"/>
-      <c r="H4" s="251"/>
-      <c r="I4" s="251"/>
-      <c r="J4" s="251"/>
-      <c r="K4" s="250" t="s">
+      <c r="B4" s="235"/>
+      <c r="C4" s="236"/>
+      <c r="D4" s="236"/>
+      <c r="E4" s="236"/>
+      <c r="F4" s="236"/>
+      <c r="G4" s="236"/>
+      <c r="H4" s="236"/>
+      <c r="I4" s="236"/>
+      <c r="J4" s="236"/>
+      <c r="K4" s="235" t="s">
         <v>25</v>
       </c>
-      <c r="L4" s="252"/>
-      <c r="M4" s="251"/>
-      <c r="N4" s="251"/>
-      <c r="O4" s="251"/>
-      <c r="P4" s="251"/>
-      <c r="Q4" s="251"/>
-      <c r="R4" s="251"/>
-      <c r="S4" s="251"/>
+      <c r="L4" s="237"/>
+      <c r="M4" s="236"/>
+      <c r="N4" s="236"/>
+      <c r="O4" s="236"/>
+      <c r="P4" s="236"/>
+      <c r="Q4" s="236"/>
+      <c r="R4" s="236"/>
+      <c r="S4" s="236"/>
       <c r="T4" s="68"/>
     </row>
     <row r="5" spans="1:20" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -12923,53 +12923,53 @@
       <c r="J5" s="66"/>
     </row>
     <row r="6" spans="1:20" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="234" t="s">
+      <c r="A6" s="242" t="s">
         <v>26</v>
       </c>
-      <c r="B6" s="234"/>
-      <c r="C6" s="234"/>
-      <c r="D6" s="234"/>
-      <c r="E6" s="234"/>
-      <c r="F6" s="234"/>
-      <c r="G6" s="234"/>
-      <c r="H6" s="234"/>
-      <c r="I6" s="234"/>
+      <c r="B6" s="242"/>
+      <c r="C6" s="242"/>
+      <c r="D6" s="242"/>
+      <c r="E6" s="242"/>
+      <c r="F6" s="242"/>
+      <c r="G6" s="242"/>
+      <c r="H6" s="242"/>
+      <c r="I6" s="242"/>
       <c r="J6" s="66"/>
-      <c r="K6" s="234" t="s">
+      <c r="K6" s="242" t="s">
         <v>26</v>
       </c>
-      <c r="L6" s="234"/>
-      <c r="M6" s="234"/>
-      <c r="N6" s="234"/>
-      <c r="O6" s="234"/>
-      <c r="P6" s="234"/>
-      <c r="Q6" s="234"/>
-      <c r="R6" s="234"/>
-      <c r="S6" s="234"/>
+      <c r="L6" s="242"/>
+      <c r="M6" s="242"/>
+      <c r="N6" s="242"/>
+      <c r="O6" s="242"/>
+      <c r="P6" s="242"/>
+      <c r="Q6" s="242"/>
+      <c r="R6" s="242"/>
+      <c r="S6" s="242"/>
     </row>
     <row r="7" spans="1:20" s="70" customFormat="1" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="235" t="s">
+      <c r="A7" s="243" t="s">
         <v>27</v>
       </c>
-      <c r="B7" s="235"/>
-      <c r="C7" s="235"/>
-      <c r="D7" s="235"/>
-      <c r="E7" s="235"/>
-      <c r="F7" s="235"/>
-      <c r="G7" s="235"/>
-      <c r="H7" s="235"/>
-      <c r="I7" s="235"/>
-      <c r="K7" s="235" t="s">
+      <c r="B7" s="243"/>
+      <c r="C7" s="243"/>
+      <c r="D7" s="243"/>
+      <c r="E7" s="243"/>
+      <c r="F7" s="243"/>
+      <c r="G7" s="243"/>
+      <c r="H7" s="243"/>
+      <c r="I7" s="243"/>
+      <c r="K7" s="243" t="s">
         <v>28</v>
       </c>
-      <c r="L7" s="235"/>
-      <c r="M7" s="235"/>
-      <c r="N7" s="235"/>
-      <c r="O7" s="235"/>
-      <c r="P7" s="235"/>
-      <c r="Q7" s="235"/>
-      <c r="R7" s="235"/>
-      <c r="S7" s="235"/>
+      <c r="L7" s="243"/>
+      <c r="M7" s="243"/>
+      <c r="N7" s="243"/>
+      <c r="O7" s="243"/>
+      <c r="P7" s="243"/>
+      <c r="Q7" s="243"/>
+      <c r="R7" s="243"/>
+      <c r="S7" s="243"/>
     </row>
     <row r="8" spans="1:20" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="66"/>
@@ -12992,40 +12992,40 @@
       <c r="R8" s="66"/>
     </row>
     <row r="9" spans="1:20" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="236" t="s">
+      <c r="A9" s="244" t="s">
         <v>29</v>
       </c>
-      <c r="B9" s="238" t="s">
+      <c r="B9" s="246" t="s">
         <v>30</v>
       </c>
-      <c r="C9" s="239"/>
-      <c r="D9" s="239"/>
-      <c r="E9" s="239"/>
-      <c r="F9" s="240"/>
+      <c r="C9" s="247"/>
+      <c r="D9" s="247"/>
+      <c r="E9" s="247"/>
+      <c r="F9" s="248"/>
       <c r="G9" s="66"/>
-      <c r="H9" s="241" t="s">
+      <c r="H9" s="249" t="s">
         <v>31</v>
       </c>
-      <c r="I9" s="242"/>
+      <c r="I9" s="250"/>
       <c r="J9" s="66"/>
-      <c r="K9" s="236" t="s">
+      <c r="K9" s="244" t="s">
         <v>29</v>
       </c>
-      <c r="L9" s="238" t="s">
+      <c r="L9" s="246" t="s">
         <v>30</v>
       </c>
-      <c r="M9" s="239"/>
-      <c r="N9" s="239"/>
-      <c r="O9" s="239"/>
-      <c r="P9" s="240"/>
+      <c r="M9" s="247"/>
+      <c r="N9" s="247"/>
+      <c r="O9" s="247"/>
+      <c r="P9" s="248"/>
       <c r="Q9" s="66"/>
-      <c r="R9" s="241" t="s">
+      <c r="R9" s="249" t="s">
         <v>31</v>
       </c>
-      <c r="S9" s="242"/>
+      <c r="S9" s="250"/>
     </row>
     <row r="10" spans="1:20" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="237"/>
+      <c r="A10" s="245"/>
       <c r="B10" s="71">
         <v>1</v>
       </c>
@@ -13042,10 +13042,10 @@
         <v>5</v>
       </c>
       <c r="G10" s="66"/>
-      <c r="H10" s="243"/>
-      <c r="I10" s="244"/>
+      <c r="H10" s="251"/>
+      <c r="I10" s="252"/>
       <c r="J10" s="66"/>
-      <c r="K10" s="237"/>
+      <c r="K10" s="245"/>
       <c r="L10" s="71">
         <v>1</v>
       </c>
@@ -13062,8 +13062,8 @@
         <v>5</v>
       </c>
       <c r="Q10" s="66"/>
-      <c r="R10" s="243"/>
-      <c r="S10" s="244"/>
+      <c r="R10" s="251"/>
+      <c r="S10" s="252"/>
     </row>
     <row r="11" spans="1:20" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="71">
@@ -13268,10 +13268,10 @@
       <c r="D18" s="72"/>
       <c r="E18" s="72"/>
       <c r="F18" s="72"/>
-      <c r="H18" s="230" t="s">
+      <c r="H18" s="238" t="s">
         <v>31</v>
       </c>
-      <c r="I18" s="231"/>
+      <c r="I18" s="239"/>
       <c r="K18" s="71">
         <v>11</v>
       </c>
@@ -13280,10 +13280,10 @@
       <c r="N18" s="72"/>
       <c r="O18" s="72"/>
       <c r="P18" s="72"/>
-      <c r="R18" s="230" t="s">
+      <c r="R18" s="238" t="s">
         <v>31</v>
       </c>
-      <c r="S18" s="231"/>
+      <c r="S18" s="239"/>
     </row>
     <row r="19" spans="1:19" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A19" s="71">
@@ -13294,8 +13294,8 @@
       <c r="D19" s="72"/>
       <c r="E19" s="72"/>
       <c r="F19" s="72"/>
-      <c r="H19" s="232"/>
-      <c r="I19" s="233"/>
+      <c r="H19" s="240"/>
+      <c r="I19" s="241"/>
       <c r="K19" s="71">
         <v>12</v>
       </c>
@@ -13304,8 +13304,8 @@
       <c r="N19" s="72"/>
       <c r="O19" s="72"/>
       <c r="P19" s="72"/>
-      <c r="R19" s="232"/>
-      <c r="S19" s="233"/>
+      <c r="R19" s="240"/>
+      <c r="S19" s="241"/>
     </row>
     <row r="20" spans="1:19" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A20" s="71">
@@ -13521,13 +13521,6 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="A1:S1"/>
-    <mergeCell ref="A2:S2"/>
-    <mergeCell ref="K3:S3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="C4:J4"/>
-    <mergeCell ref="K4:L4"/>
-    <mergeCell ref="M4:S4"/>
     <mergeCell ref="H18:I19"/>
     <mergeCell ref="R18:S19"/>
     <mergeCell ref="A6:I6"/>
@@ -13540,6 +13533,13 @@
     <mergeCell ref="K9:K10"/>
     <mergeCell ref="L9:P9"/>
     <mergeCell ref="R9:S10"/>
+    <mergeCell ref="A1:S1"/>
+    <mergeCell ref="A2:S2"/>
+    <mergeCell ref="K3:S3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:J4"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="M4:S4"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.55118110236220474" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
